--- a/F25_Sampling.xlsx
+++ b/F25_Sampling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trini/Documents/Shedd/Cruise_Sep_2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trini/Documents/Shedd/biota_project_genomicshifts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE830FB-4C92-134C-A06D-494842F91C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47085EA2-3DCE-5742-B98E-19B6D086D68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5320" yWindow="1880" windowWidth="24040" windowHeight="12440" activeTab="1" xr2:uid="{07AAFEEF-A83C-484C-8992-E89847C75F27}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1557,31 +1557,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1925,7 +1920,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -2379,503 +2374,53 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-    </row>
+    <row r="35" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -2886,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859618DA-7D2E-F14A-9531-A0F7323C3157}">
   <dimension ref="A1:P257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2896,42 +2441,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>14</v>
       </c>
       <c r="B2" t="s">
@@ -2940,10 +2485,10 @@
       <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2">
         <v>1564</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
@@ -2960,7 +2505,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>60</v>
       </c>
       <c r="B3" t="s">
@@ -2969,13 +2514,13 @@
       <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3">
         <v>1566</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" t="s">
         <v>67</v>
       </c>
       <c r="G3">
@@ -2990,19 +2535,19 @@
       <c r="J3">
         <v>50</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="15" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>62</v>
       </c>
       <c r="B4" t="s">
@@ -3011,13 +2556,13 @@
       <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4">
         <v>1566</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" t="s">
         <v>67</v>
       </c>
       <c r="G4">
@@ -3035,24 +2580,24 @@
       <c r="K4" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="20">
         <f>COUNTIFS(C:C, "Cnat")</f>
         <v>37</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="12">
         <f>COUNTIFS(C:C,"Cnat", F:F, "Y" )</f>
         <v>8</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="17">
         <f>COUNTIFS(C:C,"Cnat", F:F, "N" )</f>
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>66</v>
       </c>
       <c r="B5" t="s">
@@ -3082,24 +2627,24 @@
       <c r="K5" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="21">
         <f>COUNTIFS(C:C, "Dlab")</f>
         <v>26</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="13">
         <f>COUNTIFS(C:C,"Dlab", F:F, "Y" )</f>
         <v>3</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="18">
         <f>COUNTIFS(C:C,"Dlab", F:F, "N" )</f>
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>105</v>
       </c>
       <c r="B6" t="s">
@@ -3126,24 +2671,24 @@
       <c r="J6">
         <v>51</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="21">
         <f>COUNTIFS(C:C,"Mcav")</f>
         <v>51</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="13">
         <f>COUNTIFS(C:C,"Mcav", F:F, "Y" )</f>
         <v>20</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="18">
         <f>COUNTIFS(C:C,"Mcav", F:F, "N" )</f>
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>77</v>
       </c>
       <c r="B7" t="s">
@@ -3170,24 +2715,24 @@
       <c r="J7">
         <v>56</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="21">
         <f>COUNTIFS(C:C, "Sint")</f>
         <v>38</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="14">
         <f>COUNTIFS(C:C,"Sint", F:F, "Y" )</f>
         <v>13</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="18">
         <f>COUNTIFS(C:C,"Sint", F:F, "N" )</f>
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>17</v>
       </c>
       <c r="B8" t="s">
@@ -3196,13 +2741,13 @@
       <c r="C8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>1564</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" t="s">
         <v>66</v>
       </c>
       <c r="G8">
@@ -3217,24 +2762,24 @@
       <c r="K8" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="21">
         <f>COUNTIFS(C:C, "Past")</f>
         <v>32</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="13">
         <f>COUNTIFS(C:C,"Past", F:F, "Y" )</f>
         <v>14</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="18">
         <f>COUNTIFS(C:C,"Past", F:F, "N" )</f>
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>54</v>
       </c>
       <c r="B9" t="s">
@@ -3243,13 +2788,13 @@
       <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9">
         <v>1566</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" t="s">
         <v>66</v>
       </c>
       <c r="G9">
@@ -3264,24 +2809,24 @@
       <c r="J9">
         <v>51</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="21">
         <f>COUNTIFS(C:C, "Pstr")</f>
         <v>30</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="13">
         <f>COUNTIFS(C:C,"Pstr", F:F, "Y" )</f>
         <v>9</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="18">
         <f>COUNTIFS(C:C,"Pstr", F:F, "N" )</f>
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>115</v>
       </c>
       <c r="B10" t="s">
@@ -3308,24 +2853,24 @@
       <c r="J10">
         <v>54</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="21">
         <f>COUNTIFS(C:C, "Ssid")</f>
         <v>38</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="13">
         <f>COUNTIFS(C:C,"Ssid", F:F, "Y" )</f>
         <v>12</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="18">
         <f>COUNTIFS(C:C,"Ssid", F:F, "N" )</f>
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>76</v>
       </c>
       <c r="B11" t="s">
@@ -3352,16 +2897,16 @@
       <c r="J11">
         <v>56</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="11">
+      <c r="M11" s="9"/>
+      <c r="N11" s="6">
         <f>SUM(N4:N10)</f>
         <v>252</v>
       </c>
-      <c r="O11" s="20"/>
-      <c r="P11" s="24"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="19"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>78</v>
       </c>
       <c r="B12" t="s">
@@ -3390,7 +2935,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>79</v>
       </c>
       <c r="B13" t="s">
@@ -3419,7 +2964,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>35</v>
       </c>
       <c r="B14" t="s">
@@ -3445,7 +2990,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
@@ -3454,10 +2999,10 @@
       <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15">
         <v>1564</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" t="s">
         <v>24</v>
       </c>
       <c r="F15" t="s">
@@ -3474,7 +3019,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>5</v>
       </c>
       <c r="B16" t="s">
@@ -3483,10 +3028,10 @@
       <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16">
         <v>1564</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" t="s">
         <v>24</v>
       </c>
       <c r="F16" t="s">
@@ -3503,7 +3048,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17">
         <v>9</v>
       </c>
       <c r="B17" t="s">
@@ -3512,10 +3057,10 @@
       <c r="C17" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17">
         <v>1564</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" t="s">
         <v>24</v>
       </c>
       <c r="F17" t="s">
@@ -3532,7 +3077,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18">
         <v>53</v>
       </c>
       <c r="B18" t="s">
@@ -3541,13 +3086,13 @@
       <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18">
         <v>1566</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" t="s">
         <v>67</v>
       </c>
       <c r="G18">
@@ -3564,7 +3109,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19">
         <v>57</v>
       </c>
       <c r="B19" t="s">
@@ -3573,13 +3118,13 @@
       <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19">
         <v>1566</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" t="s">
         <v>67</v>
       </c>
       <c r="G19">
@@ -3596,7 +3141,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20">
         <v>63</v>
       </c>
       <c r="B20" t="s">
@@ -3605,13 +3150,13 @@
       <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20">
         <v>1566</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" t="s">
         <v>66</v>
       </c>
       <c r="G20">
@@ -3628,7 +3173,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21">
         <v>102</v>
       </c>
       <c r="B21" t="s">
@@ -3660,7 +3205,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22">
         <v>67</v>
       </c>
       <c r="B22" t="s">
@@ -3692,7 +3237,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23">
         <v>104</v>
       </c>
       <c r="B23" t="s">
@@ -3724,7 +3269,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24">
         <v>119</v>
       </c>
       <c r="B24" t="s">
@@ -3753,7 +3298,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25">
         <v>145</v>
       </c>
       <c r="B25" t="s">
@@ -3782,7 +3327,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26">
         <v>71</v>
       </c>
       <c r="B26" t="s">
@@ -3811,7 +3356,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27">
         <v>75</v>
       </c>
       <c r="B27" t="s">
@@ -3840,7 +3385,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28">
         <v>149</v>
       </c>
       <c r="B28" t="s">
@@ -3869,7 +3414,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29">
         <v>153</v>
       </c>
       <c r="B29" t="s">
@@ -3898,7 +3443,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30">
         <v>156</v>
       </c>
       <c r="B30" t="s">
@@ -3927,7 +3472,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31">
         <v>157</v>
       </c>
       <c r="B31" t="s">
@@ -3956,7 +3501,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32">
         <v>37</v>
       </c>
       <c r="B32" t="s">
@@ -3982,7 +3527,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33">
         <v>47</v>
       </c>
       <c r="B33" t="s">
@@ -4008,7 +3553,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34">
         <v>21</v>
       </c>
       <c r="B34" t="s">
@@ -4037,7 +3582,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35">
         <v>26</v>
       </c>
       <c r="B35" t="s">
@@ -4063,7 +3608,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36">
         <v>31</v>
       </c>
       <c r="B36" t="s">
@@ -4089,38 +3634,38 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>1</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="3">
         <v>1564</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="6">
-        <v>20251002</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6">
+      <c r="F37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="3">
+        <v>20251002</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
         <v>54</v>
       </c>
-      <c r="K37" s="6"/>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38">
         <v>20</v>
       </c>
       <c r="B38" t="s">
@@ -4146,7 +3691,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" t="s">
@@ -4155,10 +3700,10 @@
       <c r="C39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39">
         <v>1564</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" t="s">
         <v>24</v>
       </c>
       <c r="F39" t="s">
@@ -4175,7 +3720,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40">
         <v>8</v>
       </c>
       <c r="B40" t="s">
@@ -4184,10 +3729,10 @@
       <c r="C40" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40">
         <v>1564</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" t="s">
         <v>24</v>
       </c>
       <c r="F40" t="s">
@@ -4204,7 +3749,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41">
         <v>55</v>
       </c>
       <c r="B41" t="s">
@@ -4213,13 +3758,13 @@
       <c r="C41" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41">
         <v>1566</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" t="s">
         <v>67</v>
       </c>
       <c r="G41">
@@ -4236,7 +3781,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="A42">
         <v>69</v>
       </c>
       <c r="B42" t="s">
@@ -4268,7 +3813,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="A43">
         <v>70</v>
       </c>
       <c r="B43" t="s">
@@ -4297,7 +3842,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="A44">
         <v>90</v>
       </c>
       <c r="B44" t="s">
@@ -4329,7 +3874,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="A45">
         <v>36</v>
       </c>
       <c r="B45" t="s">
@@ -4355,7 +3900,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="A46">
         <v>42</v>
       </c>
       <c r="B46" t="s">
@@ -4381,7 +3926,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -4407,7 +3952,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="A48">
         <v>19</v>
       </c>
       <c r="B48" t="s">
@@ -4433,7 +3978,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="A49">
         <v>25</v>
       </c>
       <c r="B49" t="s">
@@ -4459,7 +4004,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+      <c r="A50">
         <v>27</v>
       </c>
       <c r="B50" t="s">
@@ -4488,7 +4033,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+      <c r="A51">
         <v>30</v>
       </c>
       <c r="B51" t="s">
@@ -4514,7 +4059,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="A52">
         <v>13</v>
       </c>
       <c r="B52" t="s">
@@ -4523,10 +4068,10 @@
       <c r="C52" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52">
         <v>1564</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" t="s">
         <v>24</v>
       </c>
       <c r="F52" t="s">
@@ -4546,7 +4091,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+      <c r="A53">
         <v>15</v>
       </c>
       <c r="B53" t="s">
@@ -4555,10 +4100,10 @@
       <c r="C53" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53">
         <v>1564</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" t="s">
         <v>24</v>
       </c>
       <c r="F53" t="s">
@@ -4575,7 +4120,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
@@ -4584,13 +4129,13 @@
       <c r="C54" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54">
         <v>1566</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" t="s">
         <v>66</v>
       </c>
       <c r="G54">
@@ -4610,7 +4155,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="A55" s="4">
         <v>61</v>
       </c>
       <c r="B55" t="s">
@@ -4619,13 +4164,13 @@
       <c r="C55" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55">
         <v>1566</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" t="s">
         <v>66</v>
       </c>
       <c r="G55">
@@ -4642,7 +4187,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="A56">
         <v>68</v>
       </c>
       <c r="B56" t="s">
@@ -4671,7 +4216,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="A57">
         <v>72</v>
       </c>
       <c r="B57" t="s">
@@ -4700,7 +4245,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="A58">
         <v>92</v>
       </c>
       <c r="B58" t="s">
@@ -4729,7 +4274,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+      <c r="A59">
         <v>143</v>
       </c>
       <c r="B59" t="s">
@@ -4758,7 +4303,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+      <c r="A60">
         <v>109</v>
       </c>
       <c r="B60" t="s">
@@ -4790,7 +4335,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="A61">
         <v>151</v>
       </c>
       <c r="B61" t="s">
@@ -4819,7 +4364,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+      <c r="A62">
         <v>152</v>
       </c>
       <c r="B62" t="s">
@@ -4848,7 +4393,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+      <c r="A63">
         <v>155</v>
       </c>
       <c r="B63" t="s">
@@ -4877,7 +4422,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+      <c r="A64">
         <v>34</v>
       </c>
       <c r="B64" t="s">
@@ -4903,7 +4448,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="A65">
         <v>40</v>
       </c>
       <c r="B65" t="s">
@@ -4929,7 +4474,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+      <c r="A66">
         <v>38</v>
       </c>
       <c r="B66" t="s">
@@ -4955,7 +4500,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+      <c r="A67">
         <v>49</v>
       </c>
       <c r="B67" t="s">
@@ -4981,7 +4526,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+      <c r="A68">
         <v>22</v>
       </c>
       <c r="B68" t="s">
@@ -5007,7 +4552,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="A69">
         <v>24</v>
       </c>
       <c r="B69" t="s">
@@ -5033,7 +4578,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="A70">
         <v>41</v>
       </c>
       <c r="B70" t="s">
@@ -5059,7 +4604,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="A71">
         <v>7</v>
       </c>
       <c r="B71" t="s">
@@ -5068,10 +4613,10 @@
       <c r="C71" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71">
         <v>1564</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" t="s">
         <v>24</v>
       </c>
       <c r="F71" t="s">
@@ -5088,7 +4633,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="A72">
         <v>12</v>
       </c>
       <c r="B72" t="s">
@@ -5097,10 +4642,10 @@
       <c r="C72" t="s">
         <v>62</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72">
         <v>1564</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" t="s">
         <v>24</v>
       </c>
       <c r="F72" t="s">
@@ -5117,40 +4662,40 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="3">
         <v>16</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="3">
         <v>1564</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G73" s="6">
-        <v>20251002</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6">
+      <c r="F73" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G73" s="3">
+        <v>20251002</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
         <v>54</v>
       </c>
-      <c r="K73" s="6" t="s">
+      <c r="K73" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+      <c r="A74">
         <v>56</v>
       </c>
       <c r="B74" t="s">
@@ -5159,13 +4704,13 @@
       <c r="C74" t="s">
         <v>62</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74">
         <v>1566</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" t="s">
         <v>83</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" t="s">
         <v>66</v>
       </c>
       <c r="G74">
@@ -5182,7 +4727,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+      <c r="A75">
         <v>59</v>
       </c>
       <c r="B75" t="s">
@@ -5191,13 +4736,13 @@
       <c r="C75" t="s">
         <v>62</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75">
         <v>1566</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" t="s">
         <v>85</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" t="s">
         <v>66</v>
       </c>
       <c r="G75">
@@ -5214,7 +4759,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
+      <c r="A76">
         <v>65</v>
       </c>
       <c r="B76" t="s">
@@ -5243,7 +4788,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+      <c r="A77">
         <v>120</v>
       </c>
       <c r="B77" t="s">
@@ -5272,7 +4817,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
+      <c r="A78">
         <v>74</v>
       </c>
       <c r="B78" t="s">
@@ -5301,7 +4846,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
+      <c r="A79">
         <v>150</v>
       </c>
       <c r="B79" t="s">
@@ -5330,7 +4875,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+      <c r="A80">
         <v>126</v>
       </c>
       <c r="B80" t="s">
@@ -5359,7 +4904,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+      <c r="A81">
         <v>33</v>
       </c>
       <c r="B81" t="s">
@@ -5385,7 +4930,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+      <c r="A82">
         <v>39</v>
       </c>
       <c r="B82" t="s">
@@ -5411,7 +4956,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+      <c r="A83">
         <v>45</v>
       </c>
       <c r="B83" t="s">
@@ -5437,7 +4982,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+      <c r="A84">
         <v>48</v>
       </c>
       <c r="B84" t="s">
@@ -5463,7 +5008,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+      <c r="A85">
         <v>28</v>
       </c>
       <c r="B85" t="s">
@@ -5492,7 +5037,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="A86">
         <v>52</v>
       </c>
       <c r="B86" t="s">
@@ -5518,7 +5063,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+      <c r="A87">
         <v>130</v>
       </c>
       <c r="B87" t="s">
@@ -5550,7 +5095,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
+      <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" t="s">
@@ -5559,10 +5104,10 @@
       <c r="C88" t="s">
         <v>61</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88">
         <v>1564</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" t="s">
         <v>24</v>
       </c>
       <c r="F88" t="s">
@@ -5579,7 +5124,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
+      <c r="A89">
         <v>6</v>
       </c>
       <c r="B89" t="s">
@@ -5588,10 +5133,10 @@
       <c r="C89" t="s">
         <v>61</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89">
         <v>1564</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" t="s">
         <v>24</v>
       </c>
       <c r="F89" t="s">
@@ -5608,7 +5153,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
+      <c r="A90">
         <v>10</v>
       </c>
       <c r="B90" t="s">
@@ -5617,10 +5162,10 @@
       <c r="C90" t="s">
         <v>61</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90">
         <v>1564</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" t="s">
         <v>24</v>
       </c>
       <c r="F90" t="s">
@@ -5637,7 +5182,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+      <c r="A91">
         <v>11</v>
       </c>
       <c r="B91" t="s">
@@ -5646,10 +5191,10 @@
       <c r="C91" t="s">
         <v>61</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91">
         <v>1564</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" t="s">
         <v>24</v>
       </c>
       <c r="F91" t="s">
@@ -5666,7 +5211,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
+      <c r="A92">
         <v>51</v>
       </c>
       <c r="B92" t="s">
@@ -5675,13 +5220,13 @@
       <c r="C92" t="s">
         <v>61</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92">
         <v>1566</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" t="s">
         <v>78</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" t="s">
         <v>66</v>
       </c>
       <c r="G92">
@@ -5698,7 +5243,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
+      <c r="A93">
         <v>58</v>
       </c>
       <c r="B93" t="s">
@@ -5707,13 +5252,13 @@
       <c r="C93" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93">
         <v>1566</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" t="s">
         <v>80</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" t="s">
         <v>67</v>
       </c>
       <c r="G93">
@@ -5730,7 +5275,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
+      <c r="A94">
         <v>101</v>
       </c>
       <c r="B94" t="s">
@@ -5762,7 +5307,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
+      <c r="A95">
         <v>64</v>
       </c>
       <c r="B95" t="s">
@@ -5794,7 +5339,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+      <c r="A96">
         <v>106</v>
       </c>
       <c r="B96" t="s">
@@ -5823,7 +5368,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+      <c r="A97">
         <v>73</v>
       </c>
       <c r="B97" t="s">
@@ -5852,7 +5397,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
+      <c r="A98">
         <v>91</v>
       </c>
       <c r="B98" t="s">
@@ -5881,7 +5426,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+      <c r="A99">
         <v>154</v>
       </c>
       <c r="B99" t="s">
@@ -5910,7 +5455,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
+      <c r="A100">
         <v>43</v>
       </c>
       <c r="B100" t="s">
@@ -5936,7 +5481,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
+      <c r="A101">
         <v>44</v>
       </c>
       <c r="B101" t="s">
@@ -5962,7 +5507,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
+      <c r="A102">
         <v>18</v>
       </c>
       <c r="B102" t="s">
@@ -5988,7 +5533,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
+      <c r="A103">
         <v>23</v>
       </c>
       <c r="B103" t="s">
@@ -6014,7 +5559,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
+      <c r="A104">
         <v>29</v>
       </c>
       <c r="B104" t="s">
@@ -6043,7 +5588,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
+      <c r="A105">
         <v>201</v>
       </c>
       <c r="B105" t="s">
@@ -6067,9 +5612,12 @@
       <c r="H105" t="s">
         <v>188</v>
       </c>
+      <c r="J105">
+        <v>20</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
+      <c r="A106">
         <v>202</v>
       </c>
       <c r="B106" t="s">
@@ -6093,9 +5641,12 @@
       <c r="H106" t="s">
         <v>188</v>
       </c>
+      <c r="J106">
+        <v>25</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
+      <c r="A107">
         <v>203</v>
       </c>
       <c r="B107" t="s">
@@ -6119,9 +5670,12 @@
       <c r="H107" t="s">
         <v>188</v>
       </c>
+      <c r="J107">
+        <v>26</v>
+      </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
+      <c r="A108">
         <v>204</v>
       </c>
       <c r="B108" t="s">
@@ -6145,9 +5699,12 @@
       <c r="H108" t="s">
         <v>188</v>
       </c>
+      <c r="J108">
+        <v>24</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
+      <c r="A109">
         <v>205</v>
       </c>
       <c r="B109" t="s">
@@ -6171,9 +5728,12 @@
       <c r="H109" t="s">
         <v>188</v>
       </c>
+      <c r="J109">
+        <v>25</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
+      <c r="A110">
         <v>206</v>
       </c>
       <c r="B110" t="s">
@@ -6197,9 +5757,12 @@
       <c r="H110" t="s">
         <v>188</v>
       </c>
+      <c r="J110">
+        <v>25</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+      <c r="A111">
         <v>207</v>
       </c>
       <c r="B111" t="s">
@@ -6223,9 +5786,12 @@
       <c r="H111" t="s">
         <v>188</v>
       </c>
+      <c r="J111">
+        <v>26</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+      <c r="A112">
         <v>208</v>
       </c>
       <c r="B112" t="s">
@@ -6249,9 +5815,12 @@
       <c r="H112" t="s">
         <v>188</v>
       </c>
+      <c r="J112">
+        <v>26</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
+      <c r="A113">
         <v>209</v>
       </c>
       <c r="B113" t="s">
@@ -6275,9 +5844,12 @@
       <c r="H113" t="s">
         <v>188</v>
       </c>
+      <c r="J113">
+        <v>21</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
+      <c r="A114">
         <v>158</v>
       </c>
       <c r="B114" t="s">
@@ -6286,7 +5858,7 @@
       <c r="C114" t="s">
         <v>61</v>
       </c>
-      <c r="D114" s="12" t="s">
+      <c r="D114" s="7" t="s">
         <v>228</v>
       </c>
       <c r="E114" t="s">
@@ -6309,7 +5881,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
+      <c r="A115">
         <v>159</v>
       </c>
       <c r="B115" t="s">
@@ -6338,7 +5910,7 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+      <c r="A116">
         <v>160</v>
       </c>
       <c r="B116" t="s">
@@ -6367,7 +5939,7 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+      <c r="A117">
         <v>161</v>
       </c>
       <c r="B117" t="s">
@@ -6396,7 +5968,7 @@
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+      <c r="A118">
         <v>162</v>
       </c>
       <c r="B118" t="s">
@@ -6425,7 +5997,7 @@
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
+      <c r="A119">
         <v>163</v>
       </c>
       <c r="B119" t="s">
@@ -6454,7 +6026,7 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
+      <c r="A120">
         <v>164</v>
       </c>
       <c r="B120" t="s">
@@ -6483,7 +6055,7 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
+      <c r="A121">
         <v>165</v>
       </c>
       <c r="B121" t="s">
@@ -6512,7 +6084,7 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
+      <c r="A122">
         <v>166</v>
       </c>
       <c r="B122" t="s">
@@ -6541,7 +6113,7 @@
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
+      <c r="A123">
         <v>167</v>
       </c>
       <c r="B123" t="s">
@@ -6570,7 +6142,7 @@
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
+      <c r="A124">
         <v>168</v>
       </c>
       <c r="B124" t="s">
@@ -6599,7 +6171,7 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
+      <c r="A125">
         <v>107</v>
       </c>
       <c r="B125" t="s">
@@ -6628,7 +6200,7 @@
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
+      <c r="A126">
         <v>108</v>
       </c>
       <c r="B126" t="s">
@@ -6657,7 +6229,7 @@
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
+      <c r="A127">
         <v>110</v>
       </c>
       <c r="B127" t="s">
@@ -6686,7 +6258,7 @@
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
+      <c r="A128">
         <v>125</v>
       </c>
       <c r="B128" t="s">
@@ -6715,7 +6287,7 @@
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
+      <c r="A129">
         <v>127</v>
       </c>
       <c r="B129" t="s">
@@ -6744,7 +6316,7 @@
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
+      <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
@@ -6773,7 +6345,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
+      <c r="A131">
         <v>211</v>
       </c>
       <c r="B131" t="s">
@@ -6811,7 +6383,7 @@
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
+      <c r="A132">
         <v>212</v>
       </c>
       <c r="B132" t="s">
@@ -6840,7 +6412,7 @@
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
+      <c r="A133">
         <v>213</v>
       </c>
       <c r="B133" t="s">
@@ -6869,7 +6441,7 @@
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
+      <c r="A134">
         <v>214</v>
       </c>
       <c r="B134" t="s">
@@ -6898,7 +6470,7 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
+      <c r="A135">
         <v>215</v>
       </c>
       <c r="B135" t="s">
@@ -6927,7 +6499,7 @@
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
+      <c r="A136">
         <v>216</v>
       </c>
       <c r="B136" t="s">
@@ -6956,7 +6528,7 @@
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
+      <c r="A137">
         <v>217</v>
       </c>
       <c r="B137" t="s">
@@ -6985,7 +6557,7 @@
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
+      <c r="A138">
         <v>218</v>
       </c>
       <c r="B138" t="s">
@@ -7014,7 +6586,7 @@
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
+      <c r="A139">
         <v>219</v>
       </c>
       <c r="B139" t="s">
@@ -7043,7 +6615,7 @@
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
+      <c r="A140">
         <v>220</v>
       </c>
       <c r="B140" t="s">
@@ -7072,7 +6644,7 @@
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
+      <c r="A141">
         <v>221</v>
       </c>
       <c r="B141" t="s">
@@ -7101,7 +6673,7 @@
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
+      <c r="A142">
         <v>222</v>
       </c>
       <c r="B142" t="s">
@@ -7130,7 +6702,7 @@
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
+      <c r="A143">
         <v>224</v>
       </c>
       <c r="B143" t="s">
@@ -7159,7 +6731,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
+      <c r="A144">
         <v>223</v>
       </c>
       <c r="B144" t="s">
@@ -7188,7 +6760,7 @@
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
+      <c r="A145">
         <v>225</v>
       </c>
       <c r="B145" t="s">
@@ -7217,7 +6789,7 @@
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
+      <c r="A146">
         <v>426</v>
       </c>
       <c r="B146" t="s">
@@ -7246,7 +6818,7 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
+      <c r="A147">
         <v>427</v>
       </c>
       <c r="B147" t="s">
@@ -7275,7 +6847,7 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
+      <c r="A148">
         <v>428</v>
       </c>
       <c r="B148" t="s">
@@ -7304,7 +6876,7 @@
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
+      <c r="A149">
         <v>429</v>
       </c>
       <c r="B149" t="s">
@@ -7333,7 +6905,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
+      <c r="A150">
         <v>430</v>
       </c>
       <c r="B150" t="s">
@@ -7362,7 +6934,7 @@
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
+      <c r="A151">
         <v>431</v>
       </c>
       <c r="B151" t="s">
@@ -7391,7 +6963,7 @@
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
+      <c r="A152">
         <v>80</v>
       </c>
       <c r="B152" t="s">
@@ -7429,7 +7001,7 @@
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
+      <c r="A153">
         <v>81</v>
       </c>
       <c r="B153" t="s">

--- a/F25_Sampling.xlsx
+++ b/F25_Sampling.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trini/Documents/Shedd/biota_project_genomicshifts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47085EA2-3DCE-5742-B98E-19B6D086D68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76102D90-512F-AA44-A928-D3940ABD96C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="1880" windowWidth="24040" windowHeight="12440" activeTab="1" xr2:uid="{07AAFEEF-A83C-484C-8992-E89847C75F27}"/>
+    <workbookView xWindow="860" yWindow="1020" windowWidth="24040" windowHeight="12440" activeTab="1" xr2:uid="{07AAFEEF-A83C-484C-8992-E89847C75F27}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$P$353</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="529">
   <si>
     <t xml:space="preserve">Bag </t>
   </si>
@@ -1267,6 +1270,363 @@
   </si>
   <si>
     <t>pic on phone for waypoint coordinates</t>
+  </si>
+  <si>
+    <t>F25_270</t>
+  </si>
+  <si>
+    <t>F25_272</t>
+  </si>
+  <si>
+    <t>F25_273</t>
+  </si>
+  <si>
+    <t>F25_274</t>
+  </si>
+  <si>
+    <t>F25_275</t>
+  </si>
+  <si>
+    <t>F25_277</t>
+  </si>
+  <si>
+    <t>F25_278</t>
+  </si>
+  <si>
+    <t>F25_279</t>
+  </si>
+  <si>
+    <t>10x3</t>
+  </si>
+  <si>
+    <t>6x3</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>F25_280</t>
+  </si>
+  <si>
+    <t>F25_281</t>
+  </si>
+  <si>
+    <t>F25_282</t>
+  </si>
+  <si>
+    <t>F25_254</t>
+  </si>
+  <si>
+    <t>F25_255</t>
+  </si>
+  <si>
+    <t>F25_256</t>
+  </si>
+  <si>
+    <t>F25_257</t>
+  </si>
+  <si>
+    <t>F25_258</t>
+  </si>
+  <si>
+    <t>1x.5</t>
+  </si>
+  <si>
+    <t>9x7</t>
+  </si>
+  <si>
+    <t>8x3</t>
+  </si>
+  <si>
+    <t>2.5x5</t>
+  </si>
+  <si>
+    <t>35x27</t>
+  </si>
+  <si>
+    <t>4.5x3</t>
+  </si>
+  <si>
+    <t>MCav</t>
+  </si>
+  <si>
+    <t>12x5</t>
+  </si>
+  <si>
+    <t>60x25</t>
+  </si>
+  <si>
+    <t>8x15</t>
+  </si>
+  <si>
+    <t>F25_301</t>
+  </si>
+  <si>
+    <t>F25_297</t>
+  </si>
+  <si>
+    <t>F25_299</t>
+  </si>
+  <si>
+    <t>F25_290</t>
+  </si>
+  <si>
+    <t>F25_286</t>
+  </si>
+  <si>
+    <t>F25_287</t>
+  </si>
+  <si>
+    <t>F25_285</t>
+  </si>
+  <si>
+    <t>F25_288</t>
+  </si>
+  <si>
+    <t>F25_300</t>
+  </si>
+  <si>
+    <t>F25_264</t>
+  </si>
+  <si>
+    <t>F25_298</t>
+  </si>
+  <si>
+    <t>F25_289</t>
+  </si>
+  <si>
+    <t>F25_295</t>
+  </si>
+  <si>
+    <t>F25_294</t>
+  </si>
+  <si>
+    <t>F25_291</t>
+  </si>
+  <si>
+    <t>F25_292</t>
+  </si>
+  <si>
+    <t>F25_293</t>
+  </si>
+  <si>
+    <t>F25_302</t>
+  </si>
+  <si>
+    <t>F25_284</t>
+  </si>
+  <si>
+    <t>F25_263</t>
+  </si>
+  <si>
+    <t>F25_268</t>
+  </si>
+  <si>
+    <t>F25_283</t>
+  </si>
+  <si>
+    <t>F25_269</t>
+  </si>
+  <si>
+    <t>F25_266</t>
+  </si>
+  <si>
+    <t>F25_259</t>
+  </si>
+  <si>
+    <t>F25_267</t>
+  </si>
+  <si>
+    <t>F25_260</t>
+  </si>
+  <si>
+    <t>F25_261</t>
+  </si>
+  <si>
+    <t>F25_262</t>
+  </si>
+  <si>
+    <t>25x5</t>
+  </si>
+  <si>
+    <t>20x9</t>
+  </si>
+  <si>
+    <t>25x17</t>
+  </si>
+  <si>
+    <t>7x1</t>
+  </si>
+  <si>
+    <t>blank_1</t>
+  </si>
+  <si>
+    <t>F25_336</t>
+  </si>
+  <si>
+    <t>F25_335</t>
+  </si>
+  <si>
+    <t>F25_324</t>
+  </si>
+  <si>
+    <t>F25_318</t>
+  </si>
+  <si>
+    <t>F25_321</t>
+  </si>
+  <si>
+    <t>F25_333</t>
+  </si>
+  <si>
+    <t>F25_319</t>
+  </si>
+  <si>
+    <t>F25_317</t>
+  </si>
+  <si>
+    <t>F25_334</t>
+  </si>
+  <si>
+    <t>F25_330</t>
+  </si>
+  <si>
+    <t>F25_325</t>
+  </si>
+  <si>
+    <t>F25_328</t>
+  </si>
+  <si>
+    <t>F25_331</t>
+  </si>
+  <si>
+    <t>F25_332</t>
+  </si>
+  <si>
+    <t>F25_326</t>
+  </si>
+  <si>
+    <t>F25_327</t>
+  </si>
+  <si>
+    <t>F25_320</t>
+  </si>
+  <si>
+    <t>F25_329</t>
+  </si>
+  <si>
+    <t>F25_323</t>
+  </si>
+  <si>
+    <t>F25_316</t>
+  </si>
+  <si>
+    <t>F25_311</t>
+  </si>
+  <si>
+    <t>F25_315</t>
+  </si>
+  <si>
+    <t>F25_308</t>
+  </si>
+  <si>
+    <t>F25_310</t>
+  </si>
+  <si>
+    <t>F25_309</t>
+  </si>
+  <si>
+    <t>F25_305</t>
+  </si>
+  <si>
+    <t>F25_314</t>
+  </si>
+  <si>
+    <t>F25_306</t>
+  </si>
+  <si>
+    <t>F25_313</t>
+  </si>
+  <si>
+    <t>F25_304</t>
+  </si>
+  <si>
+    <t>F25_303</t>
+  </si>
+  <si>
+    <t>F25_307</t>
+  </si>
+  <si>
+    <t>70x80</t>
+  </si>
+  <si>
+    <t>7x8</t>
+  </si>
+  <si>
+    <t>6x7</t>
+  </si>
+  <si>
+    <t>2x3</t>
+  </si>
+  <si>
+    <t>6x4</t>
+  </si>
+  <si>
+    <t>4x5</t>
+  </si>
+  <si>
+    <t>10x20</t>
+  </si>
+  <si>
+    <t>F25_342</t>
+  </si>
+  <si>
+    <t>F25_340</t>
+  </si>
+  <si>
+    <t>F25_338</t>
+  </si>
+  <si>
+    <t>F25_337</t>
+  </si>
+  <si>
+    <t>F25_350</t>
+  </si>
+  <si>
+    <t>F25_339</t>
+  </si>
+  <si>
+    <t>F25_345</t>
+  </si>
+  <si>
+    <t>F25_341</t>
+  </si>
+  <si>
+    <t>F25_344</t>
+  </si>
+  <si>
+    <t>F25_343</t>
+  </si>
+  <si>
+    <t>F25_346</t>
+  </si>
+  <si>
+    <t>F25_348</t>
+  </si>
+  <si>
+    <t>F25_347</t>
+  </si>
+  <si>
+    <t>F25_349</t>
+  </si>
+  <si>
+    <t>1x2</t>
+  </si>
+  <si>
+    <t>11x6</t>
+  </si>
+  <si>
+    <t>3x4</t>
   </si>
 </sst>
 </file>
@@ -2429,10 +2789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859618DA-7D2E-F14A-9531-A0F7323C3157}">
-  <dimension ref="A1:P257"/>
+  <dimension ref="A1:P353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="F354" sqref="F354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2585,15 +2945,15 @@
       </c>
       <c r="N4" s="20">
         <f>COUNTIFS(C:C, "Cnat")</f>
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="O4" s="12">
         <f>COUNTIFS(C:C,"Cnat", F:F, "Y" )</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P4" s="17">
         <f>COUNTIFS(C:C,"Cnat", F:F, "N" )</f>
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -2632,15 +2992,15 @@
       </c>
       <c r="N5" s="21">
         <f>COUNTIFS(C:C, "Dlab")</f>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="O5" s="13">
         <f>COUNTIFS(C:C,"Dlab", F:F, "Y" )</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P5" s="18">
         <f>COUNTIFS(C:C,"Dlab", F:F, "N" )</f>
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -2676,15 +3036,15 @@
       </c>
       <c r="N6" s="21">
         <f>COUNTIFS(C:C,"Mcav")</f>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O6" s="13">
         <f>COUNTIFS(C:C,"Mcav", F:F, "Y" )</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P6" s="18">
         <f>COUNTIFS(C:C,"Mcav", F:F, "N" )</f>
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -2720,15 +3080,15 @@
       </c>
       <c r="N7" s="21">
         <f>COUNTIFS(C:C, "Sint")</f>
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O7" s="14">
         <f>COUNTIFS(C:C,"Sint", F:F, "Y" )</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P7" s="18">
         <f>COUNTIFS(C:C,"Sint", F:F, "N" )</f>
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -2767,15 +3127,15 @@
       </c>
       <c r="N8" s="21">
         <f>COUNTIFS(C:C, "Past")</f>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="O8" s="13">
         <f>COUNTIFS(C:C,"Past", F:F, "Y" )</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P8" s="18">
         <f>COUNTIFS(C:C,"Past", F:F, "N" )</f>
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -2814,15 +3174,15 @@
       </c>
       <c r="N9" s="21">
         <f>COUNTIFS(C:C, "Pstr")</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="O9" s="13">
         <f>COUNTIFS(C:C,"Pstr", F:F, "Y" )</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P9" s="18">
         <f>COUNTIFS(C:C,"Pstr", F:F, "N" )</f>
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -2858,15 +3218,15 @@
       </c>
       <c r="N10" s="21">
         <f>COUNTIFS(C:C, "Ssid")</f>
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="O10" s="13">
         <f>COUNTIFS(C:C,"Ssid", F:F, "Y" )</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P10" s="18">
         <f>COUNTIFS(C:C,"Ssid", F:F, "N" )</f>
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2900,7 +3260,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="6">
         <f>SUM(N4:N10)</f>
-        <v>252</v>
+        <v>347</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="19"/>
@@ -9994,7 +10354,2783 @@
         <v>20</v>
       </c>
     </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>432</v>
+      </c>
+      <c r="B258" t="s">
+        <v>410</v>
+      </c>
+      <c r="C258" t="s">
+        <v>59</v>
+      </c>
+      <c r="D258">
+        <v>314</v>
+      </c>
+      <c r="E258" t="s">
+        <v>418</v>
+      </c>
+      <c r="F258" t="s">
+        <v>66</v>
+      </c>
+      <c r="G258">
+        <v>20251005</v>
+      </c>
+      <c r="H258" t="s">
+        <v>19</v>
+      </c>
+      <c r="J258">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>433</v>
+      </c>
+      <c r="B259" t="s">
+        <v>411</v>
+      </c>
+      <c r="C259" t="s">
+        <v>61</v>
+      </c>
+      <c r="D259">
+        <v>314</v>
+      </c>
+      <c r="E259" t="s">
+        <v>306</v>
+      </c>
+      <c r="F259" t="s">
+        <v>66</v>
+      </c>
+      <c r="G259">
+        <v>20251005</v>
+      </c>
+      <c r="H259" t="s">
+        <v>19</v>
+      </c>
+      <c r="J259">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>434</v>
+      </c>
+      <c r="B260" t="s">
+        <v>412</v>
+      </c>
+      <c r="C260" t="s">
+        <v>60</v>
+      </c>
+      <c r="D260">
+        <v>314</v>
+      </c>
+      <c r="E260" t="s">
+        <v>419</v>
+      </c>
+      <c r="F260" t="s">
+        <v>66</v>
+      </c>
+      <c r="G260">
+        <v>20251005</v>
+      </c>
+      <c r="H260" t="s">
+        <v>19</v>
+      </c>
+      <c r="J260">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>435</v>
+      </c>
+      <c r="B261" t="s">
+        <v>413</v>
+      </c>
+      <c r="C261" t="s">
+        <v>62</v>
+      </c>
+      <c r="D261">
+        <v>314</v>
+      </c>
+      <c r="E261" t="s">
+        <v>86</v>
+      </c>
+      <c r="F261" t="s">
+        <v>67</v>
+      </c>
+      <c r="G261">
+        <v>20251005</v>
+      </c>
+      <c r="H261" t="s">
+        <v>19</v>
+      </c>
+      <c r="J261">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>436</v>
+      </c>
+      <c r="B262" t="s">
+        <v>414</v>
+      </c>
+      <c r="C262" t="s">
+        <v>63</v>
+      </c>
+      <c r="D262">
+        <v>314</v>
+      </c>
+      <c r="E262" t="s">
+        <v>83</v>
+      </c>
+      <c r="F262" t="s">
+        <v>67</v>
+      </c>
+      <c r="G262">
+        <v>20251005</v>
+      </c>
+      <c r="H262" t="s">
+        <v>19</v>
+      </c>
+      <c r="J262">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>437</v>
+      </c>
+      <c r="B263" t="s">
+        <v>414</v>
+      </c>
+      <c r="C263" t="s">
+        <v>61</v>
+      </c>
+      <c r="D263">
+        <v>314</v>
+      </c>
+      <c r="E263" t="s">
+        <v>135</v>
+      </c>
+      <c r="F263" t="s">
+        <v>67</v>
+      </c>
+      <c r="G263">
+        <v>20251005</v>
+      </c>
+      <c r="H263" t="s">
+        <v>19</v>
+      </c>
+      <c r="J263">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>438</v>
+      </c>
+      <c r="B264" t="s">
+        <v>415</v>
+      </c>
+      <c r="C264" t="s">
+        <v>63</v>
+      </c>
+      <c r="D264">
+        <v>314</v>
+      </c>
+      <c r="E264" t="s">
+        <v>83</v>
+      </c>
+      <c r="F264" t="s">
+        <v>67</v>
+      </c>
+      <c r="G264">
+        <v>20251005</v>
+      </c>
+      <c r="H264" t="s">
+        <v>19</v>
+      </c>
+      <c r="J264">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>439</v>
+      </c>
+      <c r="B265" t="s">
+        <v>416</v>
+      </c>
+      <c r="C265" t="s">
+        <v>60</v>
+      </c>
+      <c r="D265">
+        <v>314</v>
+      </c>
+      <c r="E265" t="s">
+        <v>137</v>
+      </c>
+      <c r="F265" t="s">
+        <v>66</v>
+      </c>
+      <c r="G265">
+        <v>20251005</v>
+      </c>
+      <c r="H265" t="s">
+        <v>19</v>
+      </c>
+      <c r="J265">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>440</v>
+      </c>
+      <c r="B266" t="s">
+        <v>417</v>
+      </c>
+      <c r="C266" t="s">
+        <v>63</v>
+      </c>
+      <c r="D266">
+        <v>314</v>
+      </c>
+      <c r="E266" t="s">
+        <v>399</v>
+      </c>
+      <c r="F266" t="s">
+        <v>66</v>
+      </c>
+      <c r="G266">
+        <v>20251005</v>
+      </c>
+      <c r="H266" t="s">
+        <v>19</v>
+      </c>
+      <c r="J266">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>300</v>
+      </c>
+      <c r="B267" t="s">
+        <v>421</v>
+      </c>
+      <c r="C267" t="s">
+        <v>59</v>
+      </c>
+      <c r="D267">
+        <v>1475</v>
+      </c>
+      <c r="E267" t="s">
+        <v>140</v>
+      </c>
+      <c r="F267" t="s">
+        <v>67</v>
+      </c>
+      <c r="G267">
+        <v>20251005</v>
+      </c>
+      <c r="H267" t="s">
+        <v>420</v>
+      </c>
+      <c r="J267">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>299</v>
+      </c>
+      <c r="B268" t="s">
+        <v>422</v>
+      </c>
+      <c r="C268" t="s">
+        <v>61</v>
+      </c>
+      <c r="D268">
+        <v>1475</v>
+      </c>
+      <c r="E268" t="s">
+        <v>429</v>
+      </c>
+      <c r="F268" t="s">
+        <v>67</v>
+      </c>
+      <c r="G268">
+        <v>20251005</v>
+      </c>
+      <c r="H268" t="s">
+        <v>420</v>
+      </c>
+      <c r="J268">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>298</v>
+      </c>
+      <c r="B269" t="s">
+        <v>423</v>
+      </c>
+      <c r="C269" t="s">
+        <v>61</v>
+      </c>
+      <c r="D269">
+        <v>1475</v>
+      </c>
+      <c r="E269" t="s">
+        <v>405</v>
+      </c>
+      <c r="F269" t="s">
+        <v>66</v>
+      </c>
+      <c r="G269">
+        <v>20251005</v>
+      </c>
+      <c r="H269" t="s">
+        <v>420</v>
+      </c>
+      <c r="J269">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>297</v>
+      </c>
+      <c r="B270" t="s">
+        <v>424</v>
+      </c>
+      <c r="C270" t="s">
+        <v>59</v>
+      </c>
+      <c r="D270">
+        <v>1475</v>
+      </c>
+      <c r="E270" t="s">
+        <v>430</v>
+      </c>
+      <c r="F270" t="s">
+        <v>66</v>
+      </c>
+      <c r="G270">
+        <v>20251005</v>
+      </c>
+      <c r="H270" t="s">
+        <v>420</v>
+      </c>
+      <c r="J270">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>296</v>
+      </c>
+      <c r="B271" t="s">
+        <v>425</v>
+      </c>
+      <c r="C271" t="s">
+        <v>62</v>
+      </c>
+      <c r="D271">
+        <v>1475</v>
+      </c>
+      <c r="E271" t="s">
+        <v>431</v>
+      </c>
+      <c r="F271" t="s">
+        <v>66</v>
+      </c>
+      <c r="G271">
+        <v>20251005</v>
+      </c>
+      <c r="H271" t="s">
+        <v>420</v>
+      </c>
+      <c r="J271">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>295</v>
+      </c>
+      <c r="B272" t="s">
+        <v>426</v>
+      </c>
+      <c r="C272" t="s">
+        <v>62</v>
+      </c>
+      <c r="D272">
+        <v>1475</v>
+      </c>
+      <c r="E272" t="s">
+        <v>432</v>
+      </c>
+      <c r="F272" t="s">
+        <v>67</v>
+      </c>
+      <c r="G272">
+        <v>20251005</v>
+      </c>
+      <c r="H272" t="s">
+        <v>420</v>
+      </c>
+      <c r="J272">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>293</v>
+      </c>
+      <c r="B273" t="s">
+        <v>427</v>
+      </c>
+      <c r="C273" t="s">
+        <v>60</v>
+      </c>
+      <c r="D273">
+        <v>1475</v>
+      </c>
+      <c r="E273" t="s">
+        <v>433</v>
+      </c>
+      <c r="F273" t="s">
+        <v>66</v>
+      </c>
+      <c r="G273">
+        <v>20251005</v>
+      </c>
+      <c r="H273" t="s">
+        <v>420</v>
+      </c>
+      <c r="J273">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>292</v>
+      </c>
+      <c r="B274" t="s">
+        <v>428</v>
+      </c>
+      <c r="C274" t="s">
+        <v>63</v>
+      </c>
+      <c r="D274">
+        <v>1475</v>
+      </c>
+      <c r="E274" t="s">
+        <v>434</v>
+      </c>
+      <c r="F274" t="s">
+        <v>67</v>
+      </c>
+      <c r="G274">
+        <v>20251005</v>
+      </c>
+      <c r="H274" t="s">
+        <v>420</v>
+      </c>
+      <c r="J274">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>326</v>
+      </c>
+      <c r="B275" t="s">
+        <v>439</v>
+      </c>
+      <c r="C275" t="s">
+        <v>63</v>
+      </c>
+      <c r="D275">
+        <v>2465</v>
+      </c>
+      <c r="E275" t="s">
+        <v>230</v>
+      </c>
+      <c r="F275" t="s">
+        <v>66</v>
+      </c>
+      <c r="G275">
+        <v>20251005</v>
+      </c>
+      <c r="H275" t="s">
+        <v>18</v>
+      </c>
+      <c r="J275">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>327</v>
+      </c>
+      <c r="B276" t="s">
+        <v>440</v>
+      </c>
+      <c r="C276" t="s">
+        <v>61</v>
+      </c>
+      <c r="D276">
+        <v>2465</v>
+      </c>
+      <c r="E276" t="s">
+        <v>86</v>
+      </c>
+      <c r="F276" t="s">
+        <v>67</v>
+      </c>
+      <c r="G276">
+        <v>20251005</v>
+      </c>
+      <c r="H276" t="s">
+        <v>18</v>
+      </c>
+      <c r="J276">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>328</v>
+      </c>
+      <c r="B277" t="s">
+        <v>441</v>
+      </c>
+      <c r="C277" t="s">
+        <v>62</v>
+      </c>
+      <c r="D277">
+        <v>2465</v>
+      </c>
+      <c r="E277" t="s">
+        <v>86</v>
+      </c>
+      <c r="F277" t="s">
+        <v>67</v>
+      </c>
+      <c r="G277">
+        <v>20251005</v>
+      </c>
+      <c r="H277" t="s">
+        <v>18</v>
+      </c>
+      <c r="J277">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>329</v>
+      </c>
+      <c r="B278" t="s">
+        <v>442</v>
+      </c>
+      <c r="C278" t="s">
+        <v>435</v>
+      </c>
+      <c r="D278">
+        <v>2465</v>
+      </c>
+      <c r="E278" t="s">
+        <v>431</v>
+      </c>
+      <c r="F278" t="s">
+        <v>66</v>
+      </c>
+      <c r="G278">
+        <v>20251005</v>
+      </c>
+      <c r="H278" t="s">
+        <v>18</v>
+      </c>
+      <c r="J278">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>330</v>
+      </c>
+      <c r="B279" t="s">
+        <v>443</v>
+      </c>
+      <c r="C279" t="s">
+        <v>62</v>
+      </c>
+      <c r="D279">
+        <v>2465</v>
+      </c>
+      <c r="E279" t="s">
+        <v>436</v>
+      </c>
+      <c r="F279" t="s">
+        <v>66</v>
+      </c>
+      <c r="G279">
+        <v>20251005</v>
+      </c>
+      <c r="H279" t="s">
+        <v>18</v>
+      </c>
+      <c r="J279">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>331</v>
+      </c>
+      <c r="B280" t="s">
+        <v>444</v>
+      </c>
+      <c r="C280" t="s">
+        <v>61</v>
+      </c>
+      <c r="D280">
+        <v>2465</v>
+      </c>
+      <c r="E280" t="s">
+        <v>437</v>
+      </c>
+      <c r="F280" t="s">
+        <v>66</v>
+      </c>
+      <c r="G280">
+        <v>20251005</v>
+      </c>
+      <c r="H280" t="s">
+        <v>18</v>
+      </c>
+      <c r="J280">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>332</v>
+      </c>
+      <c r="B281" t="s">
+        <v>445</v>
+      </c>
+      <c r="C281" t="s">
+        <v>64</v>
+      </c>
+      <c r="D281">
+        <v>2465</v>
+      </c>
+      <c r="E281" t="s">
+        <v>400</v>
+      </c>
+      <c r="F281" t="s">
+        <v>66</v>
+      </c>
+      <c r="G281">
+        <v>20251005</v>
+      </c>
+      <c r="H281" t="s">
+        <v>18</v>
+      </c>
+      <c r="J281">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>333</v>
+      </c>
+      <c r="B282" t="s">
+        <v>446</v>
+      </c>
+      <c r="C282" t="s">
+        <v>60</v>
+      </c>
+      <c r="D282">
+        <v>2465</v>
+      </c>
+      <c r="E282" t="s">
+        <v>80</v>
+      </c>
+      <c r="F282" t="s">
+        <v>67</v>
+      </c>
+      <c r="G282">
+        <v>20251005</v>
+      </c>
+      <c r="H282" t="s">
+        <v>18</v>
+      </c>
+      <c r="J282">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>334</v>
+      </c>
+      <c r="B283" t="s">
+        <v>447</v>
+      </c>
+      <c r="C283" t="s">
+        <v>63</v>
+      </c>
+      <c r="D283">
+        <v>2465</v>
+      </c>
+      <c r="E283" t="s">
+        <v>419</v>
+      </c>
+      <c r="F283" t="s">
+        <v>66</v>
+      </c>
+      <c r="G283">
+        <v>20251005</v>
+      </c>
+      <c r="H283" t="s">
+        <v>18</v>
+      </c>
+      <c r="J283">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>335</v>
+      </c>
+      <c r="B284" t="s">
+        <v>448</v>
+      </c>
+      <c r="C284" t="s">
+        <v>59</v>
+      </c>
+      <c r="D284">
+        <v>2465</v>
+      </c>
+      <c r="E284" t="s">
+        <v>438</v>
+      </c>
+      <c r="F284" t="s">
+        <v>66</v>
+      </c>
+      <c r="G284">
+        <v>20251005</v>
+      </c>
+      <c r="H284" t="s">
+        <v>18</v>
+      </c>
+      <c r="J284">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>336</v>
+      </c>
+      <c r="B285" t="s">
+        <v>449</v>
+      </c>
+      <c r="C285" t="s">
+        <v>63</v>
+      </c>
+      <c r="D285">
+        <v>2465</v>
+      </c>
+      <c r="E285" t="s">
+        <v>357</v>
+      </c>
+      <c r="F285" t="s">
+        <v>66</v>
+      </c>
+      <c r="G285">
+        <v>20251005</v>
+      </c>
+      <c r="H285" t="s">
+        <v>18</v>
+      </c>
+      <c r="J285">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>337</v>
+      </c>
+      <c r="B286" t="s">
+        <v>450</v>
+      </c>
+      <c r="C286" t="s">
+        <v>64</v>
+      </c>
+      <c r="D286">
+        <v>2465</v>
+      </c>
+      <c r="E286" t="s">
+        <v>351</v>
+      </c>
+      <c r="F286" t="s">
+        <v>66</v>
+      </c>
+      <c r="G286">
+        <v>20251005</v>
+      </c>
+      <c r="H286" t="s">
+        <v>18</v>
+      </c>
+      <c r="J286">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>338</v>
+      </c>
+      <c r="B287" t="s">
+        <v>451</v>
+      </c>
+      <c r="C287" t="s">
+        <v>65</v>
+      </c>
+      <c r="D287">
+        <v>2465</v>
+      </c>
+      <c r="E287">
+        <v>205</v>
+      </c>
+      <c r="F287" t="s">
+        <v>66</v>
+      </c>
+      <c r="G287">
+        <v>20251005</v>
+      </c>
+      <c r="H287" t="s">
+        <v>18</v>
+      </c>
+      <c r="J287">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>339</v>
+      </c>
+      <c r="B288" t="s">
+        <v>452</v>
+      </c>
+      <c r="C288" t="s">
+        <v>59</v>
+      </c>
+      <c r="D288">
+        <v>2465</v>
+      </c>
+      <c r="E288" t="s">
+        <v>86</v>
+      </c>
+      <c r="F288" t="s">
+        <v>67</v>
+      </c>
+      <c r="G288">
+        <v>20251005</v>
+      </c>
+      <c r="H288" t="s">
+        <v>18</v>
+      </c>
+      <c r="J288">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>340</v>
+      </c>
+      <c r="B289" t="s">
+        <v>453</v>
+      </c>
+      <c r="C289" t="s">
+        <v>64</v>
+      </c>
+      <c r="D289">
+        <v>2465</v>
+      </c>
+      <c r="E289" t="s">
+        <v>84</v>
+      </c>
+      <c r="F289" t="s">
+        <v>67</v>
+      </c>
+      <c r="G289">
+        <v>20251005</v>
+      </c>
+      <c r="H289" t="s">
+        <v>18</v>
+      </c>
+      <c r="J289">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>341</v>
+      </c>
+      <c r="B290" t="s">
+        <v>454</v>
+      </c>
+      <c r="C290" t="s">
+        <v>63</v>
+      </c>
+      <c r="D290">
+        <v>2462</v>
+      </c>
+      <c r="E290" t="s">
+        <v>144</v>
+      </c>
+      <c r="F290" t="s">
+        <v>66</v>
+      </c>
+      <c r="G290">
+        <v>20251005</v>
+      </c>
+      <c r="H290" t="s">
+        <v>18</v>
+      </c>
+      <c r="J290">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>342</v>
+      </c>
+      <c r="B291" t="s">
+        <v>452</v>
+      </c>
+      <c r="C291" t="s">
+        <v>62</v>
+      </c>
+      <c r="D291">
+        <v>2462</v>
+      </c>
+      <c r="E291" t="s">
+        <v>84</v>
+      </c>
+      <c r="F291" t="s">
+        <v>67</v>
+      </c>
+      <c r="G291">
+        <v>20251005</v>
+      </c>
+      <c r="H291" t="s">
+        <v>18</v>
+      </c>
+      <c r="J291">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>343</v>
+      </c>
+      <c r="B292" t="s">
+        <v>455</v>
+      </c>
+      <c r="C292" t="s">
+        <v>61</v>
+      </c>
+      <c r="D292">
+        <v>2462</v>
+      </c>
+      <c r="E292" t="s">
+        <v>468</v>
+      </c>
+      <c r="F292" t="s">
+        <v>66</v>
+      </c>
+      <c r="G292">
+        <v>20251005</v>
+      </c>
+      <c r="H292" t="s">
+        <v>18</v>
+      </c>
+      <c r="J292">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>344</v>
+      </c>
+      <c r="B293" t="s">
+        <v>456</v>
+      </c>
+      <c r="C293" t="s">
+        <v>60</v>
+      </c>
+      <c r="D293">
+        <v>2462</v>
+      </c>
+      <c r="E293" t="s">
+        <v>144</v>
+      </c>
+      <c r="F293" t="s">
+        <v>66</v>
+      </c>
+      <c r="G293">
+        <v>20251005</v>
+      </c>
+      <c r="H293" t="s">
+        <v>18</v>
+      </c>
+      <c r="J293">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>345</v>
+      </c>
+      <c r="B294" t="s">
+        <v>445</v>
+      </c>
+      <c r="C294" t="s">
+        <v>59</v>
+      </c>
+      <c r="D294">
+        <v>2462</v>
+      </c>
+      <c r="E294" t="s">
+        <v>84</v>
+      </c>
+      <c r="F294" t="s">
+        <v>67</v>
+      </c>
+      <c r="G294">
+        <v>20251005</v>
+      </c>
+      <c r="H294" t="s">
+        <v>18</v>
+      </c>
+      <c r="J294">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>346</v>
+      </c>
+      <c r="B295" t="s">
+        <v>457</v>
+      </c>
+      <c r="C295" t="s">
+        <v>60</v>
+      </c>
+      <c r="D295">
+        <v>2462</v>
+      </c>
+      <c r="E295" t="s">
+        <v>86</v>
+      </c>
+      <c r="F295" t="s">
+        <v>67</v>
+      </c>
+      <c r="G295">
+        <v>20251005</v>
+      </c>
+      <c r="H295" t="s">
+        <v>18</v>
+      </c>
+      <c r="J295">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>347</v>
+      </c>
+      <c r="B296" t="s">
+        <v>458</v>
+      </c>
+      <c r="C296" t="s">
+        <v>65</v>
+      </c>
+      <c r="D296">
+        <v>2462</v>
+      </c>
+      <c r="E296" t="s">
+        <v>84</v>
+      </c>
+      <c r="F296" t="s">
+        <v>67</v>
+      </c>
+      <c r="G296">
+        <v>20251005</v>
+      </c>
+      <c r="H296" t="s">
+        <v>18</v>
+      </c>
+      <c r="J296">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>348</v>
+      </c>
+      <c r="B297" t="s">
+        <v>459</v>
+      </c>
+      <c r="C297" t="s">
+        <v>59</v>
+      </c>
+      <c r="D297">
+        <v>2462</v>
+      </c>
+      <c r="E297" t="s">
+        <v>438</v>
+      </c>
+      <c r="F297" t="s">
+        <v>66</v>
+      </c>
+      <c r="G297">
+        <v>20251005</v>
+      </c>
+      <c r="H297" t="s">
+        <v>18</v>
+      </c>
+      <c r="J297">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>349</v>
+      </c>
+      <c r="B298" t="s">
+        <v>460</v>
+      </c>
+      <c r="C298" t="s">
+        <v>63</v>
+      </c>
+      <c r="D298">
+        <v>2462</v>
+      </c>
+      <c r="E298" t="s">
+        <v>469</v>
+      </c>
+      <c r="F298" t="s">
+        <v>66</v>
+      </c>
+      <c r="G298">
+        <v>20251005</v>
+      </c>
+      <c r="H298" t="s">
+        <v>18</v>
+      </c>
+      <c r="J298">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>350</v>
+      </c>
+      <c r="B299" t="s">
+        <v>461</v>
+      </c>
+      <c r="C299" t="s">
+        <v>64</v>
+      </c>
+      <c r="D299">
+        <v>2462</v>
+      </c>
+      <c r="E299" t="s">
+        <v>203</v>
+      </c>
+      <c r="F299" t="s">
+        <v>66</v>
+      </c>
+      <c r="G299">
+        <v>20251005</v>
+      </c>
+      <c r="H299" t="s">
+        <v>18</v>
+      </c>
+      <c r="J299">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>351</v>
+      </c>
+      <c r="B300" t="s">
+        <v>462</v>
+      </c>
+      <c r="C300" t="s">
+        <v>62</v>
+      </c>
+      <c r="D300">
+        <v>2462</v>
+      </c>
+      <c r="E300" t="s">
+        <v>470</v>
+      </c>
+      <c r="F300" t="s">
+        <v>66</v>
+      </c>
+      <c r="G300">
+        <v>20251005</v>
+      </c>
+      <c r="H300" t="s">
+        <v>18</v>
+      </c>
+      <c r="J300">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>352</v>
+      </c>
+      <c r="B301" t="s">
+        <v>463</v>
+      </c>
+      <c r="C301" t="s">
+        <v>65</v>
+      </c>
+      <c r="D301">
+        <v>2462</v>
+      </c>
+      <c r="E301" t="s">
+        <v>87</v>
+      </c>
+      <c r="F301" t="s">
+        <v>66</v>
+      </c>
+      <c r="G301">
+        <v>20251005</v>
+      </c>
+      <c r="H301" t="s">
+        <v>18</v>
+      </c>
+      <c r="J301">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>353</v>
+      </c>
+      <c r="B302" t="s">
+        <v>464</v>
+      </c>
+      <c r="C302" t="s">
+        <v>64</v>
+      </c>
+      <c r="D302">
+        <v>2462</v>
+      </c>
+      <c r="E302" t="s">
+        <v>80</v>
+      </c>
+      <c r="F302" t="s">
+        <v>67</v>
+      </c>
+      <c r="G302">
+        <v>20251005</v>
+      </c>
+      <c r="H302" t="s">
+        <v>18</v>
+      </c>
+      <c r="J302">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>354</v>
+      </c>
+      <c r="B303" t="s">
+        <v>465</v>
+      </c>
+      <c r="C303" t="s">
+        <v>61</v>
+      </c>
+      <c r="D303">
+        <v>2462</v>
+      </c>
+      <c r="E303" t="s">
+        <v>86</v>
+      </c>
+      <c r="F303" t="s">
+        <v>67</v>
+      </c>
+      <c r="G303">
+        <v>20251005</v>
+      </c>
+      <c r="H303" t="s">
+        <v>18</v>
+      </c>
+      <c r="J303">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>355</v>
+      </c>
+      <c r="B304" t="s">
+        <v>466</v>
+      </c>
+      <c r="C304" t="s">
+        <v>65</v>
+      </c>
+      <c r="D304">
+        <v>2462</v>
+      </c>
+      <c r="E304" t="s">
+        <v>83</v>
+      </c>
+      <c r="F304" t="s">
+        <v>66</v>
+      </c>
+      <c r="G304">
+        <v>20251005</v>
+      </c>
+      <c r="H304" t="s">
+        <v>18</v>
+      </c>
+      <c r="J304">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>356</v>
+      </c>
+      <c r="B305" t="s">
+        <v>467</v>
+      </c>
+      <c r="C305" t="s">
+        <v>63</v>
+      </c>
+      <c r="D305">
+        <v>2462</v>
+      </c>
+      <c r="E305" t="s">
+        <v>471</v>
+      </c>
+      <c r="F305" t="s">
+        <v>66</v>
+      </c>
+      <c r="G305">
+        <v>20251005</v>
+      </c>
+      <c r="H305" t="s">
+        <v>18</v>
+      </c>
+      <c r="J305">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>382</v>
+      </c>
+      <c r="B306" t="s">
+        <v>473</v>
+      </c>
+      <c r="C306" t="s">
+        <v>65</v>
+      </c>
+      <c r="D306">
+        <v>2491</v>
+      </c>
+      <c r="E306" t="s">
+        <v>395</v>
+      </c>
+      <c r="F306" t="s">
+        <v>67</v>
+      </c>
+      <c r="G306">
+        <v>20251005</v>
+      </c>
+      <c r="H306" t="s">
+        <v>17</v>
+      </c>
+      <c r="J306">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>408</v>
+      </c>
+      <c r="B307" t="s">
+        <v>474</v>
+      </c>
+      <c r="C307" t="s">
+        <v>61</v>
+      </c>
+      <c r="D307">
+        <v>2491</v>
+      </c>
+      <c r="E307" t="s">
+        <v>505</v>
+      </c>
+      <c r="F307" t="s">
+        <v>66</v>
+      </c>
+      <c r="G307">
+        <v>20251005</v>
+      </c>
+      <c r="H307" t="s">
+        <v>17</v>
+      </c>
+      <c r="J307">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>409</v>
+      </c>
+      <c r="B308" t="s">
+        <v>475</v>
+      </c>
+      <c r="C308" t="s">
+        <v>63</v>
+      </c>
+      <c r="D308">
+        <v>2491</v>
+      </c>
+      <c r="E308" t="s">
+        <v>506</v>
+      </c>
+      <c r="F308" t="s">
+        <v>66</v>
+      </c>
+      <c r="G308">
+        <v>20251005</v>
+      </c>
+      <c r="H308" t="s">
+        <v>17</v>
+      </c>
+      <c r="J308">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>410</v>
+      </c>
+      <c r="B309" t="s">
+        <v>476</v>
+      </c>
+      <c r="C309" t="s">
+        <v>65</v>
+      </c>
+      <c r="D309">
+        <v>2491</v>
+      </c>
+      <c r="E309" t="s">
+        <v>200</v>
+      </c>
+      <c r="F309" t="s">
+        <v>66</v>
+      </c>
+      <c r="G309">
+        <v>20251005</v>
+      </c>
+      <c r="H309" t="s">
+        <v>17</v>
+      </c>
+      <c r="J309">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>411</v>
+      </c>
+      <c r="B310" t="s">
+        <v>477</v>
+      </c>
+      <c r="C310" t="s">
+        <v>59</v>
+      </c>
+      <c r="D310">
+        <v>2491</v>
+      </c>
+      <c r="E310" t="s">
+        <v>318</v>
+      </c>
+      <c r="F310" t="s">
+        <v>66</v>
+      </c>
+      <c r="G310">
+        <v>20251005</v>
+      </c>
+      <c r="H310" t="s">
+        <v>17</v>
+      </c>
+      <c r="J310">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>413</v>
+      </c>
+      <c r="B311" t="s">
+        <v>478</v>
+      </c>
+      <c r="C311" t="s">
+        <v>60</v>
+      </c>
+      <c r="D311">
+        <v>2491</v>
+      </c>
+      <c r="E311" t="s">
+        <v>24</v>
+      </c>
+      <c r="F311" t="s">
+        <v>66</v>
+      </c>
+      <c r="G311">
+        <v>20251005</v>
+      </c>
+      <c r="H311" t="s">
+        <v>17</v>
+      </c>
+      <c r="J311">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>416</v>
+      </c>
+      <c r="B312" t="s">
+        <v>479</v>
+      </c>
+      <c r="C312" t="s">
+        <v>61</v>
+      </c>
+      <c r="D312">
+        <v>2491</v>
+      </c>
+      <c r="E312" t="s">
+        <v>391</v>
+      </c>
+      <c r="F312" t="s">
+        <v>67</v>
+      </c>
+      <c r="G312">
+        <v>20251005</v>
+      </c>
+      <c r="H312" t="s">
+        <v>17</v>
+      </c>
+      <c r="J312">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>417</v>
+      </c>
+      <c r="B313" t="s">
+        <v>480</v>
+      </c>
+      <c r="C313" t="s">
+        <v>62</v>
+      </c>
+      <c r="D313">
+        <v>2491</v>
+      </c>
+      <c r="E313" t="s">
+        <v>138</v>
+      </c>
+      <c r="F313" t="s">
+        <v>66</v>
+      </c>
+      <c r="G313">
+        <v>20251005</v>
+      </c>
+      <c r="H313" t="s">
+        <v>17</v>
+      </c>
+      <c r="J313">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>383</v>
+      </c>
+      <c r="B314" t="s">
+        <v>481</v>
+      </c>
+      <c r="C314" t="s">
+        <v>63</v>
+      </c>
+      <c r="D314">
+        <v>2491</v>
+      </c>
+      <c r="E314" t="s">
+        <v>24</v>
+      </c>
+      <c r="F314" t="s">
+        <v>66</v>
+      </c>
+      <c r="G314">
+        <v>20251005</v>
+      </c>
+      <c r="H314" t="s">
+        <v>17</v>
+      </c>
+      <c r="J314">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>389</v>
+      </c>
+      <c r="B315" t="s">
+        <v>482</v>
+      </c>
+      <c r="C315" t="s">
+        <v>65</v>
+      </c>
+      <c r="D315">
+        <v>2489</v>
+      </c>
+      <c r="E315" t="s">
+        <v>102</v>
+      </c>
+      <c r="F315" t="s">
+        <v>66</v>
+      </c>
+      <c r="G315">
+        <v>20251005</v>
+      </c>
+      <c r="H315" t="s">
+        <v>17</v>
+      </c>
+      <c r="J315">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>385</v>
+      </c>
+      <c r="B316" t="s">
+        <v>483</v>
+      </c>
+      <c r="C316" t="s">
+        <v>60</v>
+      </c>
+      <c r="D316">
+        <v>2489</v>
+      </c>
+      <c r="E316" t="s">
+        <v>84</v>
+      </c>
+      <c r="F316" t="s">
+        <v>67</v>
+      </c>
+      <c r="G316">
+        <v>20251005</v>
+      </c>
+      <c r="H316" t="s">
+        <v>17</v>
+      </c>
+      <c r="J316">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>386</v>
+      </c>
+      <c r="B317" t="s">
+        <v>484</v>
+      </c>
+      <c r="C317" t="s">
+        <v>63</v>
+      </c>
+      <c r="D317">
+        <v>2489</v>
+      </c>
+      <c r="E317" t="s">
+        <v>395</v>
+      </c>
+      <c r="F317" t="s">
+        <v>67</v>
+      </c>
+      <c r="G317">
+        <v>20251005</v>
+      </c>
+      <c r="H317" t="s">
+        <v>17</v>
+      </c>
+      <c r="J317">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>387</v>
+      </c>
+      <c r="B318" t="s">
+        <v>485</v>
+      </c>
+      <c r="C318" t="s">
+        <v>62</v>
+      </c>
+      <c r="D318">
+        <v>2489</v>
+      </c>
+      <c r="E318" t="s">
+        <v>507</v>
+      </c>
+      <c r="F318" t="s">
+        <v>66</v>
+      </c>
+      <c r="G318">
+        <v>20251005</v>
+      </c>
+      <c r="H318" t="s">
+        <v>17</v>
+      </c>
+      <c r="J318">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>388</v>
+      </c>
+      <c r="B319" t="s">
+        <v>486</v>
+      </c>
+      <c r="C319" t="s">
+        <v>63</v>
+      </c>
+      <c r="D319">
+        <v>2489</v>
+      </c>
+      <c r="E319" t="s">
+        <v>99</v>
+      </c>
+      <c r="F319" t="s">
+        <v>67</v>
+      </c>
+      <c r="G319">
+        <v>20251005</v>
+      </c>
+      <c r="H319" t="s">
+        <v>17</v>
+      </c>
+      <c r="J319">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>389</v>
+      </c>
+      <c r="B320" t="s">
+        <v>487</v>
+      </c>
+      <c r="C320" t="s">
+        <v>61</v>
+      </c>
+      <c r="D320">
+        <v>2489</v>
+      </c>
+      <c r="E320" t="s">
+        <v>508</v>
+      </c>
+      <c r="F320" t="s">
+        <v>67</v>
+      </c>
+      <c r="G320">
+        <v>20251005</v>
+      </c>
+      <c r="H320" t="s">
+        <v>17</v>
+      </c>
+      <c r="J320">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>391</v>
+      </c>
+      <c r="B321" t="s">
+        <v>488</v>
+      </c>
+      <c r="C321" t="s">
+        <v>64</v>
+      </c>
+      <c r="D321">
+        <v>2489</v>
+      </c>
+      <c r="E321" t="s">
+        <v>99</v>
+      </c>
+      <c r="F321" t="s">
+        <v>67</v>
+      </c>
+      <c r="G321">
+        <v>20251005</v>
+      </c>
+      <c r="H321" t="s">
+        <v>17</v>
+      </c>
+      <c r="J321">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>392</v>
+      </c>
+      <c r="B322" t="s">
+        <v>489</v>
+      </c>
+      <c r="C322" t="s">
+        <v>62</v>
+      </c>
+      <c r="D322">
+        <v>2489</v>
+      </c>
+      <c r="E322" t="s">
+        <v>86</v>
+      </c>
+      <c r="F322" t="s">
+        <v>67</v>
+      </c>
+      <c r="G322">
+        <v>20251005</v>
+      </c>
+      <c r="H322" t="s">
+        <v>17</v>
+      </c>
+      <c r="J322">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>393</v>
+      </c>
+      <c r="B323" t="s">
+        <v>490</v>
+      </c>
+      <c r="C323" t="s">
+        <v>65</v>
+      </c>
+      <c r="D323">
+        <v>2489</v>
+      </c>
+      <c r="E323" t="s">
+        <v>99</v>
+      </c>
+      <c r="F323" t="s">
+        <v>67</v>
+      </c>
+      <c r="G323">
+        <v>20251005</v>
+      </c>
+      <c r="H323" t="s">
+        <v>17</v>
+      </c>
+      <c r="J323">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>320</v>
+      </c>
+      <c r="B324" t="s">
+        <v>491</v>
+      </c>
+      <c r="C324" t="s">
+        <v>65</v>
+      </c>
+      <c r="D324">
+        <v>2489</v>
+      </c>
+      <c r="E324" t="s">
+        <v>509</v>
+      </c>
+      <c r="F324" t="s">
+        <v>66</v>
+      </c>
+      <c r="G324">
+        <v>20251005</v>
+      </c>
+      <c r="H324" t="s">
+        <v>17</v>
+      </c>
+      <c r="J324">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>302</v>
+      </c>
+      <c r="D325">
+        <v>2489</v>
+      </c>
+      <c r="F325" t="s">
+        <v>67</v>
+      </c>
+      <c r="G325">
+        <v>20251005</v>
+      </c>
+      <c r="H325" t="s">
+        <v>17</v>
+      </c>
+      <c r="J325">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>305</v>
+      </c>
+      <c r="B326" t="s">
+        <v>492</v>
+      </c>
+      <c r="C326" t="s">
+        <v>59</v>
+      </c>
+      <c r="D326">
+        <v>2474</v>
+      </c>
+      <c r="E326" t="s">
+        <v>86</v>
+      </c>
+      <c r="F326" t="s">
+        <v>67</v>
+      </c>
+      <c r="G326">
+        <v>20251005</v>
+      </c>
+      <c r="H326" t="s">
+        <v>17</v>
+      </c>
+      <c r="J326">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>306</v>
+      </c>
+      <c r="B327" t="s">
+        <v>493</v>
+      </c>
+      <c r="C327" t="s">
+        <v>61</v>
+      </c>
+      <c r="D327">
+        <v>2474</v>
+      </c>
+      <c r="E327" t="s">
+        <v>202</v>
+      </c>
+      <c r="F327" t="s">
+        <v>66</v>
+      </c>
+      <c r="G327">
+        <v>20251005</v>
+      </c>
+      <c r="H327" t="s">
+        <v>17</v>
+      </c>
+      <c r="J327">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>307</v>
+      </c>
+      <c r="B328" t="s">
+        <v>494</v>
+      </c>
+      <c r="C328" t="s">
+        <v>62</v>
+      </c>
+      <c r="D328">
+        <v>2474</v>
+      </c>
+      <c r="E328" t="s">
+        <v>86</v>
+      </c>
+      <c r="F328" t="s">
+        <v>67</v>
+      </c>
+      <c r="G328">
+        <v>20251005</v>
+      </c>
+      <c r="H328" t="s">
+        <v>17</v>
+      </c>
+      <c r="J328">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>309</v>
+      </c>
+      <c r="B329" t="s">
+        <v>479</v>
+      </c>
+      <c r="C329" t="s">
+        <v>64</v>
+      </c>
+      <c r="D329">
+        <v>2474</v>
+      </c>
+      <c r="E329" t="s">
+        <v>309</v>
+      </c>
+      <c r="F329" t="s">
+        <v>66</v>
+      </c>
+      <c r="G329">
+        <v>20251005</v>
+      </c>
+      <c r="H329" t="s">
+        <v>17</v>
+      </c>
+      <c r="J329">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>311</v>
+      </c>
+      <c r="B330" t="s">
+        <v>495</v>
+      </c>
+      <c r="C330" t="s">
+        <v>65</v>
+      </c>
+      <c r="D330">
+        <v>2474</v>
+      </c>
+      <c r="E330" t="s">
+        <v>395</v>
+      </c>
+      <c r="F330" t="s">
+        <v>66</v>
+      </c>
+      <c r="G330">
+        <v>20251005</v>
+      </c>
+      <c r="H330" t="s">
+        <v>17</v>
+      </c>
+      <c r="J330">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>310</v>
+      </c>
+      <c r="B331" t="s">
+        <v>496</v>
+      </c>
+      <c r="C331" t="s">
+        <v>64</v>
+      </c>
+      <c r="D331">
+        <v>2474</v>
+      </c>
+      <c r="E331" t="s">
+        <v>84</v>
+      </c>
+      <c r="F331" t="s">
+        <v>67</v>
+      </c>
+      <c r="G331">
+        <v>20251005</v>
+      </c>
+      <c r="H331" t="s">
+        <v>17</v>
+      </c>
+      <c r="J331">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>312</v>
+      </c>
+      <c r="B332" t="s">
+        <v>497</v>
+      </c>
+      <c r="C332" t="s">
+        <v>59</v>
+      </c>
+      <c r="D332">
+        <v>2474</v>
+      </c>
+      <c r="E332" t="s">
+        <v>136</v>
+      </c>
+      <c r="F332" t="s">
+        <v>66</v>
+      </c>
+      <c r="G332">
+        <v>20251005</v>
+      </c>
+      <c r="H332" t="s">
+        <v>17</v>
+      </c>
+      <c r="J332">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>313</v>
+      </c>
+      <c r="B333" t="s">
+        <v>498</v>
+      </c>
+      <c r="C333" t="s">
+        <v>60</v>
+      </c>
+      <c r="D333">
+        <v>2474</v>
+      </c>
+      <c r="E333" t="s">
+        <v>102</v>
+      </c>
+      <c r="F333" t="s">
+        <v>66</v>
+      </c>
+      <c r="G333">
+        <v>20251005</v>
+      </c>
+      <c r="H333" t="s">
+        <v>17</v>
+      </c>
+      <c r="J333">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>314</v>
+      </c>
+      <c r="B334" t="s">
+        <v>499</v>
+      </c>
+      <c r="C334" t="s">
+        <v>61</v>
+      </c>
+      <c r="D334">
+        <v>2474</v>
+      </c>
+      <c r="E334" t="s">
+        <v>86</v>
+      </c>
+      <c r="F334" t="s">
+        <v>67</v>
+      </c>
+      <c r="G334">
+        <v>20251005</v>
+      </c>
+      <c r="H334" t="s">
+        <v>17</v>
+      </c>
+      <c r="J334">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>315</v>
+      </c>
+      <c r="B335" t="s">
+        <v>500</v>
+      </c>
+      <c r="C335" t="s">
+        <v>64</v>
+      </c>
+      <c r="D335">
+        <v>2474</v>
+      </c>
+      <c r="E335" t="s">
+        <v>419</v>
+      </c>
+      <c r="F335" t="s">
+        <v>66</v>
+      </c>
+      <c r="G335">
+        <v>20251005</v>
+      </c>
+      <c r="H335" t="s">
+        <v>17</v>
+      </c>
+      <c r="J335">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>316</v>
+      </c>
+      <c r="B336" t="s">
+        <v>501</v>
+      </c>
+      <c r="C336" t="s">
+        <v>63</v>
+      </c>
+      <c r="D336">
+        <v>2474</v>
+      </c>
+      <c r="E336" t="s">
+        <v>510</v>
+      </c>
+      <c r="F336" t="s">
+        <v>66</v>
+      </c>
+      <c r="G336">
+        <v>20251005</v>
+      </c>
+      <c r="H336" t="s">
+        <v>17</v>
+      </c>
+      <c r="J336">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>317</v>
+      </c>
+      <c r="B337" t="s">
+        <v>502</v>
+      </c>
+      <c r="C337" t="s">
+        <v>62</v>
+      </c>
+      <c r="D337">
+        <v>2474</v>
+      </c>
+      <c r="E337" t="s">
+        <v>511</v>
+      </c>
+      <c r="F337" t="s">
+        <v>66</v>
+      </c>
+      <c r="G337">
+        <v>20251005</v>
+      </c>
+      <c r="H337" t="s">
+        <v>17</v>
+      </c>
+      <c r="J337">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>318</v>
+      </c>
+      <c r="B338" t="s">
+        <v>503</v>
+      </c>
+      <c r="C338" t="s">
+        <v>63</v>
+      </c>
+      <c r="D338">
+        <v>2474</v>
+      </c>
+      <c r="E338" t="s">
+        <v>24</v>
+      </c>
+      <c r="F338" t="s">
+        <v>66</v>
+      </c>
+      <c r="G338">
+        <v>20251005</v>
+      </c>
+      <c r="H338" t="s">
+        <v>17</v>
+      </c>
+      <c r="J338">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>472</v>
+      </c>
+      <c r="B339" t="s">
+        <v>504</v>
+      </c>
+      <c r="C339" t="s">
+        <v>65</v>
+      </c>
+      <c r="D339">
+        <v>2474</v>
+      </c>
+      <c r="E339" t="s">
+        <v>139</v>
+      </c>
+      <c r="F339" t="s">
+        <v>66</v>
+      </c>
+      <c r="G339">
+        <v>20251005</v>
+      </c>
+      <c r="H339" t="s">
+        <v>17</v>
+      </c>
+      <c r="J339">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>276</v>
+      </c>
+      <c r="B340" t="s">
+        <v>512</v>
+      </c>
+      <c r="C340" t="s">
+        <v>64</v>
+      </c>
+      <c r="D340">
+        <v>1467</v>
+      </c>
+      <c r="E340" t="s">
+        <v>82</v>
+      </c>
+      <c r="F340" t="s">
+        <v>67</v>
+      </c>
+      <c r="G340">
+        <v>20251005</v>
+      </c>
+      <c r="H340" t="s">
+        <v>17</v>
+      </c>
+      <c r="J340">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>272</v>
+      </c>
+      <c r="B341" t="s">
+        <v>513</v>
+      </c>
+      <c r="C341" t="s">
+        <v>59</v>
+      </c>
+      <c r="D341">
+        <v>1467</v>
+      </c>
+      <c r="E341" t="s">
+        <v>86</v>
+      </c>
+      <c r="F341" t="s">
+        <v>67</v>
+      </c>
+      <c r="G341">
+        <v>20251006</v>
+      </c>
+      <c r="H341" t="s">
+        <v>17</v>
+      </c>
+      <c r="J341">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>199</v>
+      </c>
+      <c r="B342" t="s">
+        <v>514</v>
+      </c>
+      <c r="C342" t="s">
+        <v>59</v>
+      </c>
+      <c r="D342">
+        <v>1467</v>
+      </c>
+      <c r="E342" t="s">
+        <v>202</v>
+      </c>
+      <c r="F342" t="s">
+        <v>66</v>
+      </c>
+      <c r="G342">
+        <v>20251007</v>
+      </c>
+      <c r="H342" t="s">
+        <v>17</v>
+      </c>
+      <c r="J342">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>278</v>
+      </c>
+      <c r="B343" t="s">
+        <v>515</v>
+      </c>
+      <c r="C343" t="s">
+        <v>64</v>
+      </c>
+      <c r="D343">
+        <v>1467</v>
+      </c>
+      <c r="E343" t="s">
+        <v>506</v>
+      </c>
+      <c r="F343" t="s">
+        <v>66</v>
+      </c>
+      <c r="G343">
+        <v>20251008</v>
+      </c>
+      <c r="H343" t="s">
+        <v>17</v>
+      </c>
+      <c r="J343">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>279</v>
+      </c>
+      <c r="B344" t="s">
+        <v>516</v>
+      </c>
+      <c r="C344" t="s">
+        <v>65</v>
+      </c>
+      <c r="D344">
+        <v>1467</v>
+      </c>
+      <c r="E344" t="s">
+        <v>24</v>
+      </c>
+      <c r="F344" t="s">
+        <v>66</v>
+      </c>
+      <c r="G344">
+        <v>20251009</v>
+      </c>
+      <c r="H344" t="s">
+        <v>17</v>
+      </c>
+      <c r="J344">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>280</v>
+      </c>
+      <c r="B345" t="s">
+        <v>517</v>
+      </c>
+      <c r="C345" t="s">
+        <v>61</v>
+      </c>
+      <c r="D345">
+        <v>1467</v>
+      </c>
+      <c r="E345" t="s">
+        <v>138</v>
+      </c>
+      <c r="F345" t="s">
+        <v>66</v>
+      </c>
+      <c r="G345">
+        <v>20251010</v>
+      </c>
+      <c r="H345" t="s">
+        <v>17</v>
+      </c>
+      <c r="J345">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>281</v>
+      </c>
+      <c r="B346" t="s">
+        <v>518</v>
+      </c>
+      <c r="C346" t="s">
+        <v>60</v>
+      </c>
+      <c r="D346">
+        <v>1467</v>
+      </c>
+      <c r="E346" t="s">
+        <v>526</v>
+      </c>
+      <c r="F346" t="s">
+        <v>67</v>
+      </c>
+      <c r="G346">
+        <v>20251011</v>
+      </c>
+      <c r="H346" t="s">
+        <v>17</v>
+      </c>
+      <c r="J346">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>191</v>
+      </c>
+      <c r="B347" t="s">
+        <v>519</v>
+      </c>
+      <c r="C347" t="s">
+        <v>65</v>
+      </c>
+      <c r="D347">
+        <v>1467</v>
+      </c>
+      <c r="E347" t="s">
+        <v>24</v>
+      </c>
+      <c r="F347" t="s">
+        <v>66</v>
+      </c>
+      <c r="G347">
+        <v>20251012</v>
+      </c>
+      <c r="H347" t="s">
+        <v>17</v>
+      </c>
+      <c r="J347">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>291</v>
+      </c>
+      <c r="B348" t="s">
+        <v>520</v>
+      </c>
+      <c r="C348" t="s">
+        <v>63</v>
+      </c>
+      <c r="D348">
+        <v>1467</v>
+      </c>
+      <c r="E348" t="s">
+        <v>73</v>
+      </c>
+      <c r="F348" t="s">
+        <v>66</v>
+      </c>
+      <c r="G348">
+        <v>20251013</v>
+      </c>
+      <c r="H348" t="s">
+        <v>17</v>
+      </c>
+      <c r="J348">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>193</v>
+      </c>
+      <c r="B349" t="s">
+        <v>521</v>
+      </c>
+      <c r="C349" t="s">
+        <v>64</v>
+      </c>
+      <c r="D349">
+        <v>1467</v>
+      </c>
+      <c r="E349" t="s">
+        <v>527</v>
+      </c>
+      <c r="F349" t="s">
+        <v>66</v>
+      </c>
+      <c r="G349">
+        <v>20251014</v>
+      </c>
+      <c r="H349" t="s">
+        <v>17</v>
+      </c>
+      <c r="J349">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>192</v>
+      </c>
+      <c r="B350" t="s">
+        <v>522</v>
+      </c>
+      <c r="C350" t="s">
+        <v>62</v>
+      </c>
+      <c r="D350">
+        <v>1467</v>
+      </c>
+      <c r="E350" t="s">
+        <v>24</v>
+      </c>
+      <c r="F350" t="s">
+        <v>66</v>
+      </c>
+      <c r="G350">
+        <v>20251015</v>
+      </c>
+      <c r="H350" t="s">
+        <v>17</v>
+      </c>
+      <c r="J350">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>194</v>
+      </c>
+      <c r="B351" t="s">
+        <v>523</v>
+      </c>
+      <c r="C351" t="s">
+        <v>60</v>
+      </c>
+      <c r="D351">
+        <v>1467</v>
+      </c>
+      <c r="E351" t="s">
+        <v>24</v>
+      </c>
+      <c r="F351" t="s">
+        <v>66</v>
+      </c>
+      <c r="G351">
+        <v>20251016</v>
+      </c>
+      <c r="H351" t="s">
+        <v>17</v>
+      </c>
+      <c r="J351">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>195</v>
+      </c>
+      <c r="B352" t="s">
+        <v>524</v>
+      </c>
+      <c r="C352" t="s">
+        <v>61</v>
+      </c>
+      <c r="D352">
+        <v>1467</v>
+      </c>
+      <c r="E352" t="s">
+        <v>528</v>
+      </c>
+      <c r="F352" t="s">
+        <v>67</v>
+      </c>
+      <c r="G352">
+        <v>20251017</v>
+      </c>
+      <c r="H352" t="s">
+        <v>17</v>
+      </c>
+      <c r="J352">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>196</v>
+      </c>
+      <c r="B353" t="s">
+        <v>525</v>
+      </c>
+      <c r="C353" t="s">
+        <v>63</v>
+      </c>
+      <c r="D353">
+        <v>1467</v>
+      </c>
+      <c r="E353" t="s">
+        <v>260</v>
+      </c>
+      <c r="F353" t="s">
+        <v>66</v>
+      </c>
+      <c r="G353">
+        <v>20251018</v>
+      </c>
+      <c r="H353" t="s">
+        <v>17</v>
+      </c>
+      <c r="J353">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:P353" xr:uid="{859618DA-7D2E-F14A-9531-A0F7323C3157}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L105">
     <sortCondition ref="C2:C105"/>
   </sortState>

--- a/F25_Sampling.xlsx
+++ b/F25_Sampling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trini/Documents/Shedd/biota_project_genomicshifts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76102D90-512F-AA44-A928-D3940ABD96C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC49B753-EF6C-FB43-9895-121E87AAFD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1020" windowWidth="24040" windowHeight="12440" activeTab="1" xr2:uid="{07AAFEEF-A83C-484C-8992-E89847C75F27}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="12500" windowHeight="17620" activeTab="1" xr2:uid="{07AAFEEF-A83C-484C-8992-E89847C75F27}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="626">
   <si>
     <t xml:space="preserve">Bag </t>
   </si>
@@ -1627,6 +1627,297 @@
   </si>
   <si>
     <t>3x4</t>
+  </si>
+  <si>
+    <t>F25_351</t>
+  </si>
+  <si>
+    <t>F25_352</t>
+  </si>
+  <si>
+    <t>F25_353</t>
+  </si>
+  <si>
+    <t>F25_354</t>
+  </si>
+  <si>
+    <t>F25_355</t>
+  </si>
+  <si>
+    <t>F25_356</t>
+  </si>
+  <si>
+    <t>F25_357</t>
+  </si>
+  <si>
+    <t>F25_358</t>
+  </si>
+  <si>
+    <t>F25_359</t>
+  </si>
+  <si>
+    <t>F25_360</t>
+  </si>
+  <si>
+    <t>F25_361</t>
+  </si>
+  <si>
+    <t>F25_362</t>
+  </si>
+  <si>
+    <t>SS_RossCarlyTrinity</t>
+  </si>
+  <si>
+    <t>7x10</t>
+  </si>
+  <si>
+    <t>8x9</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>F25_376</t>
+  </si>
+  <si>
+    <t>F25_377</t>
+  </si>
+  <si>
+    <t>F25_378</t>
+  </si>
+  <si>
+    <t>F25_379</t>
+  </si>
+  <si>
+    <t>F25_380</t>
+  </si>
+  <si>
+    <t>F25_381</t>
+  </si>
+  <si>
+    <t>F25_382</t>
+  </si>
+  <si>
+    <t>F25_383</t>
+  </si>
+  <si>
+    <t>F25_384</t>
+  </si>
+  <si>
+    <t>F25_385</t>
+  </si>
+  <si>
+    <t>F25_386</t>
+  </si>
+  <si>
+    <t>F25_387</t>
+  </si>
+  <si>
+    <t>F25_388</t>
+  </si>
+  <si>
+    <t>F25_389</t>
+  </si>
+  <si>
+    <t>F25_364</t>
+  </si>
+  <si>
+    <t>F25_365</t>
+  </si>
+  <si>
+    <t>F25_366</t>
+  </si>
+  <si>
+    <t>F25_367</t>
+  </si>
+  <si>
+    <t>F25_368</t>
+  </si>
+  <si>
+    <t>F25_369</t>
+  </si>
+  <si>
+    <t>F25_370</t>
+  </si>
+  <si>
+    <t>F25_371</t>
+  </si>
+  <si>
+    <t>F25_372</t>
+  </si>
+  <si>
+    <t>F25_373</t>
+  </si>
+  <si>
+    <t>F25_374</t>
+  </si>
+  <si>
+    <t>F25_375</t>
+  </si>
+  <si>
+    <t>SS67c*</t>
+  </si>
+  <si>
+    <t>30x11</t>
+  </si>
+  <si>
+    <t>20x20</t>
+  </si>
+  <si>
+    <t>25x13</t>
+  </si>
+  <si>
+    <t>10x1</t>
+  </si>
+  <si>
+    <t>35x25</t>
+  </si>
+  <si>
+    <t>8x2</t>
+  </si>
+  <si>
+    <t>8x4</t>
+  </si>
+  <si>
+    <t>30x9</t>
+  </si>
+  <si>
+    <t>40x18</t>
+  </si>
+  <si>
+    <t>17x19</t>
+  </si>
+  <si>
+    <t>9x3</t>
+  </si>
+  <si>
+    <t>F25_410</t>
+  </si>
+  <si>
+    <t>F25_411</t>
+  </si>
+  <si>
+    <t>F25_412</t>
+  </si>
+  <si>
+    <t>F25_413</t>
+  </si>
+  <si>
+    <t>F25_414</t>
+  </si>
+  <si>
+    <t>F25_390</t>
+  </si>
+  <si>
+    <t>F25_391</t>
+  </si>
+  <si>
+    <t>F25_392</t>
+  </si>
+  <si>
+    <t>F25_393</t>
+  </si>
+  <si>
+    <t>F25_394</t>
+  </si>
+  <si>
+    <t>F25_395</t>
+  </si>
+  <si>
+    <t>F25_396</t>
+  </si>
+  <si>
+    <t>F25_397</t>
+  </si>
+  <si>
+    <t>F25_398</t>
+  </si>
+  <si>
+    <t>F25_399</t>
+  </si>
+  <si>
+    <t>F25_400</t>
+  </si>
+  <si>
+    <t>F25_401</t>
+  </si>
+  <si>
+    <t>F25_402</t>
+  </si>
+  <si>
+    <t>F25_403</t>
+  </si>
+  <si>
+    <t>F25_404</t>
+  </si>
+  <si>
+    <t>F25_405</t>
+  </si>
+  <si>
+    <t>F25_406</t>
+  </si>
+  <si>
+    <t>F25_407</t>
+  </si>
+  <si>
+    <t>RK/ZD</t>
+  </si>
+  <si>
+    <t>F25_415</t>
+  </si>
+  <si>
+    <t>F25_425</t>
+  </si>
+  <si>
+    <t>F25_426</t>
+  </si>
+  <si>
+    <t>F25_427</t>
+  </si>
+  <si>
+    <t>F25_428</t>
+  </si>
+  <si>
+    <t>F25_429</t>
+  </si>
+  <si>
+    <t>F25_430</t>
+  </si>
+  <si>
+    <t>F25_431</t>
+  </si>
+  <si>
+    <t>F25_416</t>
+  </si>
+  <si>
+    <t>F25_418</t>
+  </si>
+  <si>
+    <t>F25_419</t>
+  </si>
+  <si>
+    <t>F25_420</t>
+  </si>
+  <si>
+    <t>F25_421</t>
+  </si>
+  <si>
+    <t>F25_422</t>
+  </si>
+  <si>
+    <t>F25_423</t>
+  </si>
+  <si>
+    <t>??(368)</t>
+  </si>
+  <si>
+    <t>F25_424</t>
+  </si>
+  <si>
+    <t>F25_409</t>
+  </si>
+  <si>
+    <t>F25_408</t>
   </si>
 </sst>
 </file>
@@ -2789,10 +3080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859618DA-7D2E-F14A-9531-A0F7323C3157}">
-  <dimension ref="A1:P353"/>
+  <dimension ref="A1:P436"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F354" sqref="F354"/>
+    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="108" workbookViewId="0">
+      <selection activeCell="O413" sqref="O413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2945,15 +3236,15 @@
       </c>
       <c r="N4" s="20">
         <f>COUNTIFS(C:C, "Cnat")</f>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O4" s="12">
         <f>COUNTIFS(C:C,"Cnat", F:F, "Y" )</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P4" s="17">
         <f>COUNTIFS(C:C,"Cnat", F:F, "N" )</f>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -2992,15 +3283,15 @@
       </c>
       <c r="N5" s="21">
         <f>COUNTIFS(C:C, "Dlab")</f>
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="O5" s="13">
         <f>COUNTIFS(C:C,"Dlab", F:F, "Y" )</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P5" s="18">
         <f>COUNTIFS(C:C,"Dlab", F:F, "N" )</f>
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3036,15 +3327,15 @@
       </c>
       <c r="N6" s="21">
         <f>COUNTIFS(C:C,"Mcav")</f>
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="O6" s="13">
         <f>COUNTIFS(C:C,"Mcav", F:F, "Y" )</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P6" s="18">
         <f>COUNTIFS(C:C,"Mcav", F:F, "N" )</f>
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -3080,15 +3371,15 @@
       </c>
       <c r="N7" s="21">
         <f>COUNTIFS(C:C, "Sint")</f>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="O7" s="14">
         <f>COUNTIFS(C:C,"Sint", F:F, "Y" )</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P7" s="18">
         <f>COUNTIFS(C:C,"Sint", F:F, "N" )</f>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -3127,15 +3418,15 @@
       </c>
       <c r="N8" s="21">
         <f>COUNTIFS(C:C, "Past")</f>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="O8" s="13">
         <f>COUNTIFS(C:C,"Past", F:F, "Y" )</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P8" s="18">
         <f>COUNTIFS(C:C,"Past", F:F, "N" )</f>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -3174,15 +3465,15 @@
       </c>
       <c r="N9" s="21">
         <f>COUNTIFS(C:C, "Pstr")</f>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="O9" s="13">
         <f>COUNTIFS(C:C,"Pstr", F:F, "Y" )</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P9" s="18">
         <f>COUNTIFS(C:C,"Pstr", F:F, "N" )</f>
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -3218,15 +3509,15 @@
       </c>
       <c r="N10" s="21">
         <f>COUNTIFS(C:C, "Ssid")</f>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O10" s="13">
         <f>COUNTIFS(C:C,"Ssid", F:F, "Y" )</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P10" s="18">
         <f>COUNTIFS(C:C,"Ssid", F:F, "N" )</f>
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3260,7 +3551,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="6">
         <f>SUM(N4:N10)</f>
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="19"/>
@@ -12772,7 +13063,7 @@
         <v>67</v>
       </c>
       <c r="G341">
-        <v>20251006</v>
+        <v>20251005</v>
       </c>
       <c r="H341" t="s">
         <v>17</v>
@@ -12801,7 +13092,7 @@
         <v>66</v>
       </c>
       <c r="G342">
-        <v>20251007</v>
+        <v>20251005</v>
       </c>
       <c r="H342" t="s">
         <v>17</v>
@@ -12830,7 +13121,7 @@
         <v>66</v>
       </c>
       <c r="G343">
-        <v>20251008</v>
+        <v>20251005</v>
       </c>
       <c r="H343" t="s">
         <v>17</v>
@@ -12859,7 +13150,7 @@
         <v>66</v>
       </c>
       <c r="G344">
-        <v>20251009</v>
+        <v>20251005</v>
       </c>
       <c r="H344" t="s">
         <v>17</v>
@@ -12888,7 +13179,7 @@
         <v>66</v>
       </c>
       <c r="G345">
-        <v>20251010</v>
+        <v>20251005</v>
       </c>
       <c r="H345" t="s">
         <v>17</v>
@@ -12917,7 +13208,7 @@
         <v>67</v>
       </c>
       <c r="G346">
-        <v>20251011</v>
+        <v>20251005</v>
       </c>
       <c r="H346" t="s">
         <v>17</v>
@@ -12946,7 +13237,7 @@
         <v>66</v>
       </c>
       <c r="G347">
-        <v>20251012</v>
+        <v>20251005</v>
       </c>
       <c r="H347" t="s">
         <v>17</v>
@@ -12975,7 +13266,7 @@
         <v>66</v>
       </c>
       <c r="G348">
-        <v>20251013</v>
+        <v>20251005</v>
       </c>
       <c r="H348" t="s">
         <v>17</v>
@@ -13004,7 +13295,7 @@
         <v>66</v>
       </c>
       <c r="G349">
-        <v>20251014</v>
+        <v>20251005</v>
       </c>
       <c r="H349" t="s">
         <v>17</v>
@@ -13033,7 +13324,7 @@
         <v>66</v>
       </c>
       <c r="G350">
-        <v>20251015</v>
+        <v>20251005</v>
       </c>
       <c r="H350" t="s">
         <v>17</v>
@@ -13062,7 +13353,7 @@
         <v>66</v>
       </c>
       <c r="G351">
-        <v>20251016</v>
+        <v>20251005</v>
       </c>
       <c r="H351" t="s">
         <v>17</v>
@@ -13091,7 +13382,7 @@
         <v>67</v>
       </c>
       <c r="G352">
-        <v>20251017</v>
+        <v>20251005</v>
       </c>
       <c r="H352" t="s">
         <v>17</v>
@@ -13120,13 +13411,2279 @@
         <v>66</v>
       </c>
       <c r="G353">
-        <v>20251018</v>
+        <v>20251005</v>
       </c>
       <c r="H353" t="s">
         <v>17</v>
       </c>
       <c r="J353">
         <v>43</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>500</v>
+      </c>
+      <c r="B354" t="s">
+        <v>529</v>
+      </c>
+      <c r="C354" t="s">
+        <v>63</v>
+      </c>
+      <c r="D354">
+        <v>2459</v>
+      </c>
+      <c r="E354" t="s">
+        <v>198</v>
+      </c>
+      <c r="F354" t="s">
+        <v>66</v>
+      </c>
+      <c r="G354">
+        <v>20251006</v>
+      </c>
+      <c r="H354" t="s">
+        <v>17</v>
+      </c>
+      <c r="J354">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>501</v>
+      </c>
+      <c r="B355" t="s">
+        <v>530</v>
+      </c>
+      <c r="C355" t="s">
+        <v>63</v>
+      </c>
+      <c r="D355">
+        <v>2459</v>
+      </c>
+      <c r="E355" t="s">
+        <v>97</v>
+      </c>
+      <c r="F355" t="s">
+        <v>66</v>
+      </c>
+      <c r="G355">
+        <v>20251006</v>
+      </c>
+      <c r="H355" t="s">
+        <v>17</v>
+      </c>
+      <c r="J355">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>502</v>
+      </c>
+      <c r="B356" t="s">
+        <v>531</v>
+      </c>
+      <c r="C356" t="s">
+        <v>61</v>
+      </c>
+      <c r="D356">
+        <v>2459</v>
+      </c>
+      <c r="E356" t="s">
+        <v>230</v>
+      </c>
+      <c r="F356" t="s">
+        <v>66</v>
+      </c>
+      <c r="G356">
+        <v>20251006</v>
+      </c>
+      <c r="H356" t="s">
+        <v>17</v>
+      </c>
+      <c r="J356">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>503</v>
+      </c>
+      <c r="B357" t="s">
+        <v>532</v>
+      </c>
+      <c r="C357" t="s">
+        <v>61</v>
+      </c>
+      <c r="D357">
+        <v>2459</v>
+      </c>
+      <c r="E357" t="s">
+        <v>508</v>
+      </c>
+      <c r="F357" t="s">
+        <v>67</v>
+      </c>
+      <c r="G357">
+        <v>20251006</v>
+      </c>
+      <c r="H357" t="s">
+        <v>17</v>
+      </c>
+      <c r="J357">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>504</v>
+      </c>
+      <c r="B358" t="s">
+        <v>533</v>
+      </c>
+      <c r="C358" t="s">
+        <v>60</v>
+      </c>
+      <c r="D358">
+        <v>2459</v>
+      </c>
+      <c r="E358" t="s">
+        <v>24</v>
+      </c>
+      <c r="F358" t="s">
+        <v>66</v>
+      </c>
+      <c r="G358">
+        <v>20251006</v>
+      </c>
+      <c r="H358" t="s">
+        <v>17</v>
+      </c>
+      <c r="J358">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>505</v>
+      </c>
+      <c r="B359" t="s">
+        <v>534</v>
+      </c>
+      <c r="C359" t="s">
+        <v>65</v>
+      </c>
+      <c r="D359">
+        <v>2459</v>
+      </c>
+      <c r="E359" t="s">
+        <v>73</v>
+      </c>
+      <c r="F359" t="s">
+        <v>66</v>
+      </c>
+      <c r="G359">
+        <v>20251006</v>
+      </c>
+      <c r="H359" t="s">
+        <v>17</v>
+      </c>
+      <c r="J359">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>506</v>
+      </c>
+      <c r="B360" t="s">
+        <v>535</v>
+      </c>
+      <c r="C360" t="s">
+        <v>59</v>
+      </c>
+      <c r="D360">
+        <v>2459</v>
+      </c>
+      <c r="E360" t="s">
+        <v>102</v>
+      </c>
+      <c r="F360" t="s">
+        <v>66</v>
+      </c>
+      <c r="G360">
+        <v>20251006</v>
+      </c>
+      <c r="H360" t="s">
+        <v>17</v>
+      </c>
+      <c r="J360">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>507</v>
+      </c>
+      <c r="B361" t="s">
+        <v>536</v>
+      </c>
+      <c r="C361" t="s">
+        <v>62</v>
+      </c>
+      <c r="D361">
+        <v>2459</v>
+      </c>
+      <c r="E361" t="s">
+        <v>542</v>
+      </c>
+      <c r="F361" t="s">
+        <v>66</v>
+      </c>
+      <c r="G361">
+        <v>20251006</v>
+      </c>
+      <c r="H361" t="s">
+        <v>17</v>
+      </c>
+      <c r="J361">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>508</v>
+      </c>
+      <c r="B362" t="s">
+        <v>537</v>
+      </c>
+      <c r="C362" t="s">
+        <v>59</v>
+      </c>
+      <c r="D362">
+        <v>2459</v>
+      </c>
+      <c r="E362" t="s">
+        <v>86</v>
+      </c>
+      <c r="F362" t="s">
+        <v>67</v>
+      </c>
+      <c r="G362">
+        <v>20251006</v>
+      </c>
+      <c r="H362" t="s">
+        <v>17</v>
+      </c>
+      <c r="J362">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>509</v>
+      </c>
+      <c r="D363">
+        <v>2459</v>
+      </c>
+      <c r="G363">
+        <v>20251006</v>
+      </c>
+      <c r="H363" t="s">
+        <v>17</v>
+      </c>
+      <c r="J363">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>511</v>
+      </c>
+      <c r="B364" t="s">
+        <v>537</v>
+      </c>
+      <c r="C364" t="s">
+        <v>65</v>
+      </c>
+      <c r="D364">
+        <v>2459</v>
+      </c>
+      <c r="E364" t="s">
+        <v>543</v>
+      </c>
+      <c r="F364" t="s">
+        <v>66</v>
+      </c>
+      <c r="G364">
+        <v>20251006</v>
+      </c>
+      <c r="H364" t="s">
+        <v>17</v>
+      </c>
+      <c r="J364">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>510</v>
+      </c>
+      <c r="B365" t="s">
+        <v>538</v>
+      </c>
+      <c r="C365" t="s">
+        <v>60</v>
+      </c>
+      <c r="D365" t="s">
+        <v>541</v>
+      </c>
+      <c r="E365" t="s">
+        <v>132</v>
+      </c>
+      <c r="F365" t="s">
+        <v>67</v>
+      </c>
+      <c r="G365">
+        <v>20251006</v>
+      </c>
+      <c r="H365" t="s">
+        <v>544</v>
+      </c>
+      <c r="J365">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>512</v>
+      </c>
+      <c r="B366" t="s">
+        <v>539</v>
+      </c>
+      <c r="C366" t="s">
+        <v>65</v>
+      </c>
+      <c r="D366" t="s">
+        <v>541</v>
+      </c>
+      <c r="E366" t="s">
+        <v>507</v>
+      </c>
+      <c r="F366" t="s">
+        <v>66</v>
+      </c>
+      <c r="G366">
+        <v>20251006</v>
+      </c>
+      <c r="H366" t="s">
+        <v>544</v>
+      </c>
+      <c r="J366">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>513</v>
+      </c>
+      <c r="B367" t="s">
+        <v>540</v>
+      </c>
+      <c r="C367" t="s">
+        <v>62</v>
+      </c>
+      <c r="D367" t="s">
+        <v>541</v>
+      </c>
+      <c r="E367" t="s">
+        <v>140</v>
+      </c>
+      <c r="F367" t="s">
+        <v>67</v>
+      </c>
+      <c r="G367">
+        <v>20251006</v>
+      </c>
+      <c r="H367" t="s">
+        <v>544</v>
+      </c>
+      <c r="J367">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>525</v>
+      </c>
+      <c r="B368" t="s">
+        <v>545</v>
+      </c>
+      <c r="C368" t="s">
+        <v>65</v>
+      </c>
+      <c r="D368">
+        <v>1437</v>
+      </c>
+      <c r="E368" t="s">
+        <v>572</v>
+      </c>
+      <c r="F368" t="s">
+        <v>66</v>
+      </c>
+      <c r="G368">
+        <v>20251006</v>
+      </c>
+      <c r="H368" t="s">
+        <v>19</v>
+      </c>
+      <c r="J368">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>526</v>
+      </c>
+      <c r="B369" t="s">
+        <v>546</v>
+      </c>
+      <c r="C369" t="s">
+        <v>60</v>
+      </c>
+      <c r="D369">
+        <v>1437</v>
+      </c>
+      <c r="E369" t="s">
+        <v>573</v>
+      </c>
+      <c r="F369" t="s">
+        <v>66</v>
+      </c>
+      <c r="G369">
+        <v>20251006</v>
+      </c>
+      <c r="H369" t="s">
+        <v>19</v>
+      </c>
+      <c r="J369">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>527</v>
+      </c>
+      <c r="B370" t="s">
+        <v>547</v>
+      </c>
+      <c r="C370" t="s">
+        <v>61</v>
+      </c>
+      <c r="D370">
+        <v>1437</v>
+      </c>
+      <c r="E370" t="s">
+        <v>574</v>
+      </c>
+      <c r="F370" t="s">
+        <v>66</v>
+      </c>
+      <c r="G370">
+        <v>20251006</v>
+      </c>
+      <c r="H370" t="s">
+        <v>19</v>
+      </c>
+      <c r="J370">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>528</v>
+      </c>
+      <c r="B371" t="s">
+        <v>548</v>
+      </c>
+      <c r="C371" t="s">
+        <v>60</v>
+      </c>
+      <c r="D371">
+        <v>1437</v>
+      </c>
+      <c r="E371" t="s">
+        <v>82</v>
+      </c>
+      <c r="F371" t="s">
+        <v>67</v>
+      </c>
+      <c r="G371">
+        <v>20251006</v>
+      </c>
+      <c r="H371" t="s">
+        <v>19</v>
+      </c>
+      <c r="J371">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>529</v>
+      </c>
+      <c r="C372" t="s">
+        <v>64</v>
+      </c>
+      <c r="D372">
+        <v>1437</v>
+      </c>
+      <c r="E372" t="s">
+        <v>575</v>
+      </c>
+      <c r="F372" t="s">
+        <v>66</v>
+      </c>
+      <c r="G372">
+        <v>20251006</v>
+      </c>
+      <c r="H372" t="s">
+        <v>19</v>
+      </c>
+      <c r="J372">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>530</v>
+      </c>
+      <c r="B373" t="s">
+        <v>549</v>
+      </c>
+      <c r="C373" t="s">
+        <v>63</v>
+      </c>
+      <c r="D373">
+        <v>1437</v>
+      </c>
+      <c r="E373" t="s">
+        <v>576</v>
+      </c>
+      <c r="F373" t="s">
+        <v>66</v>
+      </c>
+      <c r="G373">
+        <v>20251006</v>
+      </c>
+      <c r="H373" t="s">
+        <v>19</v>
+      </c>
+      <c r="J373">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>531</v>
+      </c>
+      <c r="B374" t="s">
+        <v>550</v>
+      </c>
+      <c r="C374" t="s">
+        <v>62</v>
+      </c>
+      <c r="D374">
+        <v>1437</v>
+      </c>
+      <c r="E374" t="s">
+        <v>577</v>
+      </c>
+      <c r="F374" t="s">
+        <v>66</v>
+      </c>
+      <c r="G374">
+        <v>20251006</v>
+      </c>
+      <c r="H374" t="s">
+        <v>19</v>
+      </c>
+      <c r="J374">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>532</v>
+      </c>
+      <c r="B375" t="s">
+        <v>551</v>
+      </c>
+      <c r="C375" t="s">
+        <v>59</v>
+      </c>
+      <c r="D375">
+        <v>1437</v>
+      </c>
+      <c r="E375" t="s">
+        <v>82</v>
+      </c>
+      <c r="F375" t="s">
+        <v>67</v>
+      </c>
+      <c r="G375">
+        <v>20251006</v>
+      </c>
+      <c r="H375" t="s">
+        <v>19</v>
+      </c>
+      <c r="J375">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>533</v>
+      </c>
+      <c r="B376" t="s">
+        <v>552</v>
+      </c>
+      <c r="C376" t="s">
+        <v>63</v>
+      </c>
+      <c r="D376">
+        <v>1437</v>
+      </c>
+      <c r="E376" t="s">
+        <v>80</v>
+      </c>
+      <c r="F376" t="s">
+        <v>67</v>
+      </c>
+      <c r="G376">
+        <v>20251006</v>
+      </c>
+      <c r="H376" t="s">
+        <v>19</v>
+      </c>
+      <c r="J376">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>534</v>
+      </c>
+      <c r="B377" t="s">
+        <v>553</v>
+      </c>
+      <c r="C377" t="s">
+        <v>65</v>
+      </c>
+      <c r="D377">
+        <v>1437</v>
+      </c>
+      <c r="E377" t="s">
+        <v>83</v>
+      </c>
+      <c r="F377" t="s">
+        <v>66</v>
+      </c>
+      <c r="G377">
+        <v>20251006</v>
+      </c>
+      <c r="H377" t="s">
+        <v>19</v>
+      </c>
+      <c r="J377">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>535</v>
+      </c>
+      <c r="B378" t="s">
+        <v>554</v>
+      </c>
+      <c r="C378" t="s">
+        <v>61</v>
+      </c>
+      <c r="D378">
+        <v>1437</v>
+      </c>
+      <c r="E378" t="s">
+        <v>528</v>
+      </c>
+      <c r="F378" t="s">
+        <v>67</v>
+      </c>
+      <c r="G378">
+        <v>20251006</v>
+      </c>
+      <c r="H378" t="s">
+        <v>19</v>
+      </c>
+      <c r="J378">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>536</v>
+      </c>
+      <c r="B379" t="s">
+        <v>555</v>
+      </c>
+      <c r="C379" t="s">
+        <v>59</v>
+      </c>
+      <c r="D379">
+        <v>1437</v>
+      </c>
+      <c r="E379" t="s">
+        <v>578</v>
+      </c>
+      <c r="F379" t="s">
+        <v>66</v>
+      </c>
+      <c r="G379">
+        <v>20251006</v>
+      </c>
+      <c r="H379" t="s">
+        <v>19</v>
+      </c>
+      <c r="J379">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>537</v>
+      </c>
+      <c r="B380" t="s">
+        <v>556</v>
+      </c>
+      <c r="C380" t="s">
+        <v>64</v>
+      </c>
+      <c r="D380">
+        <v>1437</v>
+      </c>
+      <c r="E380" t="s">
+        <v>84</v>
+      </c>
+      <c r="F380" t="s">
+        <v>67</v>
+      </c>
+      <c r="G380">
+        <v>20251006</v>
+      </c>
+      <c r="H380" t="s">
+        <v>19</v>
+      </c>
+      <c r="J380">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>538</v>
+      </c>
+      <c r="B381" t="s">
+        <v>557</v>
+      </c>
+      <c r="C381" t="s">
+        <v>62</v>
+      </c>
+      <c r="D381">
+        <v>1437</v>
+      </c>
+      <c r="E381" t="s">
+        <v>80</v>
+      </c>
+      <c r="F381" t="s">
+        <v>67</v>
+      </c>
+      <c r="G381">
+        <v>20251006</v>
+      </c>
+      <c r="H381" t="s">
+        <v>19</v>
+      </c>
+      <c r="J381">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>539</v>
+      </c>
+      <c r="B382" t="s">
+        <v>558</v>
+      </c>
+      <c r="C382" t="s">
+        <v>65</v>
+      </c>
+      <c r="D382">
+        <v>1437</v>
+      </c>
+      <c r="E382" t="s">
+        <v>84</v>
+      </c>
+      <c r="F382" t="s">
+        <v>67</v>
+      </c>
+      <c r="G382">
+        <v>20251006</v>
+      </c>
+      <c r="H382" t="s">
+        <v>19</v>
+      </c>
+      <c r="J382">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>540</v>
+      </c>
+      <c r="B383" t="s">
+        <v>559</v>
+      </c>
+      <c r="C383" t="s">
+        <v>61</v>
+      </c>
+      <c r="D383" t="s">
+        <v>571</v>
+      </c>
+      <c r="E383" t="s">
+        <v>579</v>
+      </c>
+      <c r="F383" t="s">
+        <v>66</v>
+      </c>
+      <c r="G383">
+        <v>20251006</v>
+      </c>
+      <c r="H383" t="s">
+        <v>19</v>
+      </c>
+      <c r="J383">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>541</v>
+      </c>
+      <c r="B384" t="s">
+        <v>560</v>
+      </c>
+      <c r="C384" t="s">
+        <v>62</v>
+      </c>
+      <c r="D384" t="s">
+        <v>571</v>
+      </c>
+      <c r="E384" t="s">
+        <v>84</v>
+      </c>
+      <c r="F384" t="s">
+        <v>67</v>
+      </c>
+      <c r="G384">
+        <v>20251006</v>
+      </c>
+      <c r="H384" t="s">
+        <v>19</v>
+      </c>
+      <c r="J384">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>542</v>
+      </c>
+      <c r="B385" t="s">
+        <v>561</v>
+      </c>
+      <c r="C385" t="s">
+        <v>60</v>
+      </c>
+      <c r="D385" t="s">
+        <v>571</v>
+      </c>
+      <c r="E385" t="s">
+        <v>80</v>
+      </c>
+      <c r="F385" t="s">
+        <v>67</v>
+      </c>
+      <c r="G385">
+        <v>20251006</v>
+      </c>
+      <c r="H385" t="s">
+        <v>19</v>
+      </c>
+      <c r="J385">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>543</v>
+      </c>
+      <c r="B386" t="s">
+        <v>562</v>
+      </c>
+      <c r="C386" t="s">
+        <v>59</v>
+      </c>
+      <c r="D386" t="s">
+        <v>571</v>
+      </c>
+      <c r="E386" t="s">
+        <v>138</v>
+      </c>
+      <c r="F386" t="s">
+        <v>66</v>
+      </c>
+      <c r="G386">
+        <v>20251006</v>
+      </c>
+      <c r="H386" t="s">
+        <v>19</v>
+      </c>
+      <c r="J386">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>544</v>
+      </c>
+      <c r="B387" t="s">
+        <v>563</v>
+      </c>
+      <c r="C387" t="s">
+        <v>65</v>
+      </c>
+      <c r="D387" t="s">
+        <v>571</v>
+      </c>
+      <c r="E387" t="s">
+        <v>580</v>
+      </c>
+      <c r="F387" t="s">
+        <v>66</v>
+      </c>
+      <c r="G387">
+        <v>20251006</v>
+      </c>
+      <c r="H387" t="s">
+        <v>19</v>
+      </c>
+      <c r="J387">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>545</v>
+      </c>
+      <c r="B388" t="s">
+        <v>564</v>
+      </c>
+      <c r="C388" t="s">
+        <v>62</v>
+      </c>
+      <c r="D388" t="s">
+        <v>571</v>
+      </c>
+      <c r="E388" t="s">
+        <v>141</v>
+      </c>
+      <c r="F388" t="s">
+        <v>66</v>
+      </c>
+      <c r="G388">
+        <v>20251006</v>
+      </c>
+      <c r="H388" t="s">
+        <v>19</v>
+      </c>
+      <c r="J388">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>546</v>
+      </c>
+      <c r="B389" t="s">
+        <v>565</v>
+      </c>
+      <c r="C389" t="s">
+        <v>61</v>
+      </c>
+      <c r="D389" t="s">
+        <v>571</v>
+      </c>
+      <c r="E389" t="s">
+        <v>84</v>
+      </c>
+      <c r="F389" t="s">
+        <v>67</v>
+      </c>
+      <c r="G389">
+        <v>20251006</v>
+      </c>
+      <c r="H389" t="s">
+        <v>19</v>
+      </c>
+      <c r="J389">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>547</v>
+      </c>
+      <c r="B390" t="s">
+        <v>566</v>
+      </c>
+      <c r="C390" t="s">
+        <v>60</v>
+      </c>
+      <c r="D390" t="s">
+        <v>571</v>
+      </c>
+      <c r="E390" t="s">
+        <v>581</v>
+      </c>
+      <c r="F390" t="s">
+        <v>66</v>
+      </c>
+      <c r="G390">
+        <v>20251006</v>
+      </c>
+      <c r="H390" t="s">
+        <v>19</v>
+      </c>
+      <c r="J390">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>548</v>
+      </c>
+      <c r="B391" t="s">
+        <v>567</v>
+      </c>
+      <c r="C391" t="s">
+        <v>63</v>
+      </c>
+      <c r="D391" t="s">
+        <v>571</v>
+      </c>
+      <c r="E391" t="s">
+        <v>582</v>
+      </c>
+      <c r="F391" t="s">
+        <v>66</v>
+      </c>
+      <c r="G391">
+        <v>20251006</v>
+      </c>
+      <c r="H391" t="s">
+        <v>19</v>
+      </c>
+      <c r="J391">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>549</v>
+      </c>
+      <c r="B392" t="s">
+        <v>568</v>
+      </c>
+      <c r="C392" t="s">
+        <v>59</v>
+      </c>
+      <c r="D392" t="s">
+        <v>571</v>
+      </c>
+      <c r="E392" t="s">
+        <v>80</v>
+      </c>
+      <c r="F392" t="s">
+        <v>67</v>
+      </c>
+      <c r="G392">
+        <v>20251006</v>
+      </c>
+      <c r="H392" t="s">
+        <v>19</v>
+      </c>
+      <c r="J392">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>550</v>
+      </c>
+      <c r="B393" t="s">
+        <v>569</v>
+      </c>
+      <c r="C393" t="s">
+        <v>63</v>
+      </c>
+      <c r="D393" t="s">
+        <v>571</v>
+      </c>
+      <c r="E393" t="s">
+        <v>84</v>
+      </c>
+      <c r="F393" t="s">
+        <v>67</v>
+      </c>
+      <c r="G393">
+        <v>20251006</v>
+      </c>
+      <c r="H393" t="s">
+        <v>19</v>
+      </c>
+      <c r="J393">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>551</v>
+      </c>
+      <c r="B394" t="s">
+        <v>570</v>
+      </c>
+      <c r="C394" t="s">
+        <v>64</v>
+      </c>
+      <c r="D394" t="s">
+        <v>571</v>
+      </c>
+      <c r="E394" t="s">
+        <v>86</v>
+      </c>
+      <c r="F394" t="s">
+        <v>67</v>
+      </c>
+      <c r="G394">
+        <v>20251006</v>
+      </c>
+      <c r="H394" t="s">
+        <v>19</v>
+      </c>
+      <c r="J394">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>271</v>
+      </c>
+      <c r="B395" t="s">
+        <v>583</v>
+      </c>
+      <c r="C395" t="s">
+        <v>63</v>
+      </c>
+      <c r="D395">
+        <v>1430</v>
+      </c>
+      <c r="F395" t="s">
+        <v>66</v>
+      </c>
+      <c r="G395">
+        <v>20251006</v>
+      </c>
+      <c r="H395" t="s">
+        <v>606</v>
+      </c>
+      <c r="J395">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>272</v>
+      </c>
+      <c r="B396" t="s">
+        <v>584</v>
+      </c>
+      <c r="C396" t="s">
+        <v>61</v>
+      </c>
+      <c r="D396">
+        <v>1430</v>
+      </c>
+      <c r="F396" t="s">
+        <v>67</v>
+      </c>
+      <c r="G396">
+        <v>20251006</v>
+      </c>
+      <c r="H396" t="s">
+        <v>606</v>
+      </c>
+      <c r="J396">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>273</v>
+      </c>
+      <c r="B397" t="s">
+        <v>585</v>
+      </c>
+      <c r="C397" t="s">
+        <v>65</v>
+      </c>
+      <c r="D397">
+        <v>1430</v>
+      </c>
+      <c r="F397" t="s">
+        <v>66</v>
+      </c>
+      <c r="G397">
+        <v>20251006</v>
+      </c>
+      <c r="H397" t="s">
+        <v>606</v>
+      </c>
+      <c r="J397">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>274</v>
+      </c>
+      <c r="B398" t="s">
+        <v>586</v>
+      </c>
+      <c r="C398" t="s">
+        <v>61</v>
+      </c>
+      <c r="D398">
+        <v>1430</v>
+      </c>
+      <c r="F398" t="s">
+        <v>66</v>
+      </c>
+      <c r="G398">
+        <v>20251006</v>
+      </c>
+      <c r="H398" t="s">
+        <v>606</v>
+      </c>
+      <c r="J398">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>275</v>
+      </c>
+      <c r="B399" t="s">
+        <v>587</v>
+      </c>
+      <c r="C399" t="s">
+        <v>59</v>
+      </c>
+      <c r="D399">
+        <v>1430</v>
+      </c>
+      <c r="F399" t="s">
+        <v>66</v>
+      </c>
+      <c r="G399">
+        <v>20251006</v>
+      </c>
+      <c r="H399" t="s">
+        <v>606</v>
+      </c>
+      <c r="J399">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>251</v>
+      </c>
+      <c r="B400" t="s">
+        <v>588</v>
+      </c>
+      <c r="C400" t="s">
+        <v>60</v>
+      </c>
+      <c r="D400">
+        <v>1430</v>
+      </c>
+      <c r="F400" t="s">
+        <v>66</v>
+      </c>
+      <c r="G400">
+        <v>20251006</v>
+      </c>
+      <c r="H400" t="s">
+        <v>606</v>
+      </c>
+      <c r="J400">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>252</v>
+      </c>
+      <c r="B401" t="s">
+        <v>589</v>
+      </c>
+      <c r="C401" t="s">
+        <v>62</v>
+      </c>
+      <c r="D401">
+        <v>1430</v>
+      </c>
+      <c r="F401" t="s">
+        <v>66</v>
+      </c>
+      <c r="G401">
+        <v>20251006</v>
+      </c>
+      <c r="H401" t="s">
+        <v>606</v>
+      </c>
+      <c r="J401">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>253</v>
+      </c>
+      <c r="B402" t="s">
+        <v>590</v>
+      </c>
+      <c r="C402" t="s">
+        <v>63</v>
+      </c>
+      <c r="D402">
+        <v>1430</v>
+      </c>
+      <c r="F402" t="s">
+        <v>66</v>
+      </c>
+      <c r="G402">
+        <v>20251006</v>
+      </c>
+      <c r="H402" t="s">
+        <v>606</v>
+      </c>
+      <c r="J402">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>254</v>
+      </c>
+      <c r="B403" t="s">
+        <v>591</v>
+      </c>
+      <c r="C403" t="s">
+        <v>65</v>
+      </c>
+      <c r="D403">
+        <v>1430</v>
+      </c>
+      <c r="F403" t="s">
+        <v>67</v>
+      </c>
+      <c r="G403">
+        <v>20251006</v>
+      </c>
+      <c r="H403" t="s">
+        <v>606</v>
+      </c>
+      <c r="J403">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>255</v>
+      </c>
+      <c r="B404" t="s">
+        <v>592</v>
+      </c>
+      <c r="C404" t="s">
+        <v>62</v>
+      </c>
+      <c r="D404">
+        <v>1430</v>
+      </c>
+      <c r="F404" t="s">
+        <v>67</v>
+      </c>
+      <c r="G404">
+        <v>20251006</v>
+      </c>
+      <c r="H404" t="s">
+        <v>606</v>
+      </c>
+      <c r="J404">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>256</v>
+      </c>
+      <c r="B405" t="s">
+        <v>593</v>
+      </c>
+      <c r="C405" t="s">
+        <v>63</v>
+      </c>
+      <c r="D405">
+        <v>1430</v>
+      </c>
+      <c r="F405" t="s">
+        <v>66</v>
+      </c>
+      <c r="G405">
+        <v>20251006</v>
+      </c>
+      <c r="H405" t="s">
+        <v>606</v>
+      </c>
+      <c r="J405">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>257</v>
+      </c>
+      <c r="B406" t="s">
+        <v>594</v>
+      </c>
+      <c r="C406" t="s">
+        <v>60</v>
+      </c>
+      <c r="D406">
+        <v>1430</v>
+      </c>
+      <c r="F406" t="s">
+        <v>67</v>
+      </c>
+      <c r="G406">
+        <v>20251006</v>
+      </c>
+      <c r="H406" t="s">
+        <v>606</v>
+      </c>
+      <c r="J406">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>258</v>
+      </c>
+      <c r="B407" t="s">
+        <v>595</v>
+      </c>
+      <c r="C407" t="s">
+        <v>59</v>
+      </c>
+      <c r="D407">
+        <v>1430</v>
+      </c>
+      <c r="F407" t="s">
+        <v>67</v>
+      </c>
+      <c r="G407">
+        <v>20251006</v>
+      </c>
+      <c r="H407" t="s">
+        <v>606</v>
+      </c>
+      <c r="J407">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>259</v>
+      </c>
+      <c r="B408" t="s">
+        <v>596</v>
+      </c>
+      <c r="C408" t="s">
+        <v>65</v>
+      </c>
+      <c r="D408">
+        <v>1430</v>
+      </c>
+      <c r="F408" t="s">
+        <v>66</v>
+      </c>
+      <c r="G408">
+        <v>20251006</v>
+      </c>
+      <c r="H408" t="s">
+        <v>606</v>
+      </c>
+      <c r="J408">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>260</v>
+      </c>
+      <c r="B409" t="s">
+        <v>597</v>
+      </c>
+      <c r="C409" t="s">
+        <v>64</v>
+      </c>
+      <c r="D409">
+        <v>2428</v>
+      </c>
+      <c r="F409" t="s">
+        <v>66</v>
+      </c>
+      <c r="G409">
+        <v>20251006</v>
+      </c>
+      <c r="H409" t="s">
+        <v>606</v>
+      </c>
+      <c r="J409">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>261</v>
+      </c>
+      <c r="B410" t="s">
+        <v>598</v>
+      </c>
+      <c r="C410" t="s">
+        <v>64</v>
+      </c>
+      <c r="D410">
+        <v>2428</v>
+      </c>
+      <c r="F410" t="s">
+        <v>66</v>
+      </c>
+      <c r="G410">
+        <v>20251006</v>
+      </c>
+      <c r="H410" t="s">
+        <v>606</v>
+      </c>
+      <c r="J410">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>262</v>
+      </c>
+      <c r="B411" t="s">
+        <v>599</v>
+      </c>
+      <c r="C411" t="s">
+        <v>63</v>
+      </c>
+      <c r="D411">
+        <v>2428</v>
+      </c>
+      <c r="F411" t="s">
+        <v>66</v>
+      </c>
+      <c r="G411">
+        <v>20251006</v>
+      </c>
+      <c r="H411" t="s">
+        <v>606</v>
+      </c>
+      <c r="J411">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>263</v>
+      </c>
+      <c r="B412" t="s">
+        <v>600</v>
+      </c>
+      <c r="C412" t="s">
+        <v>63</v>
+      </c>
+      <c r="D412">
+        <v>2428</v>
+      </c>
+      <c r="F412" t="s">
+        <v>66</v>
+      </c>
+      <c r="G412">
+        <v>20251006</v>
+      </c>
+      <c r="H412" t="s">
+        <v>606</v>
+      </c>
+      <c r="J412">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>264</v>
+      </c>
+      <c r="B413" t="s">
+        <v>601</v>
+      </c>
+      <c r="C413" t="s">
+        <v>65</v>
+      </c>
+      <c r="D413">
+        <v>2428</v>
+      </c>
+      <c r="F413" t="s">
+        <v>66</v>
+      </c>
+      <c r="G413">
+        <v>20251006</v>
+      </c>
+      <c r="H413" t="s">
+        <v>606</v>
+      </c>
+      <c r="J413">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>266</v>
+      </c>
+      <c r="B414" t="s">
+        <v>603</v>
+      </c>
+      <c r="C414" t="s">
+        <v>65</v>
+      </c>
+      <c r="D414">
+        <v>2428</v>
+      </c>
+      <c r="F414" t="s">
+        <v>66</v>
+      </c>
+      <c r="G414">
+        <v>20251006</v>
+      </c>
+      <c r="H414" t="s">
+        <v>606</v>
+      </c>
+      <c r="J414">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>265</v>
+      </c>
+      <c r="B415" t="s">
+        <v>602</v>
+      </c>
+      <c r="C415" t="s">
+        <v>61</v>
+      </c>
+      <c r="D415">
+        <v>2428</v>
+      </c>
+      <c r="F415" t="s">
+        <v>66</v>
+      </c>
+      <c r="G415">
+        <v>20251006</v>
+      </c>
+      <c r="H415" t="s">
+        <v>606</v>
+      </c>
+      <c r="J415">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>267</v>
+      </c>
+      <c r="B416" t="s">
+        <v>604</v>
+      </c>
+      <c r="C416" t="s">
+        <v>61</v>
+      </c>
+      <c r="D416">
+        <v>2428</v>
+      </c>
+      <c r="F416" t="s">
+        <v>66</v>
+      </c>
+      <c r="G416">
+        <v>20251006</v>
+      </c>
+      <c r="H416" t="s">
+        <v>606</v>
+      </c>
+      <c r="J416">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>268</v>
+      </c>
+      <c r="B417" t="s">
+        <v>605</v>
+      </c>
+      <c r="C417" t="s">
+        <v>65</v>
+      </c>
+      <c r="D417">
+        <v>2428</v>
+      </c>
+      <c r="F417" t="s">
+        <v>67</v>
+      </c>
+      <c r="G417">
+        <v>20251006</v>
+      </c>
+      <c r="H417" t="s">
+        <v>606</v>
+      </c>
+      <c r="J417">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>269</v>
+      </c>
+      <c r="B418" t="s">
+        <v>625</v>
+      </c>
+      <c r="C418" t="s">
+        <v>65</v>
+      </c>
+      <c r="D418">
+        <v>2428</v>
+      </c>
+      <c r="F418" t="s">
+        <v>67</v>
+      </c>
+      <c r="G418">
+        <v>20251006</v>
+      </c>
+      <c r="H418" t="s">
+        <v>420</v>
+      </c>
+      <c r="J418">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>270</v>
+      </c>
+      <c r="B419" t="s">
+        <v>624</v>
+      </c>
+      <c r="C419" t="s">
+        <v>59</v>
+      </c>
+      <c r="D419">
+        <v>2428</v>
+      </c>
+      <c r="F419" t="s">
+        <v>67</v>
+      </c>
+      <c r="G419">
+        <v>20251006</v>
+      </c>
+      <c r="H419" t="s">
+        <v>606</v>
+      </c>
+      <c r="J419">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>622</v>
+      </c>
+      <c r="B420" t="s">
+        <v>623</v>
+      </c>
+      <c r="C420" t="s">
+        <v>64</v>
+      </c>
+      <c r="D420">
+        <v>2428</v>
+      </c>
+      <c r="F420" t="s">
+        <v>67</v>
+      </c>
+      <c r="G420">
+        <v>20251006</v>
+      </c>
+      <c r="H420" t="s">
+        <v>606</v>
+      </c>
+      <c r="J420">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>364</v>
+      </c>
+      <c r="B421" t="s">
+        <v>608</v>
+      </c>
+      <c r="C421" t="s">
+        <v>64</v>
+      </c>
+      <c r="D421">
+        <v>2427</v>
+      </c>
+      <c r="F421" t="s">
+        <v>66</v>
+      </c>
+      <c r="G421">
+        <v>20251006</v>
+      </c>
+      <c r="H421" t="s">
+        <v>606</v>
+      </c>
+      <c r="J421">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>370</v>
+      </c>
+      <c r="B422" t="s">
+        <v>609</v>
+      </c>
+      <c r="C422" t="s">
+        <v>62</v>
+      </c>
+      <c r="D422">
+        <v>2427</v>
+      </c>
+      <c r="F422" t="s">
+        <v>66</v>
+      </c>
+      <c r="G422">
+        <v>20251006</v>
+      </c>
+      <c r="H422" t="s">
+        <v>606</v>
+      </c>
+      <c r="J422">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>371</v>
+      </c>
+      <c r="B423" t="s">
+        <v>610</v>
+      </c>
+      <c r="C423" t="s">
+        <v>61</v>
+      </c>
+      <c r="D423">
+        <v>2427</v>
+      </c>
+      <c r="F423" t="s">
+        <v>66</v>
+      </c>
+      <c r="G423">
+        <v>20251006</v>
+      </c>
+      <c r="H423" t="s">
+        <v>606</v>
+      </c>
+      <c r="J423">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>372</v>
+      </c>
+      <c r="B424" t="s">
+        <v>611</v>
+      </c>
+      <c r="C424" t="s">
+        <v>60</v>
+      </c>
+      <c r="D424">
+        <v>2427</v>
+      </c>
+      <c r="F424" t="s">
+        <v>66</v>
+      </c>
+      <c r="G424">
+        <v>20251006</v>
+      </c>
+      <c r="H424" t="s">
+        <v>606</v>
+      </c>
+      <c r="J424">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>373</v>
+      </c>
+      <c r="B425" t="s">
+        <v>612</v>
+      </c>
+      <c r="C425" t="s">
+        <v>63</v>
+      </c>
+      <c r="D425">
+        <v>2427</v>
+      </c>
+      <c r="F425" t="s">
+        <v>66</v>
+      </c>
+      <c r="G425">
+        <v>20251006</v>
+      </c>
+      <c r="H425" t="s">
+        <v>606</v>
+      </c>
+      <c r="J425">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>374</v>
+      </c>
+      <c r="B426" t="s">
+        <v>613</v>
+      </c>
+      <c r="C426" t="s">
+        <v>65</v>
+      </c>
+      <c r="D426">
+        <v>2427</v>
+      </c>
+      <c r="F426" t="s">
+        <v>66</v>
+      </c>
+      <c r="G426">
+        <v>20251006</v>
+      </c>
+      <c r="H426" t="s">
+        <v>606</v>
+      </c>
+      <c r="J426">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>375</v>
+      </c>
+      <c r="B427" t="s">
+        <v>614</v>
+      </c>
+      <c r="C427" t="s">
+        <v>62</v>
+      </c>
+      <c r="D427">
+        <v>2427</v>
+      </c>
+      <c r="F427" t="s">
+        <v>67</v>
+      </c>
+      <c r="G427">
+        <v>20251006</v>
+      </c>
+      <c r="H427" t="s">
+        <v>606</v>
+      </c>
+      <c r="J427">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>357</v>
+      </c>
+      <c r="B428" t="s">
+        <v>615</v>
+      </c>
+      <c r="C428" t="s">
+        <v>59</v>
+      </c>
+      <c r="D428">
+        <v>2427</v>
+      </c>
+      <c r="F428" t="s">
+        <v>67</v>
+      </c>
+      <c r="G428">
+        <v>20251006</v>
+      </c>
+      <c r="H428" t="s">
+        <v>606</v>
+      </c>
+      <c r="J428">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>358</v>
+      </c>
+      <c r="B429" t="s">
+        <v>607</v>
+      </c>
+      <c r="C429" t="s">
+        <v>61</v>
+      </c>
+      <c r="D429">
+        <v>2427</v>
+      </c>
+      <c r="F429" t="s">
+        <v>67</v>
+      </c>
+      <c r="G429">
+        <v>20251006</v>
+      </c>
+      <c r="H429" t="s">
+        <v>606</v>
+      </c>
+      <c r="J429">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>359</v>
+      </c>
+      <c r="B430" t="s">
+        <v>587</v>
+      </c>
+      <c r="C430" t="s">
+        <v>64</v>
+      </c>
+      <c r="D430">
+        <v>2427</v>
+      </c>
+      <c r="F430" t="s">
+        <v>67</v>
+      </c>
+      <c r="G430">
+        <v>20251006</v>
+      </c>
+      <c r="H430" t="s">
+        <v>606</v>
+      </c>
+      <c r="J430">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>360</v>
+      </c>
+      <c r="B431" t="s">
+        <v>616</v>
+      </c>
+      <c r="C431" t="s">
+        <v>60</v>
+      </c>
+      <c r="D431">
+        <v>2427</v>
+      </c>
+      <c r="F431" t="s">
+        <v>67</v>
+      </c>
+      <c r="G431">
+        <v>20251006</v>
+      </c>
+      <c r="H431" t="s">
+        <v>606</v>
+      </c>
+      <c r="J431">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>361</v>
+      </c>
+      <c r="B432" t="s">
+        <v>617</v>
+      </c>
+      <c r="C432" t="s">
+        <v>60</v>
+      </c>
+      <c r="D432">
+        <v>2427</v>
+      </c>
+      <c r="F432" t="s">
+        <v>66</v>
+      </c>
+      <c r="G432">
+        <v>20251006</v>
+      </c>
+      <c r="H432" t="s">
+        <v>606</v>
+      </c>
+      <c r="J432">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>362</v>
+      </c>
+      <c r="B433" t="s">
+        <v>618</v>
+      </c>
+      <c r="C433" t="s">
+        <v>59</v>
+      </c>
+      <c r="D433">
+        <v>2427</v>
+      </c>
+      <c r="F433" t="s">
+        <v>66</v>
+      </c>
+      <c r="G433">
+        <v>20251006</v>
+      </c>
+      <c r="H433" t="s">
+        <v>606</v>
+      </c>
+      <c r="J433">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>363</v>
+      </c>
+      <c r="B434" t="s">
+        <v>619</v>
+      </c>
+      <c r="C434" t="s">
+        <v>62</v>
+      </c>
+      <c r="D434">
+        <v>2427</v>
+      </c>
+      <c r="F434" t="s">
+        <v>66</v>
+      </c>
+      <c r="G434">
+        <v>20251006</v>
+      </c>
+      <c r="H434" t="s">
+        <v>606</v>
+      </c>
+      <c r="J434">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>364</v>
+      </c>
+      <c r="B435" t="s">
+        <v>620</v>
+      </c>
+      <c r="C435" t="s">
+        <v>65</v>
+      </c>
+      <c r="D435">
+        <v>2427</v>
+      </c>
+      <c r="F435" t="s">
+        <v>67</v>
+      </c>
+      <c r="G435">
+        <v>20251006</v>
+      </c>
+      <c r="H435" t="s">
+        <v>606</v>
+      </c>
+      <c r="J435">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>365</v>
+      </c>
+      <c r="B436" t="s">
+        <v>621</v>
+      </c>
+      <c r="C436" t="s">
+        <v>63</v>
+      </c>
+      <c r="D436">
+        <v>2427</v>
+      </c>
+      <c r="F436" t="s">
+        <v>67</v>
+      </c>
+      <c r="G436">
+        <v>20251006</v>
+      </c>
+      <c r="H436" t="s">
+        <v>606</v>
+      </c>
+      <c r="J436">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/F25_Sampling.xlsx
+++ b/F25_Sampling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trini/Documents/Shedd/biota_project_genomicshifts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC49B753-EF6C-FB43-9895-121E87AAFD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432E5805-73EE-1F4A-963C-57BD7CE537B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="12500" windowHeight="17620" activeTab="1" xr2:uid="{07AAFEEF-A83C-484C-8992-E89847C75F27}"/>
+    <workbookView xWindow="10040" yWindow="500" windowWidth="22040" windowHeight="17620" activeTab="1" xr2:uid="{07AAFEEF-A83C-484C-8992-E89847C75F27}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="700">
   <si>
     <t xml:space="preserve">Bag </t>
   </si>
@@ -1918,6 +1918,228 @@
   </si>
   <si>
     <t>F25_408</t>
+  </si>
+  <si>
+    <t>F25_431 (check)?</t>
+  </si>
+  <si>
+    <t>F25_432</t>
+  </si>
+  <si>
+    <t>F25_433</t>
+  </si>
+  <si>
+    <t>F25_435</t>
+  </si>
+  <si>
+    <t>F25_434</t>
+  </si>
+  <si>
+    <t>F25_436</t>
+  </si>
+  <si>
+    <t>F25_437</t>
+  </si>
+  <si>
+    <t>F25_438</t>
+  </si>
+  <si>
+    <t>F25_439</t>
+  </si>
+  <si>
+    <t>F25_440</t>
+  </si>
+  <si>
+    <t>F25_441</t>
+  </si>
+  <si>
+    <t>F25_442</t>
+  </si>
+  <si>
+    <t>F25_464</t>
+  </si>
+  <si>
+    <t>F25_465</t>
+  </si>
+  <si>
+    <t>F25_466</t>
+  </si>
+  <si>
+    <t>F25_467</t>
+  </si>
+  <si>
+    <t>F25_468</t>
+  </si>
+  <si>
+    <t>F25_469</t>
+  </si>
+  <si>
+    <t>F25_470</t>
+  </si>
+  <si>
+    <t>F25_471</t>
+  </si>
+  <si>
+    <t>F25_472</t>
+  </si>
+  <si>
+    <t>F25_473</t>
+  </si>
+  <si>
+    <t>F25_474</t>
+  </si>
+  <si>
+    <t>F25_475</t>
+  </si>
+  <si>
+    <t>F25_476</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>14x11</t>
+  </si>
+  <si>
+    <t>11x2</t>
+  </si>
+  <si>
+    <t>23x5</t>
+  </si>
+  <si>
+    <t>SS101</t>
+  </si>
+  <si>
+    <t>SS102</t>
+  </si>
+  <si>
+    <t>RC/CD</t>
+  </si>
+  <si>
+    <t>9x6</t>
+  </si>
+  <si>
+    <t>16x10</t>
+  </si>
+  <si>
+    <t>13x25</t>
+  </si>
+  <si>
+    <t>F25_477</t>
+  </si>
+  <si>
+    <t>F25_478</t>
+  </si>
+  <si>
+    <t>F25_479</t>
+  </si>
+  <si>
+    <t>F25_480</t>
+  </si>
+  <si>
+    <t>F25_483</t>
+  </si>
+  <si>
+    <t>F25_484</t>
+  </si>
+  <si>
+    <t>F25_485</t>
+  </si>
+  <si>
+    <t>F25_486</t>
+  </si>
+  <si>
+    <t>F25_487</t>
+  </si>
+  <si>
+    <t>F25_488</t>
+  </si>
+  <si>
+    <t>F25_489</t>
+  </si>
+  <si>
+    <t>F25_490</t>
+  </si>
+  <si>
+    <t>F25_491</t>
+  </si>
+  <si>
+    <t>F25_492</t>
+  </si>
+  <si>
+    <t>F25_493</t>
+  </si>
+  <si>
+    <t>F25_494</t>
+  </si>
+  <si>
+    <t>F25_443</t>
+  </si>
+  <si>
+    <t>F25_444</t>
+  </si>
+  <si>
+    <t>F25_445</t>
+  </si>
+  <si>
+    <t>F25_446</t>
+  </si>
+  <si>
+    <t>F25_447</t>
+  </si>
+  <si>
+    <t>F25_448</t>
+  </si>
+  <si>
+    <t>F25_449</t>
+  </si>
+  <si>
+    <t>F25_450</t>
+  </si>
+  <si>
+    <t>F25_451</t>
+  </si>
+  <si>
+    <t>F25_452</t>
+  </si>
+  <si>
+    <t>F25_453</t>
+  </si>
+  <si>
+    <t>F25_454</t>
+  </si>
+  <si>
+    <t>F25_455</t>
+  </si>
+  <si>
+    <t>F25_456</t>
+  </si>
+  <si>
+    <t>F25_457</t>
+  </si>
+  <si>
+    <t>F25_458</t>
+  </si>
+  <si>
+    <t>(ask rich)</t>
+  </si>
+  <si>
+    <t>F25_459</t>
+  </si>
+  <si>
+    <t>F25_460</t>
+  </si>
+  <si>
+    <t>F25_461</t>
+  </si>
+  <si>
+    <t>F25_462</t>
+  </si>
+  <si>
+    <t>F25_463</t>
+  </si>
+  <si>
+    <t>WP_315</t>
   </si>
 </sst>
 </file>
@@ -3080,10 +3302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859618DA-7D2E-F14A-9531-A0F7323C3157}">
-  <dimension ref="A1:P436"/>
+  <dimension ref="A1:P498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="108" workbookViewId="0">
-      <selection activeCell="O413" sqref="O413"/>
+    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="J503" sqref="J503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3236,15 +3458,15 @@
       </c>
       <c r="N4" s="20">
         <f>COUNTIFS(C:C, "Cnat")</f>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O4" s="12">
         <f>COUNTIFS(C:C,"Cnat", F:F, "Y" )</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P4" s="17">
         <f>COUNTIFS(C:C,"Cnat", F:F, "N" )</f>
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -3283,15 +3505,15 @@
       </c>
       <c r="N5" s="21">
         <f>COUNTIFS(C:C, "Dlab")</f>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="O5" s="13">
         <f>COUNTIFS(C:C,"Dlab", F:F, "Y" )</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="18">
         <f>COUNTIFS(C:C,"Dlab", F:F, "N" )</f>
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3327,15 +3549,15 @@
       </c>
       <c r="N6" s="21">
         <f>COUNTIFS(C:C,"Mcav")</f>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O6" s="13">
         <f>COUNTIFS(C:C,"Mcav", F:F, "Y" )</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P6" s="18">
         <f>COUNTIFS(C:C,"Mcav", F:F, "N" )</f>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -3371,15 +3593,15 @@
       </c>
       <c r="N7" s="21">
         <f>COUNTIFS(C:C, "Sint")</f>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O7" s="14">
         <f>COUNTIFS(C:C,"Sint", F:F, "Y" )</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P7" s="18">
         <f>COUNTIFS(C:C,"Sint", F:F, "N" )</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -3418,15 +3640,15 @@
       </c>
       <c r="N8" s="21">
         <f>COUNTIFS(C:C, "Past")</f>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="O8" s="13">
         <f>COUNTIFS(C:C,"Past", F:F, "Y" )</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P8" s="18">
         <f>COUNTIFS(C:C,"Past", F:F, "N" )</f>
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -3465,15 +3687,15 @@
       </c>
       <c r="N9" s="21">
         <f>COUNTIFS(C:C, "Pstr")</f>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O9" s="13">
         <f>COUNTIFS(C:C,"Pstr", F:F, "Y" )</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P9" s="18">
         <f>COUNTIFS(C:C,"Pstr", F:F, "N" )</f>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -3509,15 +3731,15 @@
       </c>
       <c r="N10" s="21">
         <f>COUNTIFS(C:C, "Ssid")</f>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="O10" s="13">
         <f>COUNTIFS(C:C,"Ssid", F:F, "Y" )</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P10" s="18">
         <f>COUNTIFS(C:C,"Ssid", F:F, "N" )</f>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3551,7 +3773,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="6">
         <f>SUM(N4:N10)</f>
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="19"/>
@@ -3697,8 +3919,12 @@
       <c r="J16">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <f>MIN(J:J)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9</v>
       </c>
@@ -3726,8 +3952,12 @@
       <c r="J17">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <f>MAX(J:J)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>53</v>
       </c>
@@ -3759,7 +3989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>57</v>
       </c>
@@ -3791,7 +4021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>63</v>
       </c>
@@ -3823,7 +4053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>102</v>
       </c>
@@ -3855,7 +4085,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>67</v>
       </c>
@@ -3887,16 +4117,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>104</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
       <c r="D23">
         <v>1563</v>
       </c>
@@ -3919,7 +4146,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>119</v>
       </c>
@@ -3948,7 +4175,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>145</v>
       </c>
@@ -3977,7 +4204,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>71</v>
       </c>
@@ -4006,7 +4233,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>75</v>
       </c>
@@ -4035,7 +4262,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>149</v>
       </c>
@@ -4064,7 +4291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>153</v>
       </c>
@@ -4093,7 +4320,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>156</v>
       </c>
@@ -4122,7 +4349,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>157</v>
       </c>
@@ -4151,7 +4378,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>37</v>
       </c>
@@ -5319,9 +5546,7 @@
       <c r="B73" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="C73" s="3"/>
       <c r="D73" s="3">
         <v>1564</v>
       </c>
@@ -15684,6 +15909,1705 @@
       </c>
       <c r="J436">
         <v>16</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>605</v>
+      </c>
+      <c r="B437" t="s">
+        <v>626</v>
+      </c>
+      <c r="C437" t="s">
+        <v>65</v>
+      </c>
+      <c r="D437">
+        <v>2435</v>
+      </c>
+      <c r="F437" t="s">
+        <v>66</v>
+      </c>
+      <c r="G437">
+        <v>20251006</v>
+      </c>
+      <c r="H437" t="s">
+        <v>19</v>
+      </c>
+      <c r="J437">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>606</v>
+      </c>
+      <c r="B438" t="s">
+        <v>627</v>
+      </c>
+      <c r="C438" t="s">
+        <v>60</v>
+      </c>
+      <c r="D438">
+        <v>2435</v>
+      </c>
+      <c r="F438" t="s">
+        <v>67</v>
+      </c>
+      <c r="G438">
+        <v>20251006</v>
+      </c>
+      <c r="H438" t="s">
+        <v>19</v>
+      </c>
+      <c r="J438">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>607</v>
+      </c>
+      <c r="B439" t="s">
+        <v>628</v>
+      </c>
+      <c r="C439" t="s">
+        <v>61</v>
+      </c>
+      <c r="D439">
+        <v>2435</v>
+      </c>
+      <c r="F439" t="s">
+        <v>67</v>
+      </c>
+      <c r="G439">
+        <v>20251006</v>
+      </c>
+      <c r="H439" t="s">
+        <v>19</v>
+      </c>
+      <c r="J439">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>608</v>
+      </c>
+      <c r="B440" t="s">
+        <v>630</v>
+      </c>
+      <c r="C440" t="s">
+        <v>62</v>
+      </c>
+      <c r="D440">
+        <v>2435</v>
+      </c>
+      <c r="F440" t="s">
+        <v>67</v>
+      </c>
+      <c r="G440">
+        <v>20251006</v>
+      </c>
+      <c r="H440" t="s">
+        <v>19</v>
+      </c>
+      <c r="J440">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>609</v>
+      </c>
+      <c r="B441" t="s">
+        <v>629</v>
+      </c>
+      <c r="C441" t="s">
+        <v>60</v>
+      </c>
+      <c r="D441">
+        <v>2435</v>
+      </c>
+      <c r="F441" t="s">
+        <v>66</v>
+      </c>
+      <c r="G441">
+        <v>20251006</v>
+      </c>
+      <c r="H441" t="s">
+        <v>19</v>
+      </c>
+      <c r="J441">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>610</v>
+      </c>
+      <c r="B442" t="s">
+        <v>631</v>
+      </c>
+      <c r="C442" t="s">
+        <v>62</v>
+      </c>
+      <c r="D442">
+        <v>2435</v>
+      </c>
+      <c r="F442" t="s">
+        <v>66</v>
+      </c>
+      <c r="G442">
+        <v>20251006</v>
+      </c>
+      <c r="H442" t="s">
+        <v>19</v>
+      </c>
+      <c r="J442">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>611</v>
+      </c>
+      <c r="B443" t="s">
+        <v>632</v>
+      </c>
+      <c r="C443" t="s">
+        <v>65</v>
+      </c>
+      <c r="D443">
+        <v>2435</v>
+      </c>
+      <c r="F443" t="s">
+        <v>66</v>
+      </c>
+      <c r="G443">
+        <v>20251006</v>
+      </c>
+      <c r="H443" t="s">
+        <v>19</v>
+      </c>
+      <c r="J443">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>612</v>
+      </c>
+      <c r="B444" t="s">
+        <v>633</v>
+      </c>
+      <c r="C444" t="s">
+        <v>61</v>
+      </c>
+      <c r="D444">
+        <v>2435</v>
+      </c>
+      <c r="F444" t="s">
+        <v>66</v>
+      </c>
+      <c r="G444">
+        <v>20251006</v>
+      </c>
+      <c r="H444" t="s">
+        <v>19</v>
+      </c>
+      <c r="J444">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>613</v>
+      </c>
+      <c r="B445" t="s">
+        <v>634</v>
+      </c>
+      <c r="C445" t="s">
+        <v>63</v>
+      </c>
+      <c r="D445">
+        <v>2435</v>
+      </c>
+      <c r="F445" t="s">
+        <v>67</v>
+      </c>
+      <c r="G445">
+        <v>20251006</v>
+      </c>
+      <c r="H445" t="s">
+        <v>19</v>
+      </c>
+      <c r="J445">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>614</v>
+      </c>
+      <c r="B446" t="s">
+        <v>635</v>
+      </c>
+      <c r="C446" t="s">
+        <v>59</v>
+      </c>
+      <c r="D446">
+        <v>2435</v>
+      </c>
+      <c r="F446" t="s">
+        <v>66</v>
+      </c>
+      <c r="G446">
+        <v>20251006</v>
+      </c>
+      <c r="H446" t="s">
+        <v>19</v>
+      </c>
+      <c r="J446">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>615</v>
+      </c>
+      <c r="B447" t="s">
+        <v>636</v>
+      </c>
+      <c r="C447" t="s">
+        <v>59</v>
+      </c>
+      <c r="D447">
+        <v>2435</v>
+      </c>
+      <c r="F447" t="s">
+        <v>66</v>
+      </c>
+      <c r="G447">
+        <v>20251006</v>
+      </c>
+      <c r="H447" t="s">
+        <v>19</v>
+      </c>
+      <c r="J447">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>616</v>
+      </c>
+      <c r="B448" t="s">
+        <v>637</v>
+      </c>
+      <c r="C448" t="s">
+        <v>64</v>
+      </c>
+      <c r="D448">
+        <v>2435</v>
+      </c>
+      <c r="F448" t="s">
+        <v>66</v>
+      </c>
+      <c r="G448">
+        <v>20251006</v>
+      </c>
+      <c r="H448" t="s">
+        <v>19</v>
+      </c>
+      <c r="J448">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>617</v>
+      </c>
+      <c r="B449" t="s">
+        <v>638</v>
+      </c>
+      <c r="C449" t="s">
+        <v>59</v>
+      </c>
+      <c r="D449" t="s">
+        <v>651</v>
+      </c>
+      <c r="E449" t="s">
+        <v>403</v>
+      </c>
+      <c r="F449" t="s">
+        <v>66</v>
+      </c>
+      <c r="G449">
+        <v>20251006</v>
+      </c>
+      <c r="H449" t="s">
+        <v>19</v>
+      </c>
+      <c r="J449">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>618</v>
+      </c>
+      <c r="B450" t="s">
+        <v>639</v>
+      </c>
+      <c r="C450" t="s">
+        <v>59</v>
+      </c>
+      <c r="D450" t="s">
+        <v>651</v>
+      </c>
+      <c r="E450" t="s">
+        <v>100</v>
+      </c>
+      <c r="F450" t="s">
+        <v>66</v>
+      </c>
+      <c r="G450">
+        <v>20251006</v>
+      </c>
+      <c r="H450" t="s">
+        <v>19</v>
+      </c>
+      <c r="J450">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>619</v>
+      </c>
+      <c r="B451" t="s">
+        <v>640</v>
+      </c>
+      <c r="C451" t="s">
+        <v>59</v>
+      </c>
+      <c r="D451" t="s">
+        <v>651</v>
+      </c>
+      <c r="E451" t="s">
+        <v>84</v>
+      </c>
+      <c r="F451" t="s">
+        <v>67</v>
+      </c>
+      <c r="G451">
+        <v>20251006</v>
+      </c>
+      <c r="H451" t="s">
+        <v>19</v>
+      </c>
+      <c r="J451">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>620</v>
+      </c>
+      <c r="B452" t="s">
+        <v>641</v>
+      </c>
+      <c r="C452" t="s">
+        <v>59</v>
+      </c>
+      <c r="D452" t="s">
+        <v>651</v>
+      </c>
+      <c r="E452" t="s">
+        <v>142</v>
+      </c>
+      <c r="F452" t="s">
+        <v>66</v>
+      </c>
+      <c r="G452">
+        <v>20251006</v>
+      </c>
+      <c r="H452" t="s">
+        <v>19</v>
+      </c>
+      <c r="J452">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>621</v>
+      </c>
+      <c r="B453" t="s">
+        <v>642</v>
+      </c>
+      <c r="C453" t="s">
+        <v>63</v>
+      </c>
+      <c r="D453" t="s">
+        <v>651</v>
+      </c>
+      <c r="E453" t="s">
+        <v>652</v>
+      </c>
+      <c r="F453" t="s">
+        <v>66</v>
+      </c>
+      <c r="G453">
+        <v>20251006</v>
+      </c>
+      <c r="H453" t="s">
+        <v>19</v>
+      </c>
+      <c r="J453">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>622</v>
+      </c>
+      <c r="B454" t="s">
+        <v>643</v>
+      </c>
+      <c r="C454" t="s">
+        <v>59</v>
+      </c>
+      <c r="D454" t="s">
+        <v>651</v>
+      </c>
+      <c r="E454" t="s">
+        <v>653</v>
+      </c>
+      <c r="F454" t="s">
+        <v>66</v>
+      </c>
+      <c r="G454">
+        <v>20251006</v>
+      </c>
+      <c r="H454" t="s">
+        <v>19</v>
+      </c>
+      <c r="J454">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>623</v>
+      </c>
+      <c r="B455" t="s">
+        <v>644</v>
+      </c>
+      <c r="C455" t="s">
+        <v>65</v>
+      </c>
+      <c r="D455" t="s">
+        <v>651</v>
+      </c>
+      <c r="E455" t="s">
+        <v>654</v>
+      </c>
+      <c r="F455" t="s">
+        <v>66</v>
+      </c>
+      <c r="G455">
+        <v>20251006</v>
+      </c>
+      <c r="H455" t="s">
+        <v>19</v>
+      </c>
+      <c r="J455">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>624</v>
+      </c>
+      <c r="B456" t="s">
+        <v>645</v>
+      </c>
+      <c r="C456" t="s">
+        <v>65</v>
+      </c>
+      <c r="D456" t="s">
+        <v>651</v>
+      </c>
+      <c r="E456" t="s">
+        <v>471</v>
+      </c>
+      <c r="F456" t="s">
+        <v>66</v>
+      </c>
+      <c r="G456">
+        <v>20251006</v>
+      </c>
+      <c r="H456" t="s">
+        <v>19</v>
+      </c>
+      <c r="J456">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>627</v>
+      </c>
+      <c r="B457" t="s">
+        <v>646</v>
+      </c>
+      <c r="C457" t="s">
+        <v>59</v>
+      </c>
+      <c r="D457" t="s">
+        <v>651</v>
+      </c>
+      <c r="E457" t="s">
+        <v>84</v>
+      </c>
+      <c r="F457" t="s">
+        <v>67</v>
+      </c>
+      <c r="G457">
+        <v>20251006</v>
+      </c>
+      <c r="H457" t="s">
+        <v>19</v>
+      </c>
+      <c r="J457">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>625</v>
+      </c>
+      <c r="B458" t="s">
+        <v>647</v>
+      </c>
+      <c r="C458" t="s">
+        <v>64</v>
+      </c>
+      <c r="D458" t="s">
+        <v>651</v>
+      </c>
+      <c r="E458" t="s">
+        <v>138</v>
+      </c>
+      <c r="F458" t="s">
+        <v>66</v>
+      </c>
+      <c r="G458">
+        <v>20251006</v>
+      </c>
+      <c r="H458" t="s">
+        <v>19</v>
+      </c>
+      <c r="J458">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>626</v>
+      </c>
+      <c r="B459" t="s">
+        <v>648</v>
+      </c>
+      <c r="C459" t="s">
+        <v>65</v>
+      </c>
+      <c r="D459" t="s">
+        <v>651</v>
+      </c>
+      <c r="E459" t="s">
+        <v>580</v>
+      </c>
+      <c r="F459" t="s">
+        <v>66</v>
+      </c>
+      <c r="G459">
+        <v>20251006</v>
+      </c>
+      <c r="H459" t="s">
+        <v>19</v>
+      </c>
+      <c r="J459">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>628</v>
+      </c>
+      <c r="B460" t="s">
+        <v>649</v>
+      </c>
+      <c r="C460" t="s">
+        <v>64</v>
+      </c>
+      <c r="D460" t="s">
+        <v>651</v>
+      </c>
+      <c r="E460" t="s">
+        <v>80</v>
+      </c>
+      <c r="F460" t="s">
+        <v>67</v>
+      </c>
+      <c r="G460">
+        <v>20251006</v>
+      </c>
+      <c r="H460" t="s">
+        <v>19</v>
+      </c>
+      <c r="J460">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>629</v>
+      </c>
+      <c r="B461" t="s">
+        <v>650</v>
+      </c>
+      <c r="C461" t="s">
+        <v>64</v>
+      </c>
+      <c r="D461" t="s">
+        <v>651</v>
+      </c>
+      <c r="E461" t="s">
+        <v>581</v>
+      </c>
+      <c r="F461" t="s">
+        <v>66</v>
+      </c>
+      <c r="G461">
+        <v>20251006</v>
+      </c>
+      <c r="H461" t="s">
+        <v>19</v>
+      </c>
+      <c r="J461">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>197</v>
+      </c>
+      <c r="B462" t="s">
+        <v>661</v>
+      </c>
+      <c r="C462" t="s">
+        <v>59</v>
+      </c>
+      <c r="D462" t="s">
+        <v>655</v>
+      </c>
+      <c r="E462" t="s">
+        <v>658</v>
+      </c>
+      <c r="F462" t="s">
+        <v>66</v>
+      </c>
+      <c r="G462">
+        <v>20251006</v>
+      </c>
+      <c r="H462" t="s">
+        <v>657</v>
+      </c>
+      <c r="J462">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>198</v>
+      </c>
+      <c r="B463" t="s">
+        <v>662</v>
+      </c>
+      <c r="C463" t="s">
+        <v>62</v>
+      </c>
+      <c r="D463" t="s">
+        <v>655</v>
+      </c>
+      <c r="E463" t="s">
+        <v>84</v>
+      </c>
+      <c r="F463" t="s">
+        <v>67</v>
+      </c>
+      <c r="G463">
+        <v>20251006</v>
+      </c>
+      <c r="H463" t="s">
+        <v>657</v>
+      </c>
+      <c r="J463">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>441</v>
+      </c>
+      <c r="B464" t="s">
+        <v>663</v>
+      </c>
+      <c r="C464" t="s">
+        <v>60</v>
+      </c>
+      <c r="D464" t="s">
+        <v>655</v>
+      </c>
+      <c r="E464" t="s">
+        <v>84</v>
+      </c>
+      <c r="F464" t="s">
+        <v>67</v>
+      </c>
+      <c r="G464">
+        <v>20251006</v>
+      </c>
+      <c r="H464" t="s">
+        <v>657</v>
+      </c>
+      <c r="J464">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>442</v>
+      </c>
+      <c r="B465" t="s">
+        <v>664</v>
+      </c>
+      <c r="C465" t="s">
+        <v>61</v>
+      </c>
+      <c r="D465" t="s">
+        <v>655</v>
+      </c>
+      <c r="E465" t="s">
+        <v>86</v>
+      </c>
+      <c r="F465" t="s">
+        <v>67</v>
+      </c>
+      <c r="G465">
+        <v>20251006</v>
+      </c>
+      <c r="H465" t="s">
+        <v>657</v>
+      </c>
+      <c r="J465">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>443</v>
+      </c>
+      <c r="B466" t="s">
+        <v>665</v>
+      </c>
+      <c r="C466" t="s">
+        <v>61</v>
+      </c>
+      <c r="D466" t="s">
+        <v>655</v>
+      </c>
+      <c r="E466" t="s">
+        <v>659</v>
+      </c>
+      <c r="F466" t="s">
+        <v>66</v>
+      </c>
+      <c r="G466">
+        <v>20251006</v>
+      </c>
+      <c r="H466" t="s">
+        <v>657</v>
+      </c>
+      <c r="J466">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>444</v>
+      </c>
+      <c r="B467" t="s">
+        <v>666</v>
+      </c>
+      <c r="C467" t="s">
+        <v>65</v>
+      </c>
+      <c r="D467" t="s">
+        <v>655</v>
+      </c>
+      <c r="E467" t="s">
+        <v>96</v>
+      </c>
+      <c r="F467" t="s">
+        <v>66</v>
+      </c>
+      <c r="G467">
+        <v>20251006</v>
+      </c>
+      <c r="H467" t="s">
+        <v>657</v>
+      </c>
+      <c r="J467">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>445</v>
+      </c>
+      <c r="B468" t="s">
+        <v>667</v>
+      </c>
+      <c r="C468" t="s">
+        <v>62</v>
+      </c>
+      <c r="D468" t="s">
+        <v>655</v>
+      </c>
+      <c r="E468" t="s">
+        <v>318</v>
+      </c>
+      <c r="F468" t="s">
+        <v>66</v>
+      </c>
+      <c r="G468">
+        <v>20251006</v>
+      </c>
+      <c r="H468" t="s">
+        <v>657</v>
+      </c>
+      <c r="J468">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>446</v>
+      </c>
+      <c r="B469" t="s">
+        <v>668</v>
+      </c>
+      <c r="C469" t="s">
+        <v>59</v>
+      </c>
+      <c r="D469" t="s">
+        <v>655</v>
+      </c>
+      <c r="E469" t="s">
+        <v>86</v>
+      </c>
+      <c r="F469" t="s">
+        <v>67</v>
+      </c>
+      <c r="G469">
+        <v>20251006</v>
+      </c>
+      <c r="H469" t="s">
+        <v>657</v>
+      </c>
+      <c r="J469">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>447</v>
+      </c>
+      <c r="B470" t="s">
+        <v>669</v>
+      </c>
+      <c r="C470" t="s">
+        <v>65</v>
+      </c>
+      <c r="D470" t="s">
+        <v>655</v>
+      </c>
+      <c r="E470" t="s">
+        <v>86</v>
+      </c>
+      <c r="F470" t="s">
+        <v>67</v>
+      </c>
+      <c r="G470">
+        <v>20251006</v>
+      </c>
+      <c r="H470" t="s">
+        <v>657</v>
+      </c>
+      <c r="J470">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>448</v>
+      </c>
+      <c r="B471" t="s">
+        <v>670</v>
+      </c>
+      <c r="C471" t="s">
+        <v>63</v>
+      </c>
+      <c r="D471" t="s">
+        <v>655</v>
+      </c>
+      <c r="E471" t="s">
+        <v>86</v>
+      </c>
+      <c r="F471" t="s">
+        <v>67</v>
+      </c>
+      <c r="G471">
+        <v>20251006</v>
+      </c>
+      <c r="H471" t="s">
+        <v>657</v>
+      </c>
+      <c r="J471">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>449</v>
+      </c>
+      <c r="B472" t="s">
+        <v>671</v>
+      </c>
+      <c r="C472" t="s">
+        <v>60</v>
+      </c>
+      <c r="D472" t="s">
+        <v>655</v>
+      </c>
+      <c r="E472" t="s">
+        <v>660</v>
+      </c>
+      <c r="F472" t="s">
+        <v>66</v>
+      </c>
+      <c r="G472">
+        <v>20251006</v>
+      </c>
+      <c r="H472" t="s">
+        <v>657</v>
+      </c>
+      <c r="J472">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>450</v>
+      </c>
+      <c r="B473" t="s">
+        <v>672</v>
+      </c>
+      <c r="C473" t="s">
+        <v>63</v>
+      </c>
+      <c r="D473" t="s">
+        <v>655</v>
+      </c>
+      <c r="E473" t="s">
+        <v>305</v>
+      </c>
+      <c r="F473" t="s">
+        <v>66</v>
+      </c>
+      <c r="G473">
+        <v>20251006</v>
+      </c>
+      <c r="H473" t="s">
+        <v>657</v>
+      </c>
+      <c r="J473">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>514</v>
+      </c>
+      <c r="B474" t="s">
+        <v>673</v>
+      </c>
+      <c r="C474" t="s">
+        <v>65</v>
+      </c>
+      <c r="D474" t="s">
+        <v>656</v>
+      </c>
+      <c r="E474" t="s">
+        <v>73</v>
+      </c>
+      <c r="F474" t="s">
+        <v>67</v>
+      </c>
+      <c r="G474">
+        <v>20251006</v>
+      </c>
+      <c r="H474" t="s">
+        <v>657</v>
+      </c>
+      <c r="J474">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>515</v>
+      </c>
+      <c r="B475" t="s">
+        <v>674</v>
+      </c>
+      <c r="C475" t="s">
+        <v>65</v>
+      </c>
+      <c r="D475" t="s">
+        <v>656</v>
+      </c>
+      <c r="E475" t="s">
+        <v>133</v>
+      </c>
+      <c r="F475" t="s">
+        <v>67</v>
+      </c>
+      <c r="G475">
+        <v>20251006</v>
+      </c>
+      <c r="H475" t="s">
+        <v>657</v>
+      </c>
+      <c r="J475">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>516</v>
+      </c>
+      <c r="B476" t="s">
+        <v>675</v>
+      </c>
+      <c r="C476" t="s">
+        <v>65</v>
+      </c>
+      <c r="D476" t="s">
+        <v>656</v>
+      </c>
+      <c r="E476" t="s">
+        <v>136</v>
+      </c>
+      <c r="F476" t="s">
+        <v>66</v>
+      </c>
+      <c r="G476">
+        <v>20251006</v>
+      </c>
+      <c r="H476" t="s">
+        <v>657</v>
+      </c>
+      <c r="J476">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>517</v>
+      </c>
+      <c r="B477" t="s">
+        <v>676</v>
+      </c>
+      <c r="C477" t="s">
+        <v>65</v>
+      </c>
+      <c r="D477" t="s">
+        <v>656</v>
+      </c>
+      <c r="E477" t="s">
+        <v>200</v>
+      </c>
+      <c r="F477" t="s">
+        <v>66</v>
+      </c>
+      <c r="G477">
+        <v>20251006</v>
+      </c>
+      <c r="H477" t="s">
+        <v>657</v>
+      </c>
+      <c r="J477">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>366</v>
+      </c>
+      <c r="B478" t="s">
+        <v>677</v>
+      </c>
+      <c r="C478" t="s">
+        <v>61</v>
+      </c>
+      <c r="D478" t="s">
+        <v>693</v>
+      </c>
+      <c r="F478" t="s">
+        <v>66</v>
+      </c>
+      <c r="G478">
+        <v>20251006</v>
+      </c>
+      <c r="H478" t="s">
+        <v>18</v>
+      </c>
+      <c r="J478">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>367</v>
+      </c>
+      <c r="B479" t="s">
+        <v>678</v>
+      </c>
+      <c r="C479" t="s">
+        <v>62</v>
+      </c>
+      <c r="D479" t="s">
+        <v>693</v>
+      </c>
+      <c r="F479" t="s">
+        <v>66</v>
+      </c>
+      <c r="G479">
+        <v>20251006</v>
+      </c>
+      <c r="H479" t="s">
+        <v>18</v>
+      </c>
+      <c r="J479">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>580</v>
+      </c>
+      <c r="B480" t="s">
+        <v>679</v>
+      </c>
+      <c r="C480" t="s">
+        <v>65</v>
+      </c>
+      <c r="D480" t="s">
+        <v>693</v>
+      </c>
+      <c r="F480" t="s">
+        <v>66</v>
+      </c>
+      <c r="G480">
+        <v>20251006</v>
+      </c>
+      <c r="H480" t="s">
+        <v>18</v>
+      </c>
+      <c r="J480">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>581</v>
+      </c>
+      <c r="B481" t="s">
+        <v>680</v>
+      </c>
+      <c r="C481" t="s">
+        <v>64</v>
+      </c>
+      <c r="D481" t="s">
+        <v>693</v>
+      </c>
+      <c r="F481" t="s">
+        <v>66</v>
+      </c>
+      <c r="G481">
+        <v>20251006</v>
+      </c>
+      <c r="H481" t="s">
+        <v>18</v>
+      </c>
+      <c r="J481">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>582</v>
+      </c>
+      <c r="B482" t="s">
+        <v>681</v>
+      </c>
+      <c r="C482" t="s">
+        <v>61</v>
+      </c>
+      <c r="D482" t="s">
+        <v>693</v>
+      </c>
+      <c r="F482" t="s">
+        <v>67</v>
+      </c>
+      <c r="G482">
+        <v>20251006</v>
+      </c>
+      <c r="H482" t="s">
+        <v>18</v>
+      </c>
+      <c r="J482">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>583</v>
+      </c>
+      <c r="B483" t="s">
+        <v>682</v>
+      </c>
+      <c r="C483" t="s">
+        <v>62</v>
+      </c>
+      <c r="D483" t="s">
+        <v>693</v>
+      </c>
+      <c r="F483" t="s">
+        <v>67</v>
+      </c>
+      <c r="G483">
+        <v>20251006</v>
+      </c>
+      <c r="H483" t="s">
+        <v>18</v>
+      </c>
+      <c r="J483">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>584</v>
+      </c>
+      <c r="B484" t="s">
+        <v>683</v>
+      </c>
+      <c r="C484" t="s">
+        <v>60</v>
+      </c>
+      <c r="D484" t="s">
+        <v>693</v>
+      </c>
+      <c r="F484" t="s">
+        <v>66</v>
+      </c>
+      <c r="G484">
+        <v>20251006</v>
+      </c>
+      <c r="H484" t="s">
+        <v>18</v>
+      </c>
+      <c r="J484">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>585</v>
+      </c>
+      <c r="B485" t="s">
+        <v>684</v>
+      </c>
+      <c r="C485" t="s">
+        <v>59</v>
+      </c>
+      <c r="D485" t="s">
+        <v>693</v>
+      </c>
+      <c r="F485" t="s">
+        <v>67</v>
+      </c>
+      <c r="G485">
+        <v>20251006</v>
+      </c>
+      <c r="H485" t="s">
+        <v>18</v>
+      </c>
+      <c r="J485">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>586</v>
+      </c>
+      <c r="B486" t="s">
+        <v>685</v>
+      </c>
+      <c r="C486" t="s">
+        <v>64</v>
+      </c>
+      <c r="D486" t="s">
+        <v>693</v>
+      </c>
+      <c r="F486" t="s">
+        <v>66</v>
+      </c>
+      <c r="G486">
+        <v>20251006</v>
+      </c>
+      <c r="H486" t="s">
+        <v>18</v>
+      </c>
+      <c r="J486">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>587</v>
+      </c>
+      <c r="B487" t="s">
+        <v>686</v>
+      </c>
+      <c r="C487" t="s">
+        <v>63</v>
+      </c>
+      <c r="D487" t="s">
+        <v>693</v>
+      </c>
+      <c r="F487" t="s">
+        <v>66</v>
+      </c>
+      <c r="G487">
+        <v>20251006</v>
+      </c>
+      <c r="H487" t="s">
+        <v>18</v>
+      </c>
+      <c r="J487">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>588</v>
+      </c>
+      <c r="B488" t="s">
+        <v>687</v>
+      </c>
+      <c r="C488" t="s">
+        <v>60</v>
+      </c>
+      <c r="D488" t="s">
+        <v>693</v>
+      </c>
+      <c r="F488" t="s">
+        <v>67</v>
+      </c>
+      <c r="G488">
+        <v>20251006</v>
+      </c>
+      <c r="H488" t="s">
+        <v>18</v>
+      </c>
+      <c r="J488">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>589</v>
+      </c>
+      <c r="B489" t="s">
+        <v>688</v>
+      </c>
+      <c r="C489" t="s">
+        <v>59</v>
+      </c>
+      <c r="D489" t="s">
+        <v>693</v>
+      </c>
+      <c r="F489" t="s">
+        <v>66</v>
+      </c>
+      <c r="G489">
+        <v>20251006</v>
+      </c>
+      <c r="H489" t="s">
+        <v>18</v>
+      </c>
+      <c r="J489">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>590</v>
+      </c>
+      <c r="B490" t="s">
+        <v>689</v>
+      </c>
+      <c r="C490" t="s">
+        <v>64</v>
+      </c>
+      <c r="D490" t="s">
+        <v>693</v>
+      </c>
+      <c r="F490" t="s">
+        <v>67</v>
+      </c>
+      <c r="G490">
+        <v>20251006</v>
+      </c>
+      <c r="H490" t="s">
+        <v>18</v>
+      </c>
+      <c r="J490">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>591</v>
+      </c>
+      <c r="B491" t="s">
+        <v>690</v>
+      </c>
+      <c r="C491" t="s">
+        <v>65</v>
+      </c>
+      <c r="D491" t="s">
+        <v>693</v>
+      </c>
+      <c r="F491" t="s">
+        <v>66</v>
+      </c>
+      <c r="G491">
+        <v>20251006</v>
+      </c>
+      <c r="H491" t="s">
+        <v>18</v>
+      </c>
+      <c r="J491">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>592</v>
+      </c>
+      <c r="B492" t="s">
+        <v>691</v>
+      </c>
+      <c r="C492" t="s">
+        <v>65</v>
+      </c>
+      <c r="D492" t="s">
+        <v>693</v>
+      </c>
+      <c r="F492" t="s">
+        <v>67</v>
+      </c>
+      <c r="G492">
+        <v>20251006</v>
+      </c>
+      <c r="H492" t="s">
+        <v>18</v>
+      </c>
+      <c r="J492">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>593</v>
+      </c>
+      <c r="B493" t="s">
+        <v>692</v>
+      </c>
+      <c r="C493" t="s">
+        <v>63</v>
+      </c>
+      <c r="D493" t="s">
+        <v>693</v>
+      </c>
+      <c r="F493" t="s">
+        <v>66</v>
+      </c>
+      <c r="G493">
+        <v>20251006</v>
+      </c>
+      <c r="H493" t="s">
+        <v>18</v>
+      </c>
+      <c r="J493">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>594</v>
+      </c>
+      <c r="B494" t="s">
+        <v>694</v>
+      </c>
+      <c r="C494" t="s">
+        <v>64</v>
+      </c>
+      <c r="D494" t="s">
+        <v>699</v>
+      </c>
+      <c r="F494" t="s">
+        <v>66</v>
+      </c>
+      <c r="G494">
+        <v>20251006</v>
+      </c>
+      <c r="H494" t="s">
+        <v>420</v>
+      </c>
+      <c r="J494">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>595</v>
+      </c>
+      <c r="B495" t="s">
+        <v>695</v>
+      </c>
+      <c r="C495" t="s">
+        <v>64</v>
+      </c>
+      <c r="D495" t="s">
+        <v>699</v>
+      </c>
+      <c r="F495" t="s">
+        <v>66</v>
+      </c>
+      <c r="G495">
+        <v>20251006</v>
+      </c>
+      <c r="H495" t="s">
+        <v>420</v>
+      </c>
+      <c r="J495">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>596</v>
+      </c>
+      <c r="B496" t="s">
+        <v>696</v>
+      </c>
+      <c r="C496" t="s">
+        <v>65</v>
+      </c>
+      <c r="D496" t="s">
+        <v>699</v>
+      </c>
+      <c r="F496" t="s">
+        <v>66</v>
+      </c>
+      <c r="G496">
+        <v>20251006</v>
+      </c>
+      <c r="H496" t="s">
+        <v>420</v>
+      </c>
+      <c r="J496">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>597</v>
+      </c>
+      <c r="B497" t="s">
+        <v>697</v>
+      </c>
+      <c r="C497" t="s">
+        <v>65</v>
+      </c>
+      <c r="D497" t="s">
+        <v>699</v>
+      </c>
+      <c r="F497" t="s">
+        <v>66</v>
+      </c>
+      <c r="G497">
+        <v>20251006</v>
+      </c>
+      <c r="H497" t="s">
+        <v>420</v>
+      </c>
+      <c r="J497">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>598</v>
+      </c>
+      <c r="B498" t="s">
+        <v>698</v>
+      </c>
+      <c r="C498" t="s">
+        <v>65</v>
+      </c>
+      <c r="D498" t="s">
+        <v>699</v>
+      </c>
+      <c r="F498" t="s">
+        <v>67</v>
+      </c>
+      <c r="G498">
+        <v>20251006</v>
+      </c>
+      <c r="H498" t="s">
+        <v>420</v>
+      </c>
+      <c r="J498">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/F25_Sampling.xlsx
+++ b/F25_Sampling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trini/Documents/Shedd/biota_project_genomicshifts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432E5805-73EE-1F4A-963C-57BD7CE537B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7DCEEC-424D-4E49-88B6-7190AB0DA0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10040" yWindow="500" windowWidth="22040" windowHeight="17620" activeTab="1" xr2:uid="{07AAFEEF-A83C-484C-8992-E89847C75F27}"/>
+    <workbookView xWindow="7960" yWindow="500" windowWidth="17140" windowHeight="17620" activeTab="1" xr2:uid="{07AAFEEF-A83C-484C-8992-E89847C75F27}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="846">
   <si>
     <t xml:space="preserve">Bag </t>
   </si>
@@ -2140,6 +2140,444 @@
   </si>
   <si>
     <t>WP_315</t>
+  </si>
+  <si>
+    <t>Min Depth (ft)</t>
+  </si>
+  <si>
+    <t>Max Depth (ft)</t>
+  </si>
+  <si>
+    <t>F25_495</t>
+  </si>
+  <si>
+    <t>F25_496</t>
+  </si>
+  <si>
+    <t>F25_497</t>
+  </si>
+  <si>
+    <t>F25_498</t>
+  </si>
+  <si>
+    <t>F25_499</t>
+  </si>
+  <si>
+    <t>F25_500</t>
+  </si>
+  <si>
+    <t>F25_501</t>
+  </si>
+  <si>
+    <t>F25_502</t>
+  </si>
+  <si>
+    <t>F25_503</t>
+  </si>
+  <si>
+    <t>F25_504</t>
+  </si>
+  <si>
+    <t>F25_505</t>
+  </si>
+  <si>
+    <t>F25_506</t>
+  </si>
+  <si>
+    <t>F25_507</t>
+  </si>
+  <si>
+    <t>F25_547</t>
+  </si>
+  <si>
+    <t>F25_548</t>
+  </si>
+  <si>
+    <t>F25_549</t>
+  </si>
+  <si>
+    <t>F25_550</t>
+  </si>
+  <si>
+    <t>F25_551</t>
+  </si>
+  <si>
+    <t>F25_552</t>
+  </si>
+  <si>
+    <t>F25_553</t>
+  </si>
+  <si>
+    <t>F25_554</t>
+  </si>
+  <si>
+    <t>F25_555</t>
+  </si>
+  <si>
+    <t>F25_556</t>
+  </si>
+  <si>
+    <t>F25_557</t>
+  </si>
+  <si>
+    <t>F25_536</t>
+  </si>
+  <si>
+    <t>F25_537</t>
+  </si>
+  <si>
+    <t>F25_538</t>
+  </si>
+  <si>
+    <t>F25_539</t>
+  </si>
+  <si>
+    <t>F25_540</t>
+  </si>
+  <si>
+    <t>F25_541</t>
+  </si>
+  <si>
+    <t>F25_542</t>
+  </si>
+  <si>
+    <t>F25_543</t>
+  </si>
+  <si>
+    <t>F25_544</t>
+  </si>
+  <si>
+    <t>F25_545</t>
+  </si>
+  <si>
+    <t>F25_546</t>
+  </si>
+  <si>
+    <t>Tom's Spot</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>15x8</t>
+  </si>
+  <si>
+    <t>7x4</t>
+  </si>
+  <si>
+    <t>1x0</t>
+  </si>
+  <si>
+    <t>17x25</t>
+  </si>
+  <si>
+    <t>7x7</t>
+  </si>
+  <si>
+    <t>DLab</t>
+  </si>
+  <si>
+    <t>F25_508</t>
+  </si>
+  <si>
+    <t>F25_509</t>
+  </si>
+  <si>
+    <t>F25_510</t>
+  </si>
+  <si>
+    <t>F25_511</t>
+  </si>
+  <si>
+    <t>F25_512</t>
+  </si>
+  <si>
+    <t>F25_513</t>
+  </si>
+  <si>
+    <t>F25_514</t>
+  </si>
+  <si>
+    <t>F25_515</t>
+  </si>
+  <si>
+    <t>F25_516</t>
+  </si>
+  <si>
+    <t>F25_517</t>
+  </si>
+  <si>
+    <t>F25_518</t>
+  </si>
+  <si>
+    <t>F25_519</t>
+  </si>
+  <si>
+    <t>F25_520</t>
+  </si>
+  <si>
+    <t>F25_521</t>
+  </si>
+  <si>
+    <t>F25_522</t>
+  </si>
+  <si>
+    <t>F25_523</t>
+  </si>
+  <si>
+    <t>F25_524</t>
+  </si>
+  <si>
+    <t>F25_525</t>
+  </si>
+  <si>
+    <t>F25_526</t>
+  </si>
+  <si>
+    <t>F25_558</t>
+  </si>
+  <si>
+    <t>F25_559</t>
+  </si>
+  <si>
+    <t>F25_560</t>
+  </si>
+  <si>
+    <t>F25_561</t>
+  </si>
+  <si>
+    <t>F25_562</t>
+  </si>
+  <si>
+    <t>F25_563</t>
+  </si>
+  <si>
+    <t>F25_564</t>
+  </si>
+  <si>
+    <t>F25_565</t>
+  </si>
+  <si>
+    <t>F25_566</t>
+  </si>
+  <si>
+    <t>F25_567</t>
+  </si>
+  <si>
+    <t>F25_568</t>
+  </si>
+  <si>
+    <t>F25_569</t>
+  </si>
+  <si>
+    <t>F25_570</t>
+  </si>
+  <si>
+    <t>F25_571</t>
+  </si>
+  <si>
+    <t>F25_572</t>
+  </si>
+  <si>
+    <t>F25_573</t>
+  </si>
+  <si>
+    <t>F25_574</t>
+  </si>
+  <si>
+    <t>F25_575</t>
+  </si>
+  <si>
+    <t>SS720</t>
+  </si>
+  <si>
+    <t>SS721</t>
+  </si>
+  <si>
+    <t>SS722</t>
+  </si>
+  <si>
+    <t>SS723</t>
+  </si>
+  <si>
+    <t>SS724</t>
+  </si>
+  <si>
+    <t>SS725</t>
+  </si>
+  <si>
+    <t>SS726</t>
+  </si>
+  <si>
+    <t>SS727</t>
+  </si>
+  <si>
+    <t>SS728</t>
+  </si>
+  <si>
+    <t>SS729</t>
+  </si>
+  <si>
+    <t>SS730</t>
+  </si>
+  <si>
+    <t>150x50</t>
+  </si>
+  <si>
+    <t>34x40</t>
+  </si>
+  <si>
+    <t>150x20</t>
+  </si>
+  <si>
+    <t>23x18</t>
+  </si>
+  <si>
+    <t>30x20</t>
+  </si>
+  <si>
+    <t>45x20</t>
+  </si>
+  <si>
+    <t>18x6</t>
+  </si>
+  <si>
+    <t>11x7</t>
+  </si>
+  <si>
+    <t>38x18</t>
+  </si>
+  <si>
+    <t>30x6</t>
+  </si>
+  <si>
+    <t>14x6</t>
+  </si>
+  <si>
+    <t>16x6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">562-566 no photos (camera died) </t>
+  </si>
+  <si>
+    <t>11x1</t>
+  </si>
+  <si>
+    <t>F25_527</t>
+  </si>
+  <si>
+    <t>F25_528</t>
+  </si>
+  <si>
+    <t>F25_529</t>
+  </si>
+  <si>
+    <t>F25_530</t>
+  </si>
+  <si>
+    <t>F25_531</t>
+  </si>
+  <si>
+    <t>F25_532</t>
+  </si>
+  <si>
+    <t>F25_533</t>
+  </si>
+  <si>
+    <t>F25_534</t>
+  </si>
+  <si>
+    <t>F25_535</t>
+  </si>
+  <si>
+    <t>F25_576</t>
+  </si>
+  <si>
+    <t>F25_577</t>
+  </si>
+  <si>
+    <t>F25_578</t>
+  </si>
+  <si>
+    <t>F25_579</t>
+  </si>
+  <si>
+    <t>F25_580</t>
+  </si>
+  <si>
+    <t>F25_581</t>
+  </si>
+  <si>
+    <t>F25_582</t>
+  </si>
+  <si>
+    <t>F25_583</t>
+  </si>
+  <si>
+    <t>F25_584</t>
+  </si>
+  <si>
+    <t>F25_585</t>
+  </si>
+  <si>
+    <t>F25_586</t>
+  </si>
+  <si>
+    <t>F25_587</t>
+  </si>
+  <si>
+    <t>F25_588</t>
+  </si>
+  <si>
+    <t>F25_589</t>
+  </si>
+  <si>
+    <t>45x70</t>
+  </si>
+  <si>
+    <t>9x1</t>
+  </si>
+  <si>
+    <t>F25_609</t>
+  </si>
+  <si>
+    <t>F25_610</t>
+  </si>
+  <si>
+    <t>F25_611</t>
+  </si>
+  <si>
+    <t>F25_612</t>
+  </si>
+  <si>
+    <t>F25_613</t>
+  </si>
+  <si>
+    <t>F25_614</t>
+  </si>
+  <si>
+    <t>F25_615</t>
+  </si>
+  <si>
+    <t>F25_616</t>
+  </si>
+  <si>
+    <t>F25_617</t>
+  </si>
+  <si>
+    <t>F25_618</t>
+  </si>
+  <si>
+    <t>F25_619</t>
+  </si>
+  <si>
+    <t>F25_620</t>
+  </si>
+  <si>
+    <t>F25_621</t>
+  </si>
+  <si>
+    <t>5x4</t>
   </si>
 </sst>
 </file>
@@ -2430,7 +2868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2456,6 +2894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3302,15 +3741,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859618DA-7D2E-F14A-9531-A0F7323C3157}">
-  <dimension ref="A1:P498"/>
+  <dimension ref="A1:P609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="J503" sqref="J503"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="I613" sqref="I613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="16.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -3458,15 +3898,15 @@
       </c>
       <c r="N4" s="20">
         <f>COUNTIFS(C:C, "Cnat")</f>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O4" s="12">
         <f>COUNTIFS(C:C,"Cnat", F:F, "Y" )</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P4" s="17">
         <f>COUNTIFS(C:C,"Cnat", F:F, "N" )</f>
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -3505,15 +3945,15 @@
       </c>
       <c r="N5" s="21">
         <f>COUNTIFS(C:C, "Dlab")</f>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="O5" s="13">
         <f>COUNTIFS(C:C,"Dlab", F:F, "Y" )</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="18">
         <f>COUNTIFS(C:C,"Dlab", F:F, "N" )</f>
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3549,15 +3989,15 @@
       </c>
       <c r="N6" s="21">
         <f>COUNTIFS(C:C,"Mcav")</f>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="O6" s="13">
         <f>COUNTIFS(C:C,"Mcav", F:F, "Y" )</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P6" s="18">
         <f>COUNTIFS(C:C,"Mcav", F:F, "N" )</f>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -3593,15 +4033,15 @@
       </c>
       <c r="N7" s="21">
         <f>COUNTIFS(C:C, "Sint")</f>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="O7" s="14">
         <f>COUNTIFS(C:C,"Sint", F:F, "Y" )</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="P7" s="18">
         <f>COUNTIFS(C:C,"Sint", F:F, "N" )</f>
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -3640,15 +4080,15 @@
       </c>
       <c r="N8" s="21">
         <f>COUNTIFS(C:C, "Past")</f>
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="O8" s="13">
         <f>COUNTIFS(C:C,"Past", F:F, "Y" )</f>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="P8" s="18">
         <f>COUNTIFS(C:C,"Past", F:F, "N" )</f>
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -3687,15 +4127,15 @@
       </c>
       <c r="N9" s="21">
         <f>COUNTIFS(C:C, "Pstr")</f>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="O9" s="13">
         <f>COUNTIFS(C:C,"Pstr", F:F, "Y" )</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P9" s="18">
         <f>COUNTIFS(C:C,"Pstr", F:F, "N" )</f>
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -3731,15 +4171,15 @@
       </c>
       <c r="N10" s="21">
         <f>COUNTIFS(C:C, "Ssid")</f>
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="O10" s="13">
         <f>COUNTIFS(C:C,"Ssid", F:F, "Y" )</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P10" s="18">
         <f>COUNTIFS(C:C,"Ssid", F:F, "N" )</f>
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3773,7 +4213,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="6">
         <f>SUM(N4:N10)</f>
-        <v>489</v>
+        <v>600</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="19"/>
@@ -3919,6 +4359,9 @@
       <c r="J16">
         <v>53</v>
       </c>
+      <c r="M16" s="23" t="s">
+        <v>700</v>
+      </c>
       <c r="N16">
         <f>MIN(J:J)</f>
         <v>11</v>
@@ -3952,6 +4395,9 @@
       <c r="J17">
         <v>52</v>
       </c>
+      <c r="M17" s="23" t="s">
+        <v>701</v>
+      </c>
       <c r="N17">
         <f>MAX(J:J)</f>
         <v>59</v>
@@ -17608,6 +18054,3228 @@
       </c>
       <c r="J498">
         <v>19</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>750</v>
+      </c>
+      <c r="B499" t="s">
+        <v>702</v>
+      </c>
+      <c r="C499" t="s">
+        <v>62</v>
+      </c>
+      <c r="D499">
+        <v>2396</v>
+      </c>
+      <c r="E499" t="s">
+        <v>308</v>
+      </c>
+      <c r="F499" t="s">
+        <v>66</v>
+      </c>
+      <c r="G499">
+        <v>20251007</v>
+      </c>
+      <c r="H499" t="s">
+        <v>221</v>
+      </c>
+      <c r="J499">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>751</v>
+      </c>
+      <c r="B500" t="s">
+        <v>703</v>
+      </c>
+      <c r="C500" t="s">
+        <v>65</v>
+      </c>
+      <c r="D500">
+        <v>2396</v>
+      </c>
+      <c r="E500" t="s">
+        <v>144</v>
+      </c>
+      <c r="F500" t="s">
+        <v>66</v>
+      </c>
+      <c r="G500">
+        <v>20251007</v>
+      </c>
+      <c r="H500" t="s">
+        <v>221</v>
+      </c>
+      <c r="J500">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>752</v>
+      </c>
+      <c r="B501" t="s">
+        <v>704</v>
+      </c>
+      <c r="C501" t="s">
+        <v>61</v>
+      </c>
+      <c r="D501">
+        <v>2396</v>
+      </c>
+      <c r="E501" t="s">
+        <v>404</v>
+      </c>
+      <c r="F501" t="s">
+        <v>66</v>
+      </c>
+      <c r="G501">
+        <v>20251007</v>
+      </c>
+      <c r="H501" t="s">
+        <v>221</v>
+      </c>
+      <c r="J501">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>753</v>
+      </c>
+      <c r="B502" t="s">
+        <v>705</v>
+      </c>
+      <c r="C502" t="s">
+        <v>60</v>
+      </c>
+      <c r="D502">
+        <v>2396</v>
+      </c>
+      <c r="E502" t="s">
+        <v>84</v>
+      </c>
+      <c r="F502" t="s">
+        <v>67</v>
+      </c>
+      <c r="G502">
+        <v>20251007</v>
+      </c>
+      <c r="H502" t="s">
+        <v>221</v>
+      </c>
+      <c r="J502">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>754</v>
+      </c>
+      <c r="B503" t="s">
+        <v>706</v>
+      </c>
+      <c r="C503" t="s">
+        <v>59</v>
+      </c>
+      <c r="D503">
+        <v>2396</v>
+      </c>
+      <c r="E503" t="s">
+        <v>230</v>
+      </c>
+      <c r="F503" t="s">
+        <v>66</v>
+      </c>
+      <c r="G503">
+        <v>20251007</v>
+      </c>
+      <c r="H503" t="s">
+        <v>221</v>
+      </c>
+      <c r="J503">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>755</v>
+      </c>
+      <c r="B504" t="s">
+        <v>707</v>
+      </c>
+      <c r="C504" t="s">
+        <v>61</v>
+      </c>
+      <c r="D504">
+        <v>2396</v>
+      </c>
+      <c r="E504" t="s">
+        <v>738</v>
+      </c>
+      <c r="F504" t="s">
+        <v>67</v>
+      </c>
+      <c r="G504">
+        <v>20251007</v>
+      </c>
+      <c r="H504" t="s">
+        <v>221</v>
+      </c>
+      <c r="J504">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>756</v>
+      </c>
+      <c r="B505" t="s">
+        <v>708</v>
+      </c>
+      <c r="C505" t="s">
+        <v>60</v>
+      </c>
+      <c r="D505">
+        <v>2396</v>
+      </c>
+      <c r="E505" t="s">
+        <v>739</v>
+      </c>
+      <c r="F505" t="s">
+        <v>66</v>
+      </c>
+      <c r="G505">
+        <v>20251007</v>
+      </c>
+      <c r="H505" t="s">
+        <v>221</v>
+      </c>
+      <c r="J505">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>757</v>
+      </c>
+      <c r="B506" t="s">
+        <v>709</v>
+      </c>
+      <c r="C506" t="s">
+        <v>63</v>
+      </c>
+      <c r="D506">
+        <v>2396</v>
+      </c>
+      <c r="E506" t="s">
+        <v>740</v>
+      </c>
+      <c r="F506" t="s">
+        <v>66</v>
+      </c>
+      <c r="G506">
+        <v>20251007</v>
+      </c>
+      <c r="H506" t="s">
+        <v>221</v>
+      </c>
+      <c r="J506">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>758</v>
+      </c>
+      <c r="B507" t="s">
+        <v>710</v>
+      </c>
+      <c r="C507" t="s">
+        <v>62</v>
+      </c>
+      <c r="D507">
+        <v>2396</v>
+      </c>
+      <c r="E507" t="s">
+        <v>232</v>
+      </c>
+      <c r="F507" t="s">
+        <v>66</v>
+      </c>
+      <c r="G507">
+        <v>20251007</v>
+      </c>
+      <c r="H507" t="s">
+        <v>221</v>
+      </c>
+      <c r="J507">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>759</v>
+      </c>
+      <c r="B508" t="s">
+        <v>711</v>
+      </c>
+      <c r="C508" t="s">
+        <v>64</v>
+      </c>
+      <c r="D508">
+        <v>2396</v>
+      </c>
+      <c r="E508" t="s">
+        <v>355</v>
+      </c>
+      <c r="F508" t="s">
+        <v>66</v>
+      </c>
+      <c r="G508">
+        <v>20251007</v>
+      </c>
+      <c r="H508" t="s">
+        <v>221</v>
+      </c>
+      <c r="J508">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>760</v>
+      </c>
+      <c r="B509" t="s">
+        <v>712</v>
+      </c>
+      <c r="C509" t="s">
+        <v>59</v>
+      </c>
+      <c r="D509">
+        <v>2396</v>
+      </c>
+      <c r="E509" t="s">
+        <v>741</v>
+      </c>
+      <c r="F509" t="s">
+        <v>67</v>
+      </c>
+      <c r="G509">
+        <v>20251007</v>
+      </c>
+      <c r="H509" t="s">
+        <v>221</v>
+      </c>
+      <c r="J509">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>761</v>
+      </c>
+      <c r="B510" t="s">
+        <v>713</v>
+      </c>
+      <c r="C510" t="s">
+        <v>63</v>
+      </c>
+      <c r="D510">
+        <v>2396</v>
+      </c>
+      <c r="E510" t="s">
+        <v>99</v>
+      </c>
+      <c r="F510" t="s">
+        <v>67</v>
+      </c>
+      <c r="G510">
+        <v>20251007</v>
+      </c>
+      <c r="H510" t="s">
+        <v>221</v>
+      </c>
+      <c r="J510">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>762</v>
+      </c>
+      <c r="B511" t="s">
+        <v>714</v>
+      </c>
+      <c r="C511" t="s">
+        <v>65</v>
+      </c>
+      <c r="D511">
+        <v>2396</v>
+      </c>
+      <c r="E511" t="s">
+        <v>82</v>
+      </c>
+      <c r="F511" t="s">
+        <v>67</v>
+      </c>
+      <c r="G511">
+        <v>20251007</v>
+      </c>
+      <c r="H511" t="s">
+        <v>221</v>
+      </c>
+      <c r="J511">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>763</v>
+      </c>
+      <c r="B512" t="s">
+        <v>715</v>
+      </c>
+      <c r="C512" t="s">
+        <v>59</v>
+      </c>
+      <c r="D512">
+        <v>1403</v>
+      </c>
+      <c r="E512" t="s">
+        <v>135</v>
+      </c>
+      <c r="F512" t="s">
+        <v>67</v>
+      </c>
+      <c r="G512">
+        <v>20251007</v>
+      </c>
+      <c r="H512" t="s">
+        <v>221</v>
+      </c>
+      <c r="J512">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>764</v>
+      </c>
+      <c r="B513" t="s">
+        <v>716</v>
+      </c>
+      <c r="C513" t="s">
+        <v>62</v>
+      </c>
+      <c r="D513">
+        <v>1403</v>
+      </c>
+      <c r="E513" t="s">
+        <v>227</v>
+      </c>
+      <c r="F513" t="s">
+        <v>67</v>
+      </c>
+      <c r="G513">
+        <v>20251007</v>
+      </c>
+      <c r="H513" t="s">
+        <v>221</v>
+      </c>
+      <c r="J513">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>765</v>
+      </c>
+      <c r="B514" t="s">
+        <v>717</v>
+      </c>
+      <c r="C514" t="s">
+        <v>60</v>
+      </c>
+      <c r="D514">
+        <v>1403</v>
+      </c>
+      <c r="E514" t="s">
+        <v>742</v>
+      </c>
+      <c r="F514" t="s">
+        <v>66</v>
+      </c>
+      <c r="G514">
+        <v>20251007</v>
+      </c>
+      <c r="H514" t="s">
+        <v>221</v>
+      </c>
+      <c r="J514">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>766</v>
+      </c>
+      <c r="B515" t="s">
+        <v>718</v>
+      </c>
+      <c r="C515" t="s">
+        <v>60</v>
+      </c>
+      <c r="D515">
+        <v>1403</v>
+      </c>
+      <c r="E515" t="s">
+        <v>84</v>
+      </c>
+      <c r="F515" t="s">
+        <v>67</v>
+      </c>
+      <c r="G515">
+        <v>20251007</v>
+      </c>
+      <c r="H515" t="s">
+        <v>221</v>
+      </c>
+      <c r="J515">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>767</v>
+      </c>
+      <c r="B516" t="s">
+        <v>719</v>
+      </c>
+      <c r="C516" t="s">
+        <v>61</v>
+      </c>
+      <c r="D516">
+        <v>1403</v>
+      </c>
+      <c r="E516" t="s">
+        <v>86</v>
+      </c>
+      <c r="F516" t="s">
+        <v>67</v>
+      </c>
+      <c r="G516">
+        <v>20251007</v>
+      </c>
+      <c r="H516" t="s">
+        <v>221</v>
+      </c>
+      <c r="J516">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>768</v>
+      </c>
+      <c r="B517" t="s">
+        <v>720</v>
+      </c>
+      <c r="C517" t="s">
+        <v>63</v>
+      </c>
+      <c r="D517">
+        <v>1403</v>
+      </c>
+      <c r="E517" t="s">
+        <v>80</v>
+      </c>
+      <c r="F517" t="s">
+        <v>67</v>
+      </c>
+      <c r="G517">
+        <v>20251007</v>
+      </c>
+      <c r="H517" t="s">
+        <v>221</v>
+      </c>
+      <c r="J517">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>769</v>
+      </c>
+      <c r="B518" t="s">
+        <v>721</v>
+      </c>
+      <c r="C518" t="s">
+        <v>61</v>
+      </c>
+      <c r="D518">
+        <v>1403</v>
+      </c>
+      <c r="E518" t="s">
+        <v>72</v>
+      </c>
+      <c r="F518" t="s">
+        <v>66</v>
+      </c>
+      <c r="G518">
+        <v>20251007</v>
+      </c>
+      <c r="H518" t="s">
+        <v>221</v>
+      </c>
+      <c r="J518">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>770</v>
+      </c>
+      <c r="B519" t="s">
+        <v>722</v>
+      </c>
+      <c r="C519" t="s">
+        <v>59</v>
+      </c>
+      <c r="D519">
+        <v>1403</v>
+      </c>
+      <c r="E519" t="s">
+        <v>743</v>
+      </c>
+      <c r="F519" t="s">
+        <v>66</v>
+      </c>
+      <c r="G519">
+        <v>20251007</v>
+      </c>
+      <c r="H519" t="s">
+        <v>221</v>
+      </c>
+      <c r="J519">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>771</v>
+      </c>
+      <c r="B520" t="s">
+        <v>723</v>
+      </c>
+      <c r="C520" t="s">
+        <v>62</v>
+      </c>
+      <c r="D520">
+        <v>1403</v>
+      </c>
+      <c r="E520" t="s">
+        <v>394</v>
+      </c>
+      <c r="F520" t="s">
+        <v>66</v>
+      </c>
+      <c r="G520">
+        <v>20251007</v>
+      </c>
+      <c r="H520" t="s">
+        <v>221</v>
+      </c>
+      <c r="J520">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>773</v>
+      </c>
+      <c r="B521" t="s">
+        <v>724</v>
+      </c>
+      <c r="C521" t="s">
+        <v>65</v>
+      </c>
+      <c r="D521">
+        <v>1403</v>
+      </c>
+      <c r="E521" t="s">
+        <v>144</v>
+      </c>
+      <c r="F521" t="s">
+        <v>66</v>
+      </c>
+      <c r="G521">
+        <v>20251007</v>
+      </c>
+      <c r="H521" t="s">
+        <v>221</v>
+      </c>
+      <c r="J521">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>774</v>
+      </c>
+      <c r="B522" t="s">
+        <v>725</v>
+      </c>
+      <c r="C522" t="s">
+        <v>64</v>
+      </c>
+      <c r="D522">
+        <v>1403</v>
+      </c>
+      <c r="E522" t="s">
+        <v>232</v>
+      </c>
+      <c r="F522" t="s">
+        <v>67</v>
+      </c>
+      <c r="G522">
+        <v>20251007</v>
+      </c>
+      <c r="H522" t="s">
+        <v>221</v>
+      </c>
+      <c r="J522">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>772</v>
+      </c>
+      <c r="B523" t="s">
+        <v>726</v>
+      </c>
+      <c r="C523" t="s">
+        <v>59</v>
+      </c>
+      <c r="D523" t="s">
+        <v>737</v>
+      </c>
+      <c r="E523" t="s">
+        <v>135</v>
+      </c>
+      <c r="F523" t="s">
+        <v>67</v>
+      </c>
+      <c r="G523">
+        <v>20251007</v>
+      </c>
+      <c r="H523" t="s">
+        <v>221</v>
+      </c>
+      <c r="J523">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>700</v>
+      </c>
+      <c r="B524" t="s">
+        <v>727</v>
+      </c>
+      <c r="C524" t="s">
+        <v>59</v>
+      </c>
+      <c r="D524" t="s">
+        <v>737</v>
+      </c>
+      <c r="E524" t="s">
+        <v>144</v>
+      </c>
+      <c r="F524" t="s">
+        <v>66</v>
+      </c>
+      <c r="G524">
+        <v>20251007</v>
+      </c>
+      <c r="H524" t="s">
+        <v>221</v>
+      </c>
+      <c r="J524">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>701</v>
+      </c>
+      <c r="B525" t="s">
+        <v>728</v>
+      </c>
+      <c r="C525" t="s">
+        <v>62</v>
+      </c>
+      <c r="D525" t="s">
+        <v>737</v>
+      </c>
+      <c r="E525" t="s">
+        <v>308</v>
+      </c>
+      <c r="F525" t="s">
+        <v>66</v>
+      </c>
+      <c r="G525">
+        <v>20251007</v>
+      </c>
+      <c r="H525" t="s">
+        <v>221</v>
+      </c>
+      <c r="J525">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>702</v>
+      </c>
+      <c r="B526" t="s">
+        <v>729</v>
+      </c>
+      <c r="C526" t="s">
+        <v>61</v>
+      </c>
+      <c r="D526" t="s">
+        <v>737</v>
+      </c>
+      <c r="E526" t="s">
+        <v>84</v>
+      </c>
+      <c r="F526" t="s">
+        <v>67</v>
+      </c>
+      <c r="G526">
+        <v>20251007</v>
+      </c>
+      <c r="H526" t="s">
+        <v>221</v>
+      </c>
+      <c r="J526">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>703</v>
+      </c>
+      <c r="B527" t="s">
+        <v>730</v>
+      </c>
+      <c r="C527" t="s">
+        <v>61</v>
+      </c>
+      <c r="D527" t="s">
+        <v>737</v>
+      </c>
+      <c r="E527" t="s">
+        <v>394</v>
+      </c>
+      <c r="F527" t="s">
+        <v>66</v>
+      </c>
+      <c r="G527">
+        <v>20251007</v>
+      </c>
+      <c r="H527" t="s">
+        <v>221</v>
+      </c>
+      <c r="J527">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>704</v>
+      </c>
+      <c r="B528" t="s">
+        <v>731</v>
+      </c>
+      <c r="C528" t="s">
+        <v>60</v>
+      </c>
+      <c r="D528" t="s">
+        <v>737</v>
+      </c>
+      <c r="E528" t="s">
+        <v>365</v>
+      </c>
+      <c r="F528" t="s">
+        <v>66</v>
+      </c>
+      <c r="G528">
+        <v>20251007</v>
+      </c>
+      <c r="H528" t="s">
+        <v>221</v>
+      </c>
+      <c r="J528">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>705</v>
+      </c>
+      <c r="B529" t="s">
+        <v>732</v>
+      </c>
+      <c r="C529" t="s">
+        <v>62</v>
+      </c>
+      <c r="D529" t="s">
+        <v>737</v>
+      </c>
+      <c r="E529" t="s">
+        <v>86</v>
+      </c>
+      <c r="F529" t="s">
+        <v>67</v>
+      </c>
+      <c r="G529">
+        <v>20251007</v>
+      </c>
+      <c r="H529" t="s">
+        <v>221</v>
+      </c>
+      <c r="J529">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>706</v>
+      </c>
+      <c r="B530" t="s">
+        <v>733</v>
+      </c>
+      <c r="C530" t="s">
+        <v>65</v>
+      </c>
+      <c r="D530" t="s">
+        <v>737</v>
+      </c>
+      <c r="E530" t="s">
+        <v>573</v>
+      </c>
+      <c r="F530" t="s">
+        <v>66</v>
+      </c>
+      <c r="G530">
+        <v>20251007</v>
+      </c>
+      <c r="H530" t="s">
+        <v>221</v>
+      </c>
+      <c r="J530">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>707</v>
+      </c>
+      <c r="B531" t="s">
+        <v>734</v>
+      </c>
+      <c r="C531" t="s">
+        <v>60</v>
+      </c>
+      <c r="D531" t="s">
+        <v>737</v>
+      </c>
+      <c r="E531" t="s">
+        <v>100</v>
+      </c>
+      <c r="F531" t="s">
+        <v>67</v>
+      </c>
+      <c r="G531">
+        <v>20251007</v>
+      </c>
+      <c r="H531" t="s">
+        <v>221</v>
+      </c>
+      <c r="J531">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>708</v>
+      </c>
+      <c r="B532" t="s">
+        <v>735</v>
+      </c>
+      <c r="C532" t="s">
+        <v>65</v>
+      </c>
+      <c r="D532" t="s">
+        <v>737</v>
+      </c>
+      <c r="E532" t="s">
+        <v>509</v>
+      </c>
+      <c r="F532" t="s">
+        <v>66</v>
+      </c>
+      <c r="G532">
+        <v>20251007</v>
+      </c>
+      <c r="H532" t="s">
+        <v>221</v>
+      </c>
+      <c r="J532">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>709</v>
+      </c>
+      <c r="B533" t="s">
+        <v>736</v>
+      </c>
+      <c r="C533" t="s">
+        <v>63</v>
+      </c>
+      <c r="D533" t="s">
+        <v>737</v>
+      </c>
+      <c r="E533" t="s">
+        <v>87</v>
+      </c>
+      <c r="F533" t="s">
+        <v>66</v>
+      </c>
+      <c r="G533">
+        <v>20251007</v>
+      </c>
+      <c r="H533" t="s">
+        <v>221</v>
+      </c>
+      <c r="J533">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>725</v>
+      </c>
+      <c r="B534" t="s">
+        <v>745</v>
+      </c>
+      <c r="C534" t="s">
+        <v>61</v>
+      </c>
+      <c r="D534" t="s">
+        <v>782</v>
+      </c>
+      <c r="E534" t="s">
+        <v>793</v>
+      </c>
+      <c r="F534" t="s">
+        <v>66</v>
+      </c>
+      <c r="G534">
+        <v>20251007</v>
+      </c>
+      <c r="H534" t="s">
+        <v>19</v>
+      </c>
+      <c r="J534">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>726</v>
+      </c>
+      <c r="B535" t="s">
+        <v>746</v>
+      </c>
+      <c r="C535" t="s">
+        <v>62</v>
+      </c>
+      <c r="D535" t="s">
+        <v>783</v>
+      </c>
+      <c r="E535" t="s">
+        <v>794</v>
+      </c>
+      <c r="F535" t="s">
+        <v>66</v>
+      </c>
+      <c r="G535">
+        <v>20251007</v>
+      </c>
+      <c r="H535" t="s">
+        <v>19</v>
+      </c>
+      <c r="J535">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>727</v>
+      </c>
+      <c r="B536" t="s">
+        <v>747</v>
+      </c>
+      <c r="C536" t="s">
+        <v>64</v>
+      </c>
+      <c r="D536" t="s">
+        <v>784</v>
+      </c>
+      <c r="E536" t="s">
+        <v>795</v>
+      </c>
+      <c r="F536" t="s">
+        <v>66</v>
+      </c>
+      <c r="G536">
+        <v>20251007</v>
+      </c>
+      <c r="H536" t="s">
+        <v>19</v>
+      </c>
+      <c r="J536">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>728</v>
+      </c>
+      <c r="B537" t="s">
+        <v>748</v>
+      </c>
+      <c r="C537" t="s">
+        <v>65</v>
+      </c>
+      <c r="D537" t="s">
+        <v>785</v>
+      </c>
+      <c r="E537" t="s">
+        <v>796</v>
+      </c>
+      <c r="F537" t="s">
+        <v>66</v>
+      </c>
+      <c r="G537">
+        <v>20251007</v>
+      </c>
+      <c r="H537" t="s">
+        <v>19</v>
+      </c>
+      <c r="J537">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>729</v>
+      </c>
+      <c r="B538" t="s">
+        <v>749</v>
+      </c>
+      <c r="C538" t="s">
+        <v>61</v>
+      </c>
+      <c r="D538" t="s">
+        <v>786</v>
+      </c>
+      <c r="E538" t="s">
+        <v>84</v>
+      </c>
+      <c r="F538" t="s">
+        <v>67</v>
+      </c>
+      <c r="G538">
+        <v>20251007</v>
+      </c>
+      <c r="H538" t="s">
+        <v>19</v>
+      </c>
+      <c r="J538">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>730</v>
+      </c>
+      <c r="B539" t="s">
+        <v>750</v>
+      </c>
+      <c r="C539" t="s">
+        <v>744</v>
+      </c>
+      <c r="D539" t="s">
+        <v>787</v>
+      </c>
+      <c r="E539" t="s">
+        <v>80</v>
+      </c>
+      <c r="F539" t="s">
+        <v>67</v>
+      </c>
+      <c r="G539">
+        <v>20251007</v>
+      </c>
+      <c r="H539" t="s">
+        <v>19</v>
+      </c>
+      <c r="J539">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>731</v>
+      </c>
+      <c r="B540" t="s">
+        <v>751</v>
+      </c>
+      <c r="C540" t="s">
+        <v>59</v>
+      </c>
+      <c r="D540" t="s">
+        <v>788</v>
+      </c>
+      <c r="E540" t="s">
+        <v>100</v>
+      </c>
+      <c r="F540" t="s">
+        <v>67</v>
+      </c>
+      <c r="G540">
+        <v>20251007</v>
+      </c>
+      <c r="H540" t="s">
+        <v>19</v>
+      </c>
+      <c r="J540">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>732</v>
+      </c>
+      <c r="B541" t="s">
+        <v>752</v>
+      </c>
+      <c r="C541" t="s">
+        <v>60</v>
+      </c>
+      <c r="D541" t="s">
+        <v>789</v>
+      </c>
+      <c r="E541" t="s">
+        <v>797</v>
+      </c>
+      <c r="F541" t="s">
+        <v>66</v>
+      </c>
+      <c r="G541">
+        <v>20251007</v>
+      </c>
+      <c r="H541" t="s">
+        <v>19</v>
+      </c>
+      <c r="J541">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>733</v>
+      </c>
+      <c r="B542" t="s">
+        <v>753</v>
+      </c>
+      <c r="C542" t="s">
+        <v>59</v>
+      </c>
+      <c r="D542" t="s">
+        <v>790</v>
+      </c>
+      <c r="E542" t="s">
+        <v>234</v>
+      </c>
+      <c r="F542" t="s">
+        <v>66</v>
+      </c>
+      <c r="G542">
+        <v>20251007</v>
+      </c>
+      <c r="H542" t="s">
+        <v>19</v>
+      </c>
+      <c r="J542">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>734</v>
+      </c>
+      <c r="B543" t="s">
+        <v>754</v>
+      </c>
+      <c r="C543" t="s">
+        <v>63</v>
+      </c>
+      <c r="D543" t="s">
+        <v>791</v>
+      </c>
+      <c r="E543" t="s">
+        <v>798</v>
+      </c>
+      <c r="F543" t="s">
+        <v>66</v>
+      </c>
+      <c r="G543">
+        <v>20251007</v>
+      </c>
+      <c r="H543" t="s">
+        <v>19</v>
+      </c>
+      <c r="J543">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>735</v>
+      </c>
+      <c r="B544" t="s">
+        <v>755</v>
+      </c>
+      <c r="C544" t="s">
+        <v>62</v>
+      </c>
+      <c r="D544" t="s">
+        <v>792</v>
+      </c>
+      <c r="E544" t="s">
+        <v>80</v>
+      </c>
+      <c r="F544" t="s">
+        <v>67</v>
+      </c>
+      <c r="G544">
+        <v>20251007</v>
+      </c>
+      <c r="H544" t="s">
+        <v>19</v>
+      </c>
+      <c r="J544">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>736</v>
+      </c>
+      <c r="B545" t="s">
+        <v>756</v>
+      </c>
+      <c r="C545" t="s">
+        <v>61</v>
+      </c>
+      <c r="D545">
+        <v>2398</v>
+      </c>
+      <c r="E545" t="s">
+        <v>799</v>
+      </c>
+      <c r="F545" t="s">
+        <v>66</v>
+      </c>
+      <c r="G545">
+        <v>20251007</v>
+      </c>
+      <c r="H545" t="s">
+        <v>19</v>
+      </c>
+      <c r="J545">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>737</v>
+      </c>
+      <c r="B546" t="s">
+        <v>757</v>
+      </c>
+      <c r="C546" t="s">
+        <v>60</v>
+      </c>
+      <c r="D546">
+        <v>2398</v>
+      </c>
+      <c r="E546" t="s">
+        <v>82</v>
+      </c>
+      <c r="F546" t="s">
+        <v>67</v>
+      </c>
+      <c r="G546">
+        <v>20251007</v>
+      </c>
+      <c r="H546" t="s">
+        <v>19</v>
+      </c>
+      <c r="J546">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>738</v>
+      </c>
+      <c r="B547" t="s">
+        <v>758</v>
+      </c>
+      <c r="C547" t="s">
+        <v>65</v>
+      </c>
+      <c r="D547">
+        <v>2398</v>
+      </c>
+      <c r="E547" t="s">
+        <v>86</v>
+      </c>
+      <c r="F547" t="s">
+        <v>67</v>
+      </c>
+      <c r="G547">
+        <v>20251007</v>
+      </c>
+      <c r="H547" t="s">
+        <v>19</v>
+      </c>
+      <c r="J547">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>739</v>
+      </c>
+      <c r="B548" t="s">
+        <v>759</v>
+      </c>
+      <c r="C548" t="s">
+        <v>61</v>
+      </c>
+      <c r="D548">
+        <v>2398</v>
+      </c>
+      <c r="E548" t="s">
+        <v>80</v>
+      </c>
+      <c r="F548" t="s">
+        <v>67</v>
+      </c>
+      <c r="G548">
+        <v>20251007</v>
+      </c>
+      <c r="H548" t="s">
+        <v>19</v>
+      </c>
+      <c r="J548">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>740</v>
+      </c>
+      <c r="B549" t="s">
+        <v>760</v>
+      </c>
+      <c r="C549" t="s">
+        <v>62</v>
+      </c>
+      <c r="D549">
+        <v>2398</v>
+      </c>
+      <c r="E549" t="s">
+        <v>100</v>
+      </c>
+      <c r="F549" t="s">
+        <v>67</v>
+      </c>
+      <c r="G549">
+        <v>20251007</v>
+      </c>
+      <c r="H549" t="s">
+        <v>19</v>
+      </c>
+      <c r="J549">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>741</v>
+      </c>
+      <c r="B550" t="s">
+        <v>761</v>
+      </c>
+      <c r="C550" t="s">
+        <v>65</v>
+      </c>
+      <c r="D550">
+        <v>2398</v>
+      </c>
+      <c r="E550" t="s">
+        <v>142</v>
+      </c>
+      <c r="F550" t="s">
+        <v>66</v>
+      </c>
+      <c r="G550">
+        <v>20251007</v>
+      </c>
+      <c r="H550" t="s">
+        <v>19</v>
+      </c>
+      <c r="J550">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>742</v>
+      </c>
+      <c r="B551" t="s">
+        <v>762</v>
+      </c>
+      <c r="C551" t="s">
+        <v>60</v>
+      </c>
+      <c r="D551">
+        <v>2398</v>
+      </c>
+      <c r="E551" t="s">
+        <v>582</v>
+      </c>
+      <c r="F551" t="s">
+        <v>66</v>
+      </c>
+      <c r="G551">
+        <v>20251007</v>
+      </c>
+      <c r="H551" t="s">
+        <v>19</v>
+      </c>
+      <c r="J551">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>743</v>
+      </c>
+      <c r="B552" t="s">
+        <v>763</v>
+      </c>
+      <c r="C552" t="s">
+        <v>62</v>
+      </c>
+      <c r="D552">
+        <v>2398</v>
+      </c>
+      <c r="E552" t="s">
+        <v>800</v>
+      </c>
+      <c r="F552" t="s">
+        <v>66</v>
+      </c>
+      <c r="G552">
+        <v>20251007</v>
+      </c>
+      <c r="H552" t="s">
+        <v>19</v>
+      </c>
+      <c r="J552">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>744</v>
+      </c>
+      <c r="B553" t="s">
+        <v>764</v>
+      </c>
+      <c r="C553" t="s">
+        <v>64</v>
+      </c>
+      <c r="D553">
+        <v>1407</v>
+      </c>
+      <c r="E553" t="s">
+        <v>804</v>
+      </c>
+      <c r="F553" t="s">
+        <v>66</v>
+      </c>
+      <c r="G553">
+        <v>20251007</v>
+      </c>
+      <c r="H553" t="s">
+        <v>19</v>
+      </c>
+      <c r="J553">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>745</v>
+      </c>
+      <c r="B554" t="s">
+        <v>765</v>
+      </c>
+      <c r="C554" t="s">
+        <v>61</v>
+      </c>
+      <c r="D554">
+        <v>1407</v>
+      </c>
+      <c r="E554" t="s">
+        <v>84</v>
+      </c>
+      <c r="F554" t="s">
+        <v>67</v>
+      </c>
+      <c r="G554">
+        <v>20251007</v>
+      </c>
+      <c r="H554" t="s">
+        <v>19</v>
+      </c>
+      <c r="J554">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>746</v>
+      </c>
+      <c r="B555" t="s">
+        <v>766</v>
+      </c>
+      <c r="C555" t="s">
+        <v>61</v>
+      </c>
+      <c r="D555">
+        <v>1407</v>
+      </c>
+      <c r="E555" t="s">
+        <v>801</v>
+      </c>
+      <c r="F555" t="s">
+        <v>66</v>
+      </c>
+      <c r="G555">
+        <v>20251007</v>
+      </c>
+      <c r="H555" t="s">
+        <v>19</v>
+      </c>
+      <c r="J555">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>747</v>
+      </c>
+      <c r="B556" t="s">
+        <v>767</v>
+      </c>
+      <c r="C556" t="s">
+        <v>62</v>
+      </c>
+      <c r="D556">
+        <v>1407</v>
+      </c>
+      <c r="E556" t="s">
+        <v>802</v>
+      </c>
+      <c r="F556" t="s">
+        <v>66</v>
+      </c>
+      <c r="G556">
+        <v>20251007</v>
+      </c>
+      <c r="H556" t="s">
+        <v>19</v>
+      </c>
+      <c r="J556">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>748</v>
+      </c>
+      <c r="B557" t="s">
+        <v>768</v>
+      </c>
+      <c r="C557" t="s">
+        <v>62</v>
+      </c>
+      <c r="D557">
+        <v>1407</v>
+      </c>
+      <c r="E557" t="s">
+        <v>80</v>
+      </c>
+      <c r="F557" t="s">
+        <v>67</v>
+      </c>
+      <c r="G557">
+        <v>20251007</v>
+      </c>
+      <c r="H557" t="s">
+        <v>19</v>
+      </c>
+      <c r="J557">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>749</v>
+      </c>
+      <c r="B558" t="s">
+        <v>769</v>
+      </c>
+      <c r="C558" t="s">
+        <v>65</v>
+      </c>
+      <c r="D558">
+        <v>1407</v>
+      </c>
+      <c r="E558" t="s">
+        <v>311</v>
+      </c>
+      <c r="F558" t="s">
+        <v>66</v>
+      </c>
+      <c r="G558">
+        <v>20251007</v>
+      </c>
+      <c r="H558" t="s">
+        <v>19</v>
+      </c>
+      <c r="J558">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>775</v>
+      </c>
+      <c r="B559" t="s">
+        <v>770</v>
+      </c>
+      <c r="C559" t="s">
+        <v>60</v>
+      </c>
+      <c r="D559">
+        <v>1407</v>
+      </c>
+      <c r="E559" t="s">
+        <v>151</v>
+      </c>
+      <c r="F559" t="s">
+        <v>66</v>
+      </c>
+      <c r="G559">
+        <v>20251007</v>
+      </c>
+      <c r="H559" t="s">
+        <v>19</v>
+      </c>
+      <c r="J559">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>776</v>
+      </c>
+      <c r="B560" t="s">
+        <v>771</v>
+      </c>
+      <c r="C560" t="s">
+        <v>59</v>
+      </c>
+      <c r="D560">
+        <v>1407</v>
+      </c>
+      <c r="E560" t="s">
+        <v>86</v>
+      </c>
+      <c r="F560" t="s">
+        <v>67</v>
+      </c>
+      <c r="G560">
+        <v>20251007</v>
+      </c>
+      <c r="H560" t="s">
+        <v>19</v>
+      </c>
+      <c r="J560">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>777</v>
+      </c>
+      <c r="B561" t="s">
+        <v>772</v>
+      </c>
+      <c r="C561" t="s">
+        <v>61</v>
+      </c>
+      <c r="D561">
+        <v>1408</v>
+      </c>
+      <c r="E561" t="s">
+        <v>308</v>
+      </c>
+      <c r="F561" t="s">
+        <v>66</v>
+      </c>
+      <c r="G561">
+        <v>20251007</v>
+      </c>
+      <c r="H561" t="s">
+        <v>19</v>
+      </c>
+      <c r="J561">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>778</v>
+      </c>
+      <c r="B562" t="s">
+        <v>773</v>
+      </c>
+      <c r="C562" t="s">
+        <v>61</v>
+      </c>
+      <c r="D562">
+        <v>1408</v>
+      </c>
+      <c r="E562" t="s">
+        <v>84</v>
+      </c>
+      <c r="F562" t="s">
+        <v>67</v>
+      </c>
+      <c r="G562">
+        <v>20251007</v>
+      </c>
+      <c r="H562" t="s">
+        <v>19</v>
+      </c>
+      <c r="J562">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>779</v>
+      </c>
+      <c r="B563" t="s">
+        <v>774</v>
+      </c>
+      <c r="C563" t="s">
+        <v>60</v>
+      </c>
+      <c r="D563">
+        <v>1408</v>
+      </c>
+      <c r="E563" t="s">
+        <v>80</v>
+      </c>
+      <c r="F563" t="s">
+        <v>67</v>
+      </c>
+      <c r="G563">
+        <v>20251007</v>
+      </c>
+      <c r="H563" t="s">
+        <v>19</v>
+      </c>
+      <c r="J563">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>780</v>
+      </c>
+      <c r="B564" t="s">
+        <v>775</v>
+      </c>
+      <c r="C564" t="s">
+        <v>62</v>
+      </c>
+      <c r="D564">
+        <v>1408</v>
+      </c>
+      <c r="E564" t="s">
+        <v>80</v>
+      </c>
+      <c r="F564" t="s">
+        <v>67</v>
+      </c>
+      <c r="G564">
+        <v>20251007</v>
+      </c>
+      <c r="H564" t="s">
+        <v>19</v>
+      </c>
+      <c r="J564">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>781</v>
+      </c>
+      <c r="B565" t="s">
+        <v>776</v>
+      </c>
+      <c r="C565" t="s">
+        <v>59</v>
+      </c>
+      <c r="D565">
+        <v>1408</v>
+      </c>
+      <c r="E565" t="s">
+        <v>84</v>
+      </c>
+      <c r="F565" t="s">
+        <v>67</v>
+      </c>
+      <c r="G565">
+        <v>20251007</v>
+      </c>
+      <c r="H565" t="s">
+        <v>19</v>
+      </c>
+      <c r="J565">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>782</v>
+      </c>
+      <c r="B566" t="s">
+        <v>777</v>
+      </c>
+      <c r="C566" t="s">
+        <v>65</v>
+      </c>
+      <c r="D566">
+        <v>1408</v>
+      </c>
+      <c r="E566" t="s">
+        <v>72</v>
+      </c>
+      <c r="F566" t="s">
+        <v>66</v>
+      </c>
+      <c r="G566">
+        <v>20251007</v>
+      </c>
+      <c r="H566" t="s">
+        <v>19</v>
+      </c>
+      <c r="J566">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>783</v>
+      </c>
+      <c r="B567" t="s">
+        <v>778</v>
+      </c>
+      <c r="C567" t="s">
+        <v>59</v>
+      </c>
+      <c r="D567">
+        <v>1408</v>
+      </c>
+      <c r="E567" t="s">
+        <v>803</v>
+      </c>
+      <c r="F567" t="s">
+        <v>66</v>
+      </c>
+      <c r="G567">
+        <v>20251007</v>
+      </c>
+      <c r="H567" t="s">
+        <v>19</v>
+      </c>
+      <c r="J567">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>784</v>
+      </c>
+      <c r="B568" t="s">
+        <v>779</v>
+      </c>
+      <c r="C568" t="s">
+        <v>62</v>
+      </c>
+      <c r="D568">
+        <v>1408</v>
+      </c>
+      <c r="E568" t="s">
+        <v>309</v>
+      </c>
+      <c r="F568" t="s">
+        <v>66</v>
+      </c>
+      <c r="G568">
+        <v>20251007</v>
+      </c>
+      <c r="H568" t="s">
+        <v>19</v>
+      </c>
+      <c r="J568">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>785</v>
+      </c>
+      <c r="B569" t="s">
+        <v>780</v>
+      </c>
+      <c r="C569" t="s">
+        <v>63</v>
+      </c>
+      <c r="D569">
+        <v>1408</v>
+      </c>
+      <c r="E569" t="s">
+        <v>740</v>
+      </c>
+      <c r="F569" t="s">
+        <v>66</v>
+      </c>
+      <c r="G569">
+        <v>20251007</v>
+      </c>
+      <c r="H569" t="s">
+        <v>19</v>
+      </c>
+      <c r="J569">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>786</v>
+      </c>
+      <c r="B570" t="s">
+        <v>781</v>
+      </c>
+      <c r="C570" t="s">
+        <v>64</v>
+      </c>
+      <c r="D570">
+        <v>1408</v>
+      </c>
+      <c r="E570" t="s">
+        <v>87</v>
+      </c>
+      <c r="F570" t="s">
+        <v>66</v>
+      </c>
+      <c r="G570">
+        <v>20251007</v>
+      </c>
+      <c r="H570" t="s">
+        <v>19</v>
+      </c>
+      <c r="J570">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>599</v>
+      </c>
+      <c r="B571" t="s">
+        <v>807</v>
+      </c>
+      <c r="C571" t="s">
+        <v>62</v>
+      </c>
+      <c r="D571">
+        <v>1410</v>
+      </c>
+      <c r="E571" t="s">
+        <v>806</v>
+      </c>
+      <c r="F571" t="s">
+        <v>66</v>
+      </c>
+      <c r="G571">
+        <v>20251007</v>
+      </c>
+      <c r="H571" t="s">
+        <v>108</v>
+      </c>
+      <c r="J571">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>518</v>
+      </c>
+      <c r="B572" t="s">
+        <v>808</v>
+      </c>
+      <c r="C572" t="s">
+        <v>61</v>
+      </c>
+      <c r="D572">
+        <v>1410</v>
+      </c>
+      <c r="E572" t="s">
+        <v>201</v>
+      </c>
+      <c r="F572" t="s">
+        <v>66</v>
+      </c>
+      <c r="G572">
+        <v>20251007</v>
+      </c>
+      <c r="H572" t="s">
+        <v>108</v>
+      </c>
+      <c r="J572">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>558</v>
+      </c>
+      <c r="B573" t="s">
+        <v>809</v>
+      </c>
+      <c r="C573" t="s">
+        <v>62</v>
+      </c>
+      <c r="D573">
+        <v>1410</v>
+      </c>
+      <c r="E573" t="s">
+        <v>84</v>
+      </c>
+      <c r="F573" t="s">
+        <v>67</v>
+      </c>
+      <c r="G573">
+        <v>20251007</v>
+      </c>
+      <c r="H573" t="s">
+        <v>108</v>
+      </c>
+      <c r="J573">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>555</v>
+      </c>
+      <c r="B574" t="s">
+        <v>810</v>
+      </c>
+      <c r="C574" t="s">
+        <v>60</v>
+      </c>
+      <c r="D574">
+        <v>1410</v>
+      </c>
+      <c r="E574" t="s">
+        <v>366</v>
+      </c>
+      <c r="F574" t="s">
+        <v>66</v>
+      </c>
+      <c r="G574">
+        <v>20251007</v>
+      </c>
+      <c r="H574" t="s">
+        <v>108</v>
+      </c>
+      <c r="J574">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>521</v>
+      </c>
+      <c r="B575" t="s">
+        <v>811</v>
+      </c>
+      <c r="C575" t="s">
+        <v>60</v>
+      </c>
+      <c r="D575">
+        <v>1410</v>
+      </c>
+      <c r="E575" t="s">
+        <v>140</v>
+      </c>
+      <c r="F575" t="s">
+        <v>67</v>
+      </c>
+      <c r="G575">
+        <v>20251007</v>
+      </c>
+      <c r="H575" t="s">
+        <v>108</v>
+      </c>
+      <c r="J575">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>524</v>
+      </c>
+      <c r="B576" t="s">
+        <v>812</v>
+      </c>
+      <c r="C576" t="s">
+        <v>59</v>
+      </c>
+      <c r="D576">
+        <v>1410</v>
+      </c>
+      <c r="E576" t="s">
+        <v>135</v>
+      </c>
+      <c r="F576" t="s">
+        <v>67</v>
+      </c>
+      <c r="G576">
+        <v>20251007</v>
+      </c>
+      <c r="H576" t="s">
+        <v>108</v>
+      </c>
+      <c r="J576">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>600</v>
+      </c>
+      <c r="B577" t="s">
+        <v>813</v>
+      </c>
+      <c r="C577" t="s">
+        <v>65</v>
+      </c>
+      <c r="D577">
+        <v>1410</v>
+      </c>
+      <c r="E577" t="s">
+        <v>395</v>
+      </c>
+      <c r="F577" t="s">
+        <v>66</v>
+      </c>
+      <c r="G577">
+        <v>20251007</v>
+      </c>
+      <c r="H577" t="s">
+        <v>108</v>
+      </c>
+      <c r="J577">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>601</v>
+      </c>
+      <c r="B578" t="s">
+        <v>814</v>
+      </c>
+      <c r="C578" t="s">
+        <v>61</v>
+      </c>
+      <c r="D578">
+        <v>1410</v>
+      </c>
+      <c r="E578" t="s">
+        <v>84</v>
+      </c>
+      <c r="F578" t="s">
+        <v>67</v>
+      </c>
+      <c r="G578">
+        <v>20251007</v>
+      </c>
+      <c r="H578" t="s">
+        <v>108</v>
+      </c>
+      <c r="J578">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>604</v>
+      </c>
+      <c r="B579" t="s">
+        <v>815</v>
+      </c>
+      <c r="C579" t="s">
+        <v>59</v>
+      </c>
+      <c r="D579">
+        <v>1410</v>
+      </c>
+      <c r="E579" t="s">
+        <v>740</v>
+      </c>
+      <c r="F579" t="s">
+        <v>67</v>
+      </c>
+      <c r="G579">
+        <v>20251007</v>
+      </c>
+      <c r="H579" t="s">
+        <v>108</v>
+      </c>
+      <c r="J579">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>602</v>
+      </c>
+      <c r="B580" t="s">
+        <v>816</v>
+      </c>
+      <c r="C580" t="s">
+        <v>60</v>
+      </c>
+      <c r="D580">
+        <v>2392</v>
+      </c>
+      <c r="E580" t="s">
+        <v>86</v>
+      </c>
+      <c r="F580" t="s">
+        <v>67</v>
+      </c>
+      <c r="G580">
+        <v>20251007</v>
+      </c>
+      <c r="H580" t="s">
+        <v>18</v>
+      </c>
+      <c r="J580">
+        <v>49</v>
+      </c>
+      <c r="K580" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>603</v>
+      </c>
+      <c r="B581" t="s">
+        <v>817</v>
+      </c>
+      <c r="C581" t="s">
+        <v>59</v>
+      </c>
+      <c r="D581">
+        <v>2392</v>
+      </c>
+      <c r="E581" t="s">
+        <v>86</v>
+      </c>
+      <c r="F581" t="s">
+        <v>67</v>
+      </c>
+      <c r="G581">
+        <v>20251007</v>
+      </c>
+      <c r="H581" t="s">
+        <v>18</v>
+      </c>
+      <c r="J581">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>556</v>
+      </c>
+      <c r="B582" t="s">
+        <v>818</v>
+      </c>
+      <c r="C582" t="s">
+        <v>61</v>
+      </c>
+      <c r="D582">
+        <v>2392</v>
+      </c>
+      <c r="E582" t="s">
+        <v>80</v>
+      </c>
+      <c r="F582" t="s">
+        <v>67</v>
+      </c>
+      <c r="G582">
+        <v>20251007</v>
+      </c>
+      <c r="H582" t="s">
+        <v>18</v>
+      </c>
+      <c r="J582">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>557</v>
+      </c>
+      <c r="B583" t="s">
+        <v>819</v>
+      </c>
+      <c r="C583" t="s">
+        <v>62</v>
+      </c>
+      <c r="D583">
+        <v>2392</v>
+      </c>
+      <c r="E583" t="s">
+        <v>84</v>
+      </c>
+      <c r="F583" t="s">
+        <v>67</v>
+      </c>
+      <c r="G583">
+        <v>20251007</v>
+      </c>
+      <c r="H583" t="s">
+        <v>18</v>
+      </c>
+      <c r="J583">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>559</v>
+      </c>
+      <c r="B584" t="s">
+        <v>820</v>
+      </c>
+      <c r="C584" t="s">
+        <v>65</v>
+      </c>
+      <c r="D584">
+        <v>2392</v>
+      </c>
+      <c r="E584" t="s">
+        <v>230</v>
+      </c>
+      <c r="F584" t="s">
+        <v>66</v>
+      </c>
+      <c r="G584">
+        <v>20251007</v>
+      </c>
+      <c r="H584" t="s">
+        <v>18</v>
+      </c>
+      <c r="J584">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>560</v>
+      </c>
+      <c r="B585" t="s">
+        <v>821</v>
+      </c>
+      <c r="C585" t="s">
+        <v>61</v>
+      </c>
+      <c r="D585">
+        <v>2392</v>
+      </c>
+      <c r="E585" t="s">
+        <v>830</v>
+      </c>
+      <c r="F585" t="s">
+        <v>66</v>
+      </c>
+      <c r="G585">
+        <v>20251007</v>
+      </c>
+      <c r="H585" t="s">
+        <v>18</v>
+      </c>
+      <c r="J585">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>561</v>
+      </c>
+      <c r="B586" t="s">
+        <v>822</v>
+      </c>
+      <c r="C586" t="s">
+        <v>64</v>
+      </c>
+      <c r="D586">
+        <v>2392</v>
+      </c>
+      <c r="E586" t="s">
+        <v>831</v>
+      </c>
+      <c r="F586" t="s">
+        <v>66</v>
+      </c>
+      <c r="G586">
+        <v>20251007</v>
+      </c>
+      <c r="H586" t="s">
+        <v>18</v>
+      </c>
+      <c r="J586">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>562</v>
+      </c>
+      <c r="B587" t="s">
+        <v>823</v>
+      </c>
+      <c r="C587" t="s">
+        <v>60</v>
+      </c>
+      <c r="D587">
+        <v>2392</v>
+      </c>
+      <c r="E587" t="s">
+        <v>234</v>
+      </c>
+      <c r="F587" t="s">
+        <v>66</v>
+      </c>
+      <c r="G587">
+        <v>20251007</v>
+      </c>
+      <c r="H587" t="s">
+        <v>18</v>
+      </c>
+      <c r="J587">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>563</v>
+      </c>
+      <c r="B588" t="s">
+        <v>824</v>
+      </c>
+      <c r="C588" t="s">
+        <v>63</v>
+      </c>
+      <c r="D588">
+        <v>2392</v>
+      </c>
+      <c r="E588" t="s">
+        <v>796</v>
+      </c>
+      <c r="F588" t="s">
+        <v>66</v>
+      </c>
+      <c r="G588">
+        <v>20251007</v>
+      </c>
+      <c r="H588" t="s">
+        <v>18</v>
+      </c>
+      <c r="J588">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>519</v>
+      </c>
+      <c r="B589" t="s">
+        <v>825</v>
+      </c>
+      <c r="C589" t="s">
+        <v>62</v>
+      </c>
+      <c r="D589">
+        <v>2392</v>
+      </c>
+      <c r="E589" t="s">
+        <v>738</v>
+      </c>
+      <c r="F589" t="s">
+        <v>66</v>
+      </c>
+      <c r="G589">
+        <v>20251007</v>
+      </c>
+      <c r="H589" t="s">
+        <v>18</v>
+      </c>
+      <c r="J589">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>523</v>
+      </c>
+      <c r="B590" t="s">
+        <v>826</v>
+      </c>
+      <c r="C590" t="s">
+        <v>59</v>
+      </c>
+      <c r="D590">
+        <v>2392</v>
+      </c>
+      <c r="E590" t="s">
+        <v>72</v>
+      </c>
+      <c r="F590" t="s">
+        <v>66</v>
+      </c>
+      <c r="G590">
+        <v>20251007</v>
+      </c>
+      <c r="H590" t="s">
+        <v>18</v>
+      </c>
+      <c r="J590">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>564</v>
+      </c>
+      <c r="B591" t="s">
+        <v>827</v>
+      </c>
+      <c r="C591" t="s">
+        <v>65</v>
+      </c>
+      <c r="D591">
+        <v>2392</v>
+      </c>
+      <c r="E591" t="s">
+        <v>80</v>
+      </c>
+      <c r="F591" t="s">
+        <v>67</v>
+      </c>
+      <c r="G591">
+        <v>20251007</v>
+      </c>
+      <c r="H591" t="s">
+        <v>18</v>
+      </c>
+      <c r="J591">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>565</v>
+      </c>
+      <c r="B592" t="s">
+        <v>828</v>
+      </c>
+      <c r="C592" t="s">
+        <v>64</v>
+      </c>
+      <c r="D592">
+        <v>2392</v>
+      </c>
+      <c r="E592" t="s">
+        <v>84</v>
+      </c>
+      <c r="F592" t="s">
+        <v>67</v>
+      </c>
+      <c r="G592">
+        <v>20251007</v>
+      </c>
+      <c r="H592" t="s">
+        <v>18</v>
+      </c>
+      <c r="J592">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>566</v>
+      </c>
+      <c r="B593" t="s">
+        <v>829</v>
+      </c>
+      <c r="C593" t="s">
+        <v>63</v>
+      </c>
+      <c r="D593">
+        <v>2392</v>
+      </c>
+      <c r="E593" t="s">
+        <v>471</v>
+      </c>
+      <c r="F593" t="s">
+        <v>66</v>
+      </c>
+      <c r="G593">
+        <v>20251007</v>
+      </c>
+      <c r="H593" t="s">
+        <v>18</v>
+      </c>
+      <c r="J593">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>577</v>
+      </c>
+      <c r="B594" t="s">
+        <v>823</v>
+      </c>
+      <c r="C594" t="s">
+        <v>63</v>
+      </c>
+      <c r="D594">
+        <v>2393</v>
+      </c>
+      <c r="E594" t="s">
+        <v>84</v>
+      </c>
+      <c r="F594" t="s">
+        <v>67</v>
+      </c>
+      <c r="G594">
+        <v>20251007</v>
+      </c>
+      <c r="H594" t="s">
+        <v>18</v>
+      </c>
+      <c r="J594">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>578</v>
+      </c>
+      <c r="B595" t="s">
+        <v>824</v>
+      </c>
+      <c r="C595" t="s">
+        <v>61</v>
+      </c>
+      <c r="D595">
+        <v>2393</v>
+      </c>
+      <c r="E595" t="s">
+        <v>132</v>
+      </c>
+      <c r="F595" t="s">
+        <v>67</v>
+      </c>
+      <c r="G595">
+        <v>20251007</v>
+      </c>
+      <c r="H595" t="s">
+        <v>18</v>
+      </c>
+      <c r="J595">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>579</v>
+      </c>
+      <c r="B596" t="s">
+        <v>825</v>
+      </c>
+      <c r="C596" t="s">
+        <v>59</v>
+      </c>
+      <c r="D596">
+        <v>2393</v>
+      </c>
+      <c r="E596" t="s">
+        <v>82</v>
+      </c>
+      <c r="F596" t="s">
+        <v>67</v>
+      </c>
+      <c r="G596">
+        <v>20251007</v>
+      </c>
+      <c r="H596" t="s">
+        <v>18</v>
+      </c>
+      <c r="J596">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>675</v>
+      </c>
+      <c r="B597" t="s">
+        <v>832</v>
+      </c>
+      <c r="C597" t="s">
+        <v>60</v>
+      </c>
+      <c r="D597">
+        <v>2393</v>
+      </c>
+      <c r="E597" t="s">
+        <v>135</v>
+      </c>
+      <c r="F597" t="s">
+        <v>66</v>
+      </c>
+      <c r="G597">
+        <v>20251007</v>
+      </c>
+      <c r="H597" t="s">
+        <v>18</v>
+      </c>
+      <c r="J597">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>676</v>
+      </c>
+      <c r="B598" t="s">
+        <v>833</v>
+      </c>
+      <c r="C598" t="s">
+        <v>62</v>
+      </c>
+      <c r="D598">
+        <v>2393</v>
+      </c>
+      <c r="E598" t="s">
+        <v>357</v>
+      </c>
+      <c r="F598" t="s">
+        <v>66</v>
+      </c>
+      <c r="G598">
+        <v>20251007</v>
+      </c>
+      <c r="H598" t="s">
+        <v>18</v>
+      </c>
+      <c r="J598">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>677</v>
+      </c>
+      <c r="B599" t="s">
+        <v>834</v>
+      </c>
+      <c r="C599" t="s">
+        <v>65</v>
+      </c>
+      <c r="D599">
+        <v>2393</v>
+      </c>
+      <c r="E599" t="s">
+        <v>82</v>
+      </c>
+      <c r="F599" t="s">
+        <v>67</v>
+      </c>
+      <c r="G599">
+        <v>20251007</v>
+      </c>
+      <c r="H599" t="s">
+        <v>18</v>
+      </c>
+      <c r="J599">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>678</v>
+      </c>
+      <c r="B600" t="s">
+        <v>835</v>
+      </c>
+      <c r="C600" t="s">
+        <v>61</v>
+      </c>
+      <c r="D600">
+        <v>2393</v>
+      </c>
+      <c r="E600" t="s">
+        <v>312</v>
+      </c>
+      <c r="F600" t="s">
+        <v>66</v>
+      </c>
+      <c r="G600">
+        <v>20251007</v>
+      </c>
+      <c r="H600" t="s">
+        <v>18</v>
+      </c>
+      <c r="J600">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>679</v>
+      </c>
+      <c r="B601" t="s">
+        <v>836</v>
+      </c>
+      <c r="C601" t="s">
+        <v>60</v>
+      </c>
+      <c r="D601">
+        <v>2393</v>
+      </c>
+      <c r="E601" t="s">
+        <v>393</v>
+      </c>
+      <c r="F601" t="s">
+        <v>66</v>
+      </c>
+      <c r="G601">
+        <v>20251007</v>
+      </c>
+      <c r="H601" t="s">
+        <v>18</v>
+      </c>
+      <c r="J601">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>680</v>
+      </c>
+      <c r="B602" t="s">
+        <v>837</v>
+      </c>
+      <c r="C602" t="s">
+        <v>59</v>
+      </c>
+      <c r="D602">
+        <v>2393</v>
+      </c>
+      <c r="E602" t="s">
+        <v>72</v>
+      </c>
+      <c r="F602" t="s">
+        <v>67</v>
+      </c>
+      <c r="G602">
+        <v>20251007</v>
+      </c>
+      <c r="H602" t="s">
+        <v>18</v>
+      </c>
+      <c r="J602">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>681</v>
+      </c>
+      <c r="B603" t="s">
+        <v>838</v>
+      </c>
+      <c r="C603" t="s">
+        <v>63</v>
+      </c>
+      <c r="D603">
+        <v>2393</v>
+      </c>
+      <c r="E603" t="s">
+        <v>82</v>
+      </c>
+      <c r="F603" t="s">
+        <v>66</v>
+      </c>
+      <c r="G603">
+        <v>20251007</v>
+      </c>
+      <c r="H603" t="s">
+        <v>18</v>
+      </c>
+      <c r="J603">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>682</v>
+      </c>
+      <c r="B604" t="s">
+        <v>839</v>
+      </c>
+      <c r="C604" t="s">
+        <v>62</v>
+      </c>
+      <c r="D604">
+        <v>2393</v>
+      </c>
+      <c r="E604" t="s">
+        <v>86</v>
+      </c>
+      <c r="F604" t="s">
+        <v>66</v>
+      </c>
+      <c r="G604">
+        <v>20251007</v>
+      </c>
+      <c r="H604" t="s">
+        <v>18</v>
+      </c>
+      <c r="J604">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>683</v>
+      </c>
+      <c r="B605" t="s">
+        <v>840</v>
+      </c>
+      <c r="C605" t="s">
+        <v>63</v>
+      </c>
+      <c r="D605">
+        <v>2393</v>
+      </c>
+      <c r="E605" t="s">
+        <v>136</v>
+      </c>
+      <c r="F605" t="s">
+        <v>66</v>
+      </c>
+      <c r="G605">
+        <v>20251007</v>
+      </c>
+      <c r="H605" t="s">
+        <v>18</v>
+      </c>
+      <c r="J605">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>684</v>
+      </c>
+      <c r="B606" t="s">
+        <v>841</v>
+      </c>
+      <c r="C606" t="s">
+        <v>63</v>
+      </c>
+      <c r="D606">
+        <v>2393</v>
+      </c>
+      <c r="E606" t="s">
+        <v>87</v>
+      </c>
+      <c r="F606" t="s">
+        <v>66</v>
+      </c>
+      <c r="G606">
+        <v>20251007</v>
+      </c>
+      <c r="H606" t="s">
+        <v>18</v>
+      </c>
+      <c r="J606">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>685</v>
+      </c>
+      <c r="B607" t="s">
+        <v>842</v>
+      </c>
+      <c r="C607" t="s">
+        <v>65</v>
+      </c>
+      <c r="D607">
+        <v>2393</v>
+      </c>
+      <c r="E607" t="s">
+        <v>845</v>
+      </c>
+      <c r="F607" t="s">
+        <v>67</v>
+      </c>
+      <c r="G607">
+        <v>20251007</v>
+      </c>
+      <c r="H607" t="s">
+        <v>18</v>
+      </c>
+      <c r="J607">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>686</v>
+      </c>
+      <c r="B608" t="s">
+        <v>843</v>
+      </c>
+      <c r="C608" t="s">
+        <v>65</v>
+      </c>
+      <c r="D608">
+        <v>2393</v>
+      </c>
+      <c r="E608" t="s">
+        <v>140</v>
+      </c>
+      <c r="F608" t="s">
+        <v>67</v>
+      </c>
+      <c r="G608">
+        <v>20251007</v>
+      </c>
+      <c r="H608" t="s">
+        <v>18</v>
+      </c>
+      <c r="J608">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>687</v>
+      </c>
+      <c r="B609" t="s">
+        <v>844</v>
+      </c>
+      <c r="C609" t="s">
+        <v>65</v>
+      </c>
+      <c r="D609">
+        <v>2393</v>
+      </c>
+      <c r="E609" t="s">
+        <v>317</v>
+      </c>
+      <c r="F609" t="s">
+        <v>67</v>
+      </c>
+      <c r="G609">
+        <v>20251007</v>
+      </c>
+      <c r="H609" t="s">
+        <v>18</v>
+      </c>
+      <c r="J609">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/F25_Sampling.xlsx
+++ b/F25_Sampling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trini/Documents/Shedd/biota_project_genomicshifts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7DCEEC-424D-4E49-88B6-7190AB0DA0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6562E118-875D-6848-B82F-69F62C0640EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="500" windowWidth="17140" windowHeight="17620" activeTab="1" xr2:uid="{07AAFEEF-A83C-484C-8992-E89847C75F27}"/>
+    <workbookView xWindow="680" yWindow="500" windowWidth="32900" windowHeight="17620" activeTab="1" xr2:uid="{07AAFEEF-A83C-484C-8992-E89847C75F27}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="950">
   <si>
     <t xml:space="preserve">Bag </t>
   </si>
@@ -2578,6 +2578,318 @@
   </si>
   <si>
     <t>5x4</t>
+  </si>
+  <si>
+    <t>F25_622</t>
+  </si>
+  <si>
+    <t>F25_623</t>
+  </si>
+  <si>
+    <t>F25_624</t>
+  </si>
+  <si>
+    <t>F25_625</t>
+  </si>
+  <si>
+    <t>F25_626</t>
+  </si>
+  <si>
+    <t>F25_627</t>
+  </si>
+  <si>
+    <t>F25_628</t>
+  </si>
+  <si>
+    <t>F25_629</t>
+  </si>
+  <si>
+    <t>F25_630</t>
+  </si>
+  <si>
+    <t>F25_631</t>
+  </si>
+  <si>
+    <t>F25_632</t>
+  </si>
+  <si>
+    <t>F25_633</t>
+  </si>
+  <si>
+    <t>F25_634</t>
+  </si>
+  <si>
+    <t>F25_635</t>
+  </si>
+  <si>
+    <t>F25_636</t>
+  </si>
+  <si>
+    <t>F25_637</t>
+  </si>
+  <si>
+    <t>F25_638</t>
+  </si>
+  <si>
+    <t>F25_639</t>
+  </si>
+  <si>
+    <t>F25_640</t>
+  </si>
+  <si>
+    <t>F25_641</t>
+  </si>
+  <si>
+    <t>F25_642</t>
+  </si>
+  <si>
+    <t>30x4</t>
+  </si>
+  <si>
+    <t>40x25</t>
+  </si>
+  <si>
+    <t>SS503</t>
+  </si>
+  <si>
+    <t>SS501</t>
+  </si>
+  <si>
+    <t>F25_805</t>
+  </si>
+  <si>
+    <t>F25_811</t>
+  </si>
+  <si>
+    <t>F25_806</t>
+  </si>
+  <si>
+    <t>might be combined with 790</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>F25_812</t>
+  </si>
+  <si>
+    <t>F25_813</t>
+  </si>
+  <si>
+    <t>F25_803</t>
+  </si>
+  <si>
+    <t>F25_814</t>
+  </si>
+  <si>
+    <t>F25_815</t>
+  </si>
+  <si>
+    <t>F25_809</t>
+  </si>
+  <si>
+    <t>F25_810</t>
+  </si>
+  <si>
+    <t>F25_807</t>
+  </si>
+  <si>
+    <t>F25_804</t>
+  </si>
+  <si>
+    <t>F25_802</t>
+  </si>
+  <si>
+    <t>F25_801</t>
+  </si>
+  <si>
+    <t>F25_808</t>
+  </si>
+  <si>
+    <t>F25_686</t>
+  </si>
+  <si>
+    <t>F25_687</t>
+  </si>
+  <si>
+    <t>F25_688</t>
+  </si>
+  <si>
+    <t>F25_690</t>
+  </si>
+  <si>
+    <t>F25_679</t>
+  </si>
+  <si>
+    <t>F25_689</t>
+  </si>
+  <si>
+    <t>F25_481</t>
+  </si>
+  <si>
+    <t>F25_682</t>
+  </si>
+  <si>
+    <t>triple check tissue inside</t>
+  </si>
+  <si>
+    <t>F25_691</t>
+  </si>
+  <si>
+    <t>F25_482</t>
+  </si>
+  <si>
+    <t>F25_680</t>
+  </si>
+  <si>
+    <t>F25_678</t>
+  </si>
+  <si>
+    <t>F25_692</t>
+  </si>
+  <si>
+    <t>**depth assumed</t>
+  </si>
+  <si>
+    <t>F25_653</t>
+  </si>
+  <si>
+    <t>F25_654</t>
+  </si>
+  <si>
+    <t>F25_655</t>
+  </si>
+  <si>
+    <t>F25_656</t>
+  </si>
+  <si>
+    <t>nosample</t>
+  </si>
+  <si>
+    <t>F25_657</t>
+  </si>
+  <si>
+    <t>F25_658</t>
+  </si>
+  <si>
+    <t>F25_659</t>
+  </si>
+  <si>
+    <t>F25_660</t>
+  </si>
+  <si>
+    <t>F25_661</t>
+  </si>
+  <si>
+    <t>F25_662</t>
+  </si>
+  <si>
+    <t>F25_663</t>
+  </si>
+  <si>
+    <t>F25_664</t>
+  </si>
+  <si>
+    <t>F25_702</t>
+  </si>
+  <si>
+    <t>F25_698</t>
+  </si>
+  <si>
+    <t>F25_693</t>
+  </si>
+  <si>
+    <t>Ssid -- no tube see what tube doenst have an assignment?</t>
+  </si>
+  <si>
+    <t>F25_695</t>
+  </si>
+  <si>
+    <t>F25_673</t>
+  </si>
+  <si>
+    <t>F25_683</t>
+  </si>
+  <si>
+    <t>F25_668</t>
+  </si>
+  <si>
+    <t>F25_676</t>
+  </si>
+  <si>
+    <t>F25_665</t>
+  </si>
+  <si>
+    <t>F25_674</t>
+  </si>
+  <si>
+    <t>F25_697</t>
+  </si>
+  <si>
+    <t>F25_669</t>
+  </si>
+  <si>
+    <t>F25_685</t>
+  </si>
+  <si>
+    <t>F25_666</t>
+  </si>
+  <si>
+    <t>F25_667</t>
+  </si>
+  <si>
+    <t>F25_670</t>
+  </si>
+  <si>
+    <t>F25_672</t>
+  </si>
+  <si>
+    <t>F25_699</t>
+  </si>
+  <si>
+    <t>F25_675</t>
+  </si>
+  <si>
+    <t>F25_684</t>
+  </si>
+  <si>
+    <t>F25_671</t>
+  </si>
+  <si>
+    <t>F25_700</t>
+  </si>
+  <si>
+    <t>F25_701</t>
+  </si>
+  <si>
+    <t>F25_648</t>
+  </si>
+  <si>
+    <t>F25_649</t>
+  </si>
+  <si>
+    <t>F25_650</t>
+  </si>
+  <si>
+    <t>F25_651</t>
+  </si>
+  <si>
+    <t>F25_652</t>
+  </si>
+  <si>
+    <t>F25_643</t>
+  </si>
+  <si>
+    <t>F25_644</t>
+  </si>
+  <si>
+    <t>F25_645</t>
+  </si>
+  <si>
+    <t>F25_646</t>
+  </si>
+  <si>
+    <t>F25_647</t>
   </si>
 </sst>
 </file>
@@ -3741,10 +4053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859618DA-7D2E-F14A-9531-A0F7323C3157}">
-  <dimension ref="A1:P609"/>
+  <dimension ref="A1:P715"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="I613" sqref="I613"/>
+    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
+      <selection activeCell="K711" sqref="K711"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3898,15 +4210,15 @@
       </c>
       <c r="N4" s="20">
         <f>COUNTIFS(C:C, "Cnat")</f>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="O4" s="12">
         <f>COUNTIFS(C:C,"Cnat", F:F, "Y" )</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P4" s="17">
         <f>COUNTIFS(C:C,"Cnat", F:F, "N" )</f>
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -3945,15 +4257,15 @@
       </c>
       <c r="N5" s="21">
         <f>COUNTIFS(C:C, "Dlab")</f>
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="O5" s="13">
         <f>COUNTIFS(C:C,"Dlab", F:F, "Y" )</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="P5" s="18">
         <f>COUNTIFS(C:C,"Dlab", F:F, "N" )</f>
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3989,15 +4301,15 @@
       </c>
       <c r="N6" s="21">
         <f>COUNTIFS(C:C,"Mcav")</f>
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O6" s="13">
         <f>COUNTIFS(C:C,"Mcav", F:F, "Y" )</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P6" s="18">
         <f>COUNTIFS(C:C,"Mcav", F:F, "N" )</f>
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -4033,15 +4345,15 @@
       </c>
       <c r="N7" s="21">
         <f>COUNTIFS(C:C, "Sint")</f>
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="O7" s="14">
         <f>COUNTIFS(C:C,"Sint", F:F, "Y" )</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P7" s="18">
         <f>COUNTIFS(C:C,"Sint", F:F, "N" )</f>
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -4080,15 +4392,15 @@
       </c>
       <c r="N8" s="21">
         <f>COUNTIFS(C:C, "Past")</f>
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="O8" s="13">
         <f>COUNTIFS(C:C,"Past", F:F, "Y" )</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="P8" s="18">
         <f>COUNTIFS(C:C,"Past", F:F, "N" )</f>
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -4127,15 +4439,15 @@
       </c>
       <c r="N9" s="21">
         <f>COUNTIFS(C:C, "Pstr")</f>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="O9" s="13">
         <f>COUNTIFS(C:C,"Pstr", F:F, "Y" )</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P9" s="18">
         <f>COUNTIFS(C:C,"Pstr", F:F, "N" )</f>
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -4171,15 +4483,15 @@
       </c>
       <c r="N10" s="21">
         <f>COUNTIFS(C:C, "Ssid")</f>
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="O10" s="13">
         <f>COUNTIFS(C:C,"Ssid", F:F, "Y" )</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P10" s="18">
         <f>COUNTIFS(C:C,"Ssid", F:F, "N" )</f>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4213,7 +4525,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="6">
         <f>SUM(N4:N10)</f>
-        <v>600</v>
+        <v>705</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="19"/>
@@ -4364,7 +4676,7 @@
       </c>
       <c r="N16">
         <f>MIN(J:J)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -21276,6 +21588,2828 @@
       </c>
       <c r="J609">
         <v>56</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>689</v>
+      </c>
+      <c r="B610" t="s">
+        <v>846</v>
+      </c>
+      <c r="C610" t="s">
+        <v>61</v>
+      </c>
+      <c r="D610">
+        <v>1332</v>
+      </c>
+      <c r="E610" t="s">
+        <v>234</v>
+      </c>
+      <c r="F610" t="s">
+        <v>66</v>
+      </c>
+      <c r="G610">
+        <v>20251008</v>
+      </c>
+      <c r="H610" t="s">
+        <v>18</v>
+      </c>
+      <c r="J610">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>690</v>
+      </c>
+      <c r="B611" t="s">
+        <v>847</v>
+      </c>
+      <c r="C611" t="s">
+        <v>59</v>
+      </c>
+      <c r="D611">
+        <v>1332</v>
+      </c>
+      <c r="E611" t="s">
+        <v>739</v>
+      </c>
+      <c r="F611" t="s">
+        <v>66</v>
+      </c>
+      <c r="G611">
+        <v>20251008</v>
+      </c>
+      <c r="H611" t="s">
+        <v>18</v>
+      </c>
+      <c r="J611">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>688</v>
+      </c>
+      <c r="B612" t="s">
+        <v>848</v>
+      </c>
+      <c r="C612" t="s">
+        <v>60</v>
+      </c>
+      <c r="D612">
+        <v>1332</v>
+      </c>
+      <c r="E612" t="s">
+        <v>260</v>
+      </c>
+      <c r="F612" t="s">
+        <v>67</v>
+      </c>
+      <c r="G612">
+        <v>20251008</v>
+      </c>
+      <c r="H612" t="s">
+        <v>18</v>
+      </c>
+      <c r="J612">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>691</v>
+      </c>
+      <c r="B613" t="s">
+        <v>849</v>
+      </c>
+      <c r="C613" t="s">
+        <v>62</v>
+      </c>
+      <c r="D613">
+        <v>1332</v>
+      </c>
+      <c r="E613" t="s">
+        <v>82</v>
+      </c>
+      <c r="F613" t="s">
+        <v>67</v>
+      </c>
+      <c r="G613">
+        <v>20251008</v>
+      </c>
+      <c r="H613" t="s">
+        <v>18</v>
+      </c>
+      <c r="J613">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>692</v>
+      </c>
+      <c r="B614" t="s">
+        <v>850</v>
+      </c>
+      <c r="C614" t="s">
+        <v>61</v>
+      </c>
+      <c r="D614">
+        <v>1332</v>
+      </c>
+      <c r="E614" t="s">
+        <v>82</v>
+      </c>
+      <c r="F614" t="s">
+        <v>67</v>
+      </c>
+      <c r="G614">
+        <v>20251008</v>
+      </c>
+      <c r="H614" t="s">
+        <v>18</v>
+      </c>
+      <c r="J614">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>693</v>
+      </c>
+      <c r="B615" t="s">
+        <v>851</v>
+      </c>
+      <c r="C615" t="s">
+        <v>60</v>
+      </c>
+      <c r="D615">
+        <v>1332</v>
+      </c>
+      <c r="E615" t="s">
+        <v>139</v>
+      </c>
+      <c r="F615" t="s">
+        <v>66</v>
+      </c>
+      <c r="G615">
+        <v>20251008</v>
+      </c>
+      <c r="H615" t="s">
+        <v>18</v>
+      </c>
+      <c r="J615">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>694</v>
+      </c>
+      <c r="B616" t="s">
+        <v>852</v>
+      </c>
+      <c r="C616" t="s">
+        <v>62</v>
+      </c>
+      <c r="D616">
+        <v>1332</v>
+      </c>
+      <c r="E616" t="s">
+        <v>144</v>
+      </c>
+      <c r="F616" t="s">
+        <v>66</v>
+      </c>
+      <c r="G616">
+        <v>20251008</v>
+      </c>
+      <c r="H616" t="s">
+        <v>18</v>
+      </c>
+      <c r="J616">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>695</v>
+      </c>
+      <c r="B617" t="s">
+        <v>853</v>
+      </c>
+      <c r="C617" t="s">
+        <v>59</v>
+      </c>
+      <c r="D617">
+        <v>1332</v>
+      </c>
+      <c r="E617" t="s">
+        <v>84</v>
+      </c>
+      <c r="F617" t="s">
+        <v>67</v>
+      </c>
+      <c r="G617">
+        <v>20251008</v>
+      </c>
+      <c r="H617" t="s">
+        <v>18</v>
+      </c>
+      <c r="J617">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>696</v>
+      </c>
+      <c r="B618" t="s">
+        <v>854</v>
+      </c>
+      <c r="C618" t="s">
+        <v>65</v>
+      </c>
+      <c r="D618">
+        <v>1332</v>
+      </c>
+      <c r="E618" t="s">
+        <v>87</v>
+      </c>
+      <c r="F618" t="s">
+        <v>66</v>
+      </c>
+      <c r="G618">
+        <v>20251008</v>
+      </c>
+      <c r="H618" t="s">
+        <v>18</v>
+      </c>
+      <c r="J618">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>697</v>
+      </c>
+      <c r="B619" t="s">
+        <v>855</v>
+      </c>
+      <c r="C619" t="s">
+        <v>61</v>
+      </c>
+      <c r="D619">
+        <v>2320</v>
+      </c>
+      <c r="E619" t="s">
+        <v>867</v>
+      </c>
+      <c r="F619" t="s">
+        <v>66</v>
+      </c>
+      <c r="G619">
+        <v>20251008</v>
+      </c>
+      <c r="H619" t="s">
+        <v>19</v>
+      </c>
+      <c r="J619">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>698</v>
+      </c>
+      <c r="B620" t="s">
+        <v>856</v>
+      </c>
+      <c r="C620" t="s">
+        <v>59</v>
+      </c>
+      <c r="D620">
+        <v>2320</v>
+      </c>
+      <c r="E620" t="s">
+        <v>80</v>
+      </c>
+      <c r="F620" t="s">
+        <v>67</v>
+      </c>
+      <c r="G620">
+        <v>20251008</v>
+      </c>
+      <c r="H620" t="s">
+        <v>19</v>
+      </c>
+      <c r="J620">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>699</v>
+      </c>
+      <c r="B621" t="s">
+        <v>857</v>
+      </c>
+      <c r="C621" t="s">
+        <v>64</v>
+      </c>
+      <c r="D621">
+        <v>2320</v>
+      </c>
+      <c r="E621" t="s">
+        <v>80</v>
+      </c>
+      <c r="F621" t="s">
+        <v>67</v>
+      </c>
+      <c r="G621">
+        <v>20251008</v>
+      </c>
+      <c r="H621" t="s">
+        <v>19</v>
+      </c>
+      <c r="J621">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>710</v>
+      </c>
+      <c r="B622" t="s">
+        <v>858</v>
+      </c>
+      <c r="C622" t="s">
+        <v>60</v>
+      </c>
+      <c r="D622">
+        <v>2320</v>
+      </c>
+      <c r="E622" t="s">
+        <v>86</v>
+      </c>
+      <c r="F622" t="s">
+        <v>67</v>
+      </c>
+      <c r="G622">
+        <v>20251008</v>
+      </c>
+      <c r="H622" t="s">
+        <v>19</v>
+      </c>
+      <c r="J622">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>711</v>
+      </c>
+      <c r="B623" t="s">
+        <v>859</v>
+      </c>
+      <c r="C623" t="s">
+        <v>62</v>
+      </c>
+      <c r="D623">
+        <v>2320</v>
+      </c>
+      <c r="E623" t="s">
+        <v>471</v>
+      </c>
+      <c r="F623" t="s">
+        <v>66</v>
+      </c>
+      <c r="G623">
+        <v>20251008</v>
+      </c>
+      <c r="H623" t="s">
+        <v>19</v>
+      </c>
+      <c r="J623">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>712</v>
+      </c>
+      <c r="B624" t="s">
+        <v>860</v>
+      </c>
+      <c r="C624" t="s">
+        <v>61</v>
+      </c>
+      <c r="D624">
+        <v>2320</v>
+      </c>
+      <c r="E624" t="s">
+        <v>86</v>
+      </c>
+      <c r="F624" t="s">
+        <v>67</v>
+      </c>
+      <c r="G624">
+        <v>20251008</v>
+      </c>
+      <c r="H624" t="s">
+        <v>19</v>
+      </c>
+      <c r="J624">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>713</v>
+      </c>
+      <c r="B625" t="s">
+        <v>861</v>
+      </c>
+      <c r="C625" t="s">
+        <v>65</v>
+      </c>
+      <c r="D625">
+        <v>2320</v>
+      </c>
+      <c r="E625" t="s">
+        <v>80</v>
+      </c>
+      <c r="F625" t="s">
+        <v>67</v>
+      </c>
+      <c r="G625">
+        <v>20251008</v>
+      </c>
+      <c r="H625" t="s">
+        <v>19</v>
+      </c>
+      <c r="J625">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>714</v>
+      </c>
+      <c r="B626" t="s">
+        <v>862</v>
+      </c>
+      <c r="C626" t="s">
+        <v>65</v>
+      </c>
+      <c r="D626">
+        <v>2320</v>
+      </c>
+      <c r="E626" t="s">
+        <v>80</v>
+      </c>
+      <c r="F626" t="s">
+        <v>67</v>
+      </c>
+      <c r="G626">
+        <v>20251008</v>
+      </c>
+      <c r="H626" t="s">
+        <v>19</v>
+      </c>
+      <c r="J626">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>715</v>
+      </c>
+      <c r="B627" t="s">
+        <v>863</v>
+      </c>
+      <c r="C627" t="s">
+        <v>65</v>
+      </c>
+      <c r="D627">
+        <v>2320</v>
+      </c>
+      <c r="E627" t="s">
+        <v>868</v>
+      </c>
+      <c r="F627" t="s">
+        <v>66</v>
+      </c>
+      <c r="G627">
+        <v>20251008</v>
+      </c>
+      <c r="H627" t="s">
+        <v>19</v>
+      </c>
+      <c r="J627">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>716</v>
+      </c>
+      <c r="B628" t="s">
+        <v>864</v>
+      </c>
+      <c r="C628" t="s">
+        <v>59</v>
+      </c>
+      <c r="D628">
+        <v>2320</v>
+      </c>
+      <c r="E628" t="s">
+        <v>804</v>
+      </c>
+      <c r="F628" t="s">
+        <v>66</v>
+      </c>
+      <c r="G628">
+        <v>20251008</v>
+      </c>
+      <c r="H628" t="s">
+        <v>19</v>
+      </c>
+      <c r="J628">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>717</v>
+      </c>
+      <c r="B629" t="s">
+        <v>865</v>
+      </c>
+      <c r="C629" t="s">
+        <v>60</v>
+      </c>
+      <c r="D629">
+        <v>2320</v>
+      </c>
+      <c r="E629" t="s">
+        <v>144</v>
+      </c>
+      <c r="F629" t="s">
+        <v>66</v>
+      </c>
+      <c r="G629">
+        <v>20251008</v>
+      </c>
+      <c r="H629" t="s">
+        <v>19</v>
+      </c>
+      <c r="J629">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>718</v>
+      </c>
+      <c r="B630" t="s">
+        <v>866</v>
+      </c>
+      <c r="C630" t="s">
+        <v>62</v>
+      </c>
+      <c r="D630">
+        <v>2320</v>
+      </c>
+      <c r="E630" t="s">
+        <v>84</v>
+      </c>
+      <c r="F630" t="s">
+        <v>67</v>
+      </c>
+      <c r="G630">
+        <v>20251008</v>
+      </c>
+      <c r="H630" t="s">
+        <v>19</v>
+      </c>
+      <c r="J630">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>787</v>
+      </c>
+      <c r="B631" t="s">
+        <v>871</v>
+      </c>
+      <c r="C631" t="s">
+        <v>61</v>
+      </c>
+      <c r="D631">
+        <v>2314</v>
+      </c>
+      <c r="F631" t="s">
+        <v>66</v>
+      </c>
+      <c r="G631">
+        <v>20251008</v>
+      </c>
+      <c r="H631" t="s">
+        <v>221</v>
+      </c>
+      <c r="J631">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>788</v>
+      </c>
+      <c r="B632" t="s">
+        <v>872</v>
+      </c>
+      <c r="C632" t="s">
+        <v>62</v>
+      </c>
+      <c r="D632">
+        <v>2314</v>
+      </c>
+      <c r="F632" t="s">
+        <v>66</v>
+      </c>
+      <c r="G632">
+        <v>20251008</v>
+      </c>
+      <c r="H632" t="s">
+        <v>221</v>
+      </c>
+      <c r="J632">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>789</v>
+      </c>
+      <c r="B633" t="s">
+        <v>873</v>
+      </c>
+      <c r="C633" t="s">
+        <v>60</v>
+      </c>
+      <c r="D633">
+        <v>2314</v>
+      </c>
+      <c r="F633" t="s">
+        <v>66</v>
+      </c>
+      <c r="G633">
+        <v>20251008</v>
+      </c>
+      <c r="H633" t="s">
+        <v>221</v>
+      </c>
+      <c r="J633">
+        <v>10</v>
+      </c>
+      <c r="K633" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>790</v>
+      </c>
+      <c r="B634" t="s">
+        <v>875</v>
+      </c>
+      <c r="C634" t="s">
+        <v>65</v>
+      </c>
+      <c r="D634">
+        <v>2314</v>
+      </c>
+      <c r="F634" t="s">
+        <v>66</v>
+      </c>
+      <c r="G634">
+        <v>20251008</v>
+      </c>
+      <c r="H634" t="s">
+        <v>221</v>
+      </c>
+      <c r="J634">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>791</v>
+      </c>
+      <c r="B635" t="s">
+        <v>876</v>
+      </c>
+      <c r="C635" t="s">
+        <v>61</v>
+      </c>
+      <c r="D635">
+        <v>2314</v>
+      </c>
+      <c r="F635" t="s">
+        <v>67</v>
+      </c>
+      <c r="G635">
+        <v>20251008</v>
+      </c>
+      <c r="H635" t="s">
+        <v>221</v>
+      </c>
+      <c r="J635">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>792</v>
+      </c>
+      <c r="B636" t="s">
+        <v>877</v>
+      </c>
+      <c r="C636" t="s">
+        <v>59</v>
+      </c>
+      <c r="D636">
+        <v>2314</v>
+      </c>
+      <c r="F636" t="s">
+        <v>67</v>
+      </c>
+      <c r="G636">
+        <v>20251008</v>
+      </c>
+      <c r="H636" t="s">
+        <v>221</v>
+      </c>
+      <c r="J636">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>793</v>
+      </c>
+      <c r="B637" t="s">
+        <v>878</v>
+      </c>
+      <c r="C637" t="s">
+        <v>59</v>
+      </c>
+      <c r="D637">
+        <v>2314</v>
+      </c>
+      <c r="F637" t="s">
+        <v>66</v>
+      </c>
+      <c r="G637">
+        <v>20251008</v>
+      </c>
+      <c r="H637" t="s">
+        <v>221</v>
+      </c>
+      <c r="J637">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>794</v>
+      </c>
+      <c r="B638" t="s">
+        <v>879</v>
+      </c>
+      <c r="C638" t="s">
+        <v>62</v>
+      </c>
+      <c r="D638">
+        <v>2314</v>
+      </c>
+      <c r="F638" t="s">
+        <v>67</v>
+      </c>
+      <c r="G638">
+        <v>20251008</v>
+      </c>
+      <c r="H638" t="s">
+        <v>221</v>
+      </c>
+      <c r="J638">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>795</v>
+      </c>
+      <c r="B639" t="s">
+        <v>880</v>
+      </c>
+      <c r="C639" t="s">
+        <v>63</v>
+      </c>
+      <c r="D639">
+        <v>2314</v>
+      </c>
+      <c r="F639" t="s">
+        <v>67</v>
+      </c>
+      <c r="G639">
+        <v>20251008</v>
+      </c>
+      <c r="H639" t="s">
+        <v>221</v>
+      </c>
+      <c r="J639">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>796</v>
+      </c>
+      <c r="B640" t="s">
+        <v>881</v>
+      </c>
+      <c r="C640" t="s">
+        <v>65</v>
+      </c>
+      <c r="D640">
+        <v>2309</v>
+      </c>
+      <c r="F640" t="s">
+        <v>67</v>
+      </c>
+      <c r="G640">
+        <v>20251008</v>
+      </c>
+      <c r="H640" t="s">
+        <v>221</v>
+      </c>
+      <c r="J640">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="641" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>797</v>
+      </c>
+      <c r="B641" t="s">
+        <v>882</v>
+      </c>
+      <c r="C641" t="s">
+        <v>61</v>
+      </c>
+      <c r="D641">
+        <v>2309</v>
+      </c>
+      <c r="F641" t="s">
+        <v>67</v>
+      </c>
+      <c r="G641">
+        <v>20251008</v>
+      </c>
+      <c r="H641" t="s">
+        <v>221</v>
+      </c>
+      <c r="J641">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="642" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>798</v>
+      </c>
+      <c r="B642" t="s">
+        <v>883</v>
+      </c>
+      <c r="C642" t="s">
+        <v>59</v>
+      </c>
+      <c r="D642">
+        <v>2309</v>
+      </c>
+      <c r="F642" t="s">
+        <v>66</v>
+      </c>
+      <c r="G642">
+        <v>20251008</v>
+      </c>
+      <c r="H642" t="s">
+        <v>221</v>
+      </c>
+      <c r="J642">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="643" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>799</v>
+      </c>
+      <c r="B643" t="s">
+        <v>884</v>
+      </c>
+      <c r="C643" t="s">
+        <v>61</v>
+      </c>
+      <c r="D643">
+        <v>2309</v>
+      </c>
+      <c r="F643" t="s">
+        <v>66</v>
+      </c>
+      <c r="G643">
+        <v>20251008</v>
+      </c>
+      <c r="H643" t="s">
+        <v>221</v>
+      </c>
+      <c r="J643">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="644" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>719</v>
+      </c>
+      <c r="B644" t="s">
+        <v>885</v>
+      </c>
+      <c r="C644" t="s">
+        <v>62</v>
+      </c>
+      <c r="D644">
+        <v>2309</v>
+      </c>
+      <c r="F644" t="s">
+        <v>66</v>
+      </c>
+      <c r="G644">
+        <v>20251008</v>
+      </c>
+      <c r="H644" t="s">
+        <v>221</v>
+      </c>
+      <c r="J644">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="645" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>720</v>
+      </c>
+      <c r="B645" t="s">
+        <v>878</v>
+      </c>
+      <c r="C645" t="s">
+        <v>65</v>
+      </c>
+      <c r="D645">
+        <v>2309</v>
+      </c>
+      <c r="F645" t="s">
+        <v>66</v>
+      </c>
+      <c r="G645">
+        <v>20251008</v>
+      </c>
+      <c r="H645" t="s">
+        <v>221</v>
+      </c>
+      <c r="J645">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="646" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>721</v>
+      </c>
+      <c r="B646" t="s">
+        <v>886</v>
+      </c>
+      <c r="C646" t="s">
+        <v>63</v>
+      </c>
+      <c r="D646">
+        <v>2309</v>
+      </c>
+      <c r="F646" t="s">
+        <v>66</v>
+      </c>
+      <c r="G646">
+        <v>20251008</v>
+      </c>
+      <c r="H646" t="s">
+        <v>221</v>
+      </c>
+      <c r="J646">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="647" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>722</v>
+      </c>
+      <c r="B647" t="s">
+        <v>887</v>
+      </c>
+      <c r="C647" t="s">
+        <v>63</v>
+      </c>
+      <c r="D647">
+        <v>2309</v>
+      </c>
+      <c r="F647" t="s">
+        <v>66</v>
+      </c>
+      <c r="G647">
+        <v>20251008</v>
+      </c>
+      <c r="H647" t="s">
+        <v>221</v>
+      </c>
+      <c r="J647">
+        <v>6</v>
+      </c>
+      <c r="L647" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="648" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>825</v>
+      </c>
+      <c r="B648" t="s">
+        <v>888</v>
+      </c>
+      <c r="C648" t="s">
+        <v>63</v>
+      </c>
+      <c r="D648" t="s">
+        <v>869</v>
+      </c>
+      <c r="F648" t="s">
+        <v>66</v>
+      </c>
+      <c r="G648">
+        <v>20251008</v>
+      </c>
+      <c r="H648" t="s">
+        <v>221</v>
+      </c>
+      <c r="J648">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="649" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>826</v>
+      </c>
+      <c r="B649" t="s">
+        <v>889</v>
+      </c>
+      <c r="C649" t="s">
+        <v>62</v>
+      </c>
+      <c r="D649" t="s">
+        <v>869</v>
+      </c>
+      <c r="F649" t="s">
+        <v>66</v>
+      </c>
+      <c r="G649">
+        <v>20251008</v>
+      </c>
+      <c r="H649" t="s">
+        <v>221</v>
+      </c>
+      <c r="J649">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="650" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>827</v>
+      </c>
+      <c r="B650" t="s">
+        <v>890</v>
+      </c>
+      <c r="C650" t="s">
+        <v>61</v>
+      </c>
+      <c r="D650" t="s">
+        <v>869</v>
+      </c>
+      <c r="F650" t="s">
+        <v>66</v>
+      </c>
+      <c r="G650">
+        <v>20251008</v>
+      </c>
+      <c r="H650" t="s">
+        <v>221</v>
+      </c>
+      <c r="J650">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="651" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>828</v>
+      </c>
+      <c r="B651" t="s">
+        <v>891</v>
+      </c>
+      <c r="C651" t="s">
+        <v>65</v>
+      </c>
+      <c r="D651" t="s">
+        <v>869</v>
+      </c>
+      <c r="F651" t="s">
+        <v>66</v>
+      </c>
+      <c r="G651">
+        <v>20251008</v>
+      </c>
+      <c r="H651" t="s">
+        <v>221</v>
+      </c>
+      <c r="J651">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="652" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>829</v>
+      </c>
+      <c r="B652" t="s">
+        <v>892</v>
+      </c>
+      <c r="C652" t="s">
+        <v>61</v>
+      </c>
+      <c r="D652" t="s">
+        <v>869</v>
+      </c>
+      <c r="F652" t="s">
+        <v>67</v>
+      </c>
+      <c r="G652">
+        <v>20251008</v>
+      </c>
+      <c r="H652" t="s">
+        <v>221</v>
+      </c>
+      <c r="J652">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="653" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>830</v>
+      </c>
+      <c r="B653" t="s">
+        <v>821</v>
+      </c>
+      <c r="C653" t="s">
+        <v>60</v>
+      </c>
+      <c r="D653" t="s">
+        <v>869</v>
+      </c>
+      <c r="F653" t="s">
+        <v>66</v>
+      </c>
+      <c r="G653">
+        <v>20251008</v>
+      </c>
+      <c r="H653" t="s">
+        <v>221</v>
+      </c>
+      <c r="J653">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="654" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>831</v>
+      </c>
+      <c r="B654" t="s">
+        <v>893</v>
+      </c>
+      <c r="C654" t="s">
+        <v>59</v>
+      </c>
+      <c r="D654" t="s">
+        <v>869</v>
+      </c>
+      <c r="F654" t="s">
+        <v>66</v>
+      </c>
+      <c r="G654">
+        <v>20251008</v>
+      </c>
+      <c r="H654" t="s">
+        <v>221</v>
+      </c>
+      <c r="J654">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="655" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>832</v>
+      </c>
+      <c r="B655" t="s">
+        <v>820</v>
+      </c>
+      <c r="C655" t="s">
+        <v>62</v>
+      </c>
+      <c r="D655" t="s">
+        <v>869</v>
+      </c>
+      <c r="F655" t="s">
+        <v>67</v>
+      </c>
+      <c r="G655">
+        <v>20251008</v>
+      </c>
+      <c r="H655" t="s">
+        <v>221</v>
+      </c>
+      <c r="J655">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="656" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>833</v>
+      </c>
+      <c r="B656" t="s">
+        <v>894</v>
+      </c>
+      <c r="C656" t="s">
+        <v>65</v>
+      </c>
+      <c r="D656" t="s">
+        <v>870</v>
+      </c>
+      <c r="F656" t="s">
+        <v>66</v>
+      </c>
+      <c r="G656">
+        <v>20251008</v>
+      </c>
+      <c r="H656" t="s">
+        <v>221</v>
+      </c>
+      <c r="J656">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>834</v>
+      </c>
+      <c r="B657" t="s">
+        <v>895</v>
+      </c>
+      <c r="C657" t="s">
+        <v>64</v>
+      </c>
+      <c r="D657" t="s">
+        <v>870</v>
+      </c>
+      <c r="F657" t="s">
+        <v>66</v>
+      </c>
+      <c r="G657">
+        <v>20251008</v>
+      </c>
+      <c r="H657" t="s">
+        <v>221</v>
+      </c>
+      <c r="J657">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>835</v>
+      </c>
+      <c r="B658" t="s">
+        <v>822</v>
+      </c>
+      <c r="C658" t="s">
+        <v>64</v>
+      </c>
+      <c r="D658" t="s">
+        <v>870</v>
+      </c>
+      <c r="F658" t="s">
+        <v>66</v>
+      </c>
+      <c r="G658">
+        <v>20251008</v>
+      </c>
+      <c r="H658" t="s">
+        <v>221</v>
+      </c>
+      <c r="J658">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>836</v>
+      </c>
+      <c r="B659" t="s">
+        <v>665</v>
+      </c>
+      <c r="C659" t="s">
+        <v>64</v>
+      </c>
+      <c r="D659" t="s">
+        <v>870</v>
+      </c>
+      <c r="F659" t="s">
+        <v>66</v>
+      </c>
+      <c r="G659">
+        <v>20251008</v>
+      </c>
+      <c r="H659" t="s">
+        <v>221</v>
+      </c>
+      <c r="J659">
+        <v>9</v>
+      </c>
+      <c r="K659" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>837</v>
+      </c>
+      <c r="B660" t="s">
+        <v>897</v>
+      </c>
+      <c r="C660" t="s">
+        <v>64</v>
+      </c>
+      <c r="D660" t="s">
+        <v>870</v>
+      </c>
+      <c r="F660" t="s">
+        <v>66</v>
+      </c>
+      <c r="G660">
+        <v>20251008</v>
+      </c>
+      <c r="H660" t="s">
+        <v>221</v>
+      </c>
+      <c r="J660">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>838</v>
+      </c>
+      <c r="B661" t="s">
+        <v>898</v>
+      </c>
+      <c r="C661" t="s">
+        <v>65</v>
+      </c>
+      <c r="D661" t="s">
+        <v>870</v>
+      </c>
+      <c r="F661" t="s">
+        <v>66</v>
+      </c>
+      <c r="G661">
+        <v>20251008</v>
+      </c>
+      <c r="H661" t="s">
+        <v>221</v>
+      </c>
+      <c r="J661">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>839</v>
+      </c>
+      <c r="B662" t="s">
+        <v>840</v>
+      </c>
+      <c r="C662" t="s">
+        <v>64</v>
+      </c>
+      <c r="D662" t="s">
+        <v>870</v>
+      </c>
+      <c r="F662" t="s">
+        <v>66</v>
+      </c>
+      <c r="G662">
+        <v>20251008</v>
+      </c>
+      <c r="H662" t="s">
+        <v>221</v>
+      </c>
+      <c r="J662">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>840</v>
+      </c>
+      <c r="B663" t="s">
+        <v>899</v>
+      </c>
+      <c r="C663" t="s">
+        <v>65</v>
+      </c>
+      <c r="D663" t="s">
+        <v>870</v>
+      </c>
+      <c r="F663" t="s">
+        <v>66</v>
+      </c>
+      <c r="G663">
+        <v>20251008</v>
+      </c>
+      <c r="H663" t="s">
+        <v>221</v>
+      </c>
+      <c r="J663">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>841</v>
+      </c>
+      <c r="B664" t="s">
+        <v>900</v>
+      </c>
+      <c r="C664" t="s">
+        <v>63</v>
+      </c>
+      <c r="D664" t="s">
+        <v>870</v>
+      </c>
+      <c r="F664" t="s">
+        <v>66</v>
+      </c>
+      <c r="G664">
+        <v>20251008</v>
+      </c>
+      <c r="H664" t="s">
+        <v>221</v>
+      </c>
+      <c r="J664">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>842</v>
+      </c>
+      <c r="B665" t="s">
+        <v>818</v>
+      </c>
+      <c r="C665" t="s">
+        <v>63</v>
+      </c>
+      <c r="D665" t="s">
+        <v>870</v>
+      </c>
+      <c r="F665" t="s">
+        <v>66</v>
+      </c>
+      <c r="G665">
+        <v>20251008</v>
+      </c>
+      <c r="H665" t="s">
+        <v>221</v>
+      </c>
+      <c r="J665">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>843</v>
+      </c>
+      <c r="B666" t="s">
+        <v>819</v>
+      </c>
+      <c r="C666" t="s">
+        <v>64</v>
+      </c>
+      <c r="D666" t="s">
+        <v>870</v>
+      </c>
+      <c r="F666" t="s">
+        <v>66</v>
+      </c>
+      <c r="G666">
+        <v>20251008</v>
+      </c>
+      <c r="H666" t="s">
+        <v>221</v>
+      </c>
+      <c r="J666">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>844</v>
+      </c>
+      <c r="B667" t="s">
+        <v>901</v>
+      </c>
+      <c r="C667" t="s">
+        <v>64</v>
+      </c>
+      <c r="D667" t="s">
+        <v>870</v>
+      </c>
+      <c r="F667" t="s">
+        <v>67</v>
+      </c>
+      <c r="G667">
+        <v>20251008</v>
+      </c>
+      <c r="H667" t="s">
+        <v>221</v>
+      </c>
+      <c r="J667">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>650</v>
+      </c>
+      <c r="B668" t="s">
+        <v>903</v>
+      </c>
+      <c r="C668" t="s">
+        <v>61</v>
+      </c>
+      <c r="D668">
+        <v>1316</v>
+      </c>
+      <c r="F668" t="s">
+        <v>66</v>
+      </c>
+      <c r="G668">
+        <v>20251008</v>
+      </c>
+      <c r="H668" t="s">
+        <v>544</v>
+      </c>
+      <c r="J668">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>651</v>
+      </c>
+      <c r="B669" t="s">
+        <v>904</v>
+      </c>
+      <c r="C669" t="s">
+        <v>62</v>
+      </c>
+      <c r="D669">
+        <v>1316</v>
+      </c>
+      <c r="F669" t="s">
+        <v>66</v>
+      </c>
+      <c r="G669">
+        <v>20251008</v>
+      </c>
+      <c r="H669" t="s">
+        <v>544</v>
+      </c>
+      <c r="J669">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>652</v>
+      </c>
+      <c r="B670" t="s">
+        <v>905</v>
+      </c>
+      <c r="C670" t="s">
+        <v>59</v>
+      </c>
+      <c r="D670">
+        <v>1316</v>
+      </c>
+      <c r="F670" t="s">
+        <v>66</v>
+      </c>
+      <c r="G670">
+        <v>20251008</v>
+      </c>
+      <c r="H670" t="s">
+        <v>544</v>
+      </c>
+      <c r="J670">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>653</v>
+      </c>
+      <c r="B671" t="s">
+        <v>906</v>
+      </c>
+      <c r="C671" t="s">
+        <v>59</v>
+      </c>
+      <c r="D671">
+        <v>1316</v>
+      </c>
+      <c r="F671" t="s">
+        <v>67</v>
+      </c>
+      <c r="G671">
+        <v>20251008</v>
+      </c>
+      <c r="H671" t="s">
+        <v>544</v>
+      </c>
+      <c r="J671">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>654</v>
+      </c>
+      <c r="B672" t="s">
+        <v>908</v>
+      </c>
+      <c r="C672" t="s">
+        <v>59</v>
+      </c>
+      <c r="D672">
+        <v>1316</v>
+      </c>
+      <c r="F672" t="s">
+        <v>66</v>
+      </c>
+      <c r="G672">
+        <v>20251008</v>
+      </c>
+      <c r="H672" t="s">
+        <v>544</v>
+      </c>
+      <c r="J672">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="673" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>655</v>
+      </c>
+      <c r="B673" t="s">
+        <v>907</v>
+      </c>
+      <c r="D673">
+        <v>1316</v>
+      </c>
+      <c r="F673" t="s">
+        <v>66</v>
+      </c>
+      <c r="G673">
+        <v>20251008</v>
+      </c>
+      <c r="H673" t="s">
+        <v>544</v>
+      </c>
+      <c r="J673">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="674" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>656</v>
+      </c>
+      <c r="B674" t="s">
+        <v>909</v>
+      </c>
+      <c r="C674" t="s">
+        <v>62</v>
+      </c>
+      <c r="D674">
+        <v>1316</v>
+      </c>
+      <c r="F674" t="s">
+        <v>66</v>
+      </c>
+      <c r="G674">
+        <v>20251008</v>
+      </c>
+      <c r="H674" t="s">
+        <v>544</v>
+      </c>
+      <c r="J674">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="675" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>657</v>
+      </c>
+      <c r="B675" t="s">
+        <v>910</v>
+      </c>
+      <c r="C675" t="s">
+        <v>59</v>
+      </c>
+      <c r="D675">
+        <v>1316</v>
+      </c>
+      <c r="F675" t="s">
+        <v>66</v>
+      </c>
+      <c r="G675">
+        <v>20251008</v>
+      </c>
+      <c r="H675" t="s">
+        <v>544</v>
+      </c>
+      <c r="J675">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="676" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>658</v>
+      </c>
+      <c r="B676" t="s">
+        <v>911</v>
+      </c>
+      <c r="C676" t="s">
+        <v>62</v>
+      </c>
+      <c r="D676">
+        <v>1316</v>
+      </c>
+      <c r="F676" t="s">
+        <v>66</v>
+      </c>
+      <c r="G676">
+        <v>20251008</v>
+      </c>
+      <c r="H676" t="s">
+        <v>544</v>
+      </c>
+      <c r="J676">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="677" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>659</v>
+      </c>
+      <c r="B677" t="s">
+        <v>912</v>
+      </c>
+      <c r="C677" t="s">
+        <v>65</v>
+      </c>
+      <c r="D677">
+        <v>1316</v>
+      </c>
+      <c r="F677" t="s">
+        <v>66</v>
+      </c>
+      <c r="G677">
+        <v>20251008</v>
+      </c>
+      <c r="H677" t="s">
+        <v>544</v>
+      </c>
+      <c r="J677">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="678" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>660</v>
+      </c>
+      <c r="B678" t="s">
+        <v>913</v>
+      </c>
+      <c r="C678" t="s">
+        <v>65</v>
+      </c>
+      <c r="D678">
+        <v>1316</v>
+      </c>
+      <c r="F678" t="s">
+        <v>66</v>
+      </c>
+      <c r="G678">
+        <v>20251008</v>
+      </c>
+      <c r="H678" t="s">
+        <v>544</v>
+      </c>
+      <c r="J678">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="679" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>661</v>
+      </c>
+      <c r="B679" t="s">
+        <v>914</v>
+      </c>
+      <c r="C679" t="s">
+        <v>65</v>
+      </c>
+      <c r="D679">
+        <v>1316</v>
+      </c>
+      <c r="F679" t="s">
+        <v>66</v>
+      </c>
+      <c r="G679">
+        <v>20251008</v>
+      </c>
+      <c r="H679" t="s">
+        <v>544</v>
+      </c>
+      <c r="J679">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="680" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>662</v>
+      </c>
+      <c r="B680" t="s">
+        <v>915</v>
+      </c>
+      <c r="C680" t="s">
+        <v>63</v>
+      </c>
+      <c r="D680">
+        <v>1316</v>
+      </c>
+      <c r="F680" t="s">
+        <v>67</v>
+      </c>
+      <c r="G680">
+        <v>20251008</v>
+      </c>
+      <c r="H680" t="s">
+        <v>544</v>
+      </c>
+      <c r="J680">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="681" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>227</v>
+      </c>
+      <c r="B681" t="s">
+        <v>916</v>
+      </c>
+      <c r="C681" t="s">
+        <v>63</v>
+      </c>
+      <c r="D681">
+        <v>2319</v>
+      </c>
+      <c r="F681" t="s">
+        <v>66</v>
+      </c>
+      <c r="G681">
+        <v>20251008</v>
+      </c>
+      <c r="H681" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A682">
+        <v>226</v>
+      </c>
+      <c r="B682" t="s">
+        <v>917</v>
+      </c>
+      <c r="C682" t="s">
+        <v>59</v>
+      </c>
+      <c r="D682">
+        <v>2319</v>
+      </c>
+      <c r="F682" t="s">
+        <v>66</v>
+      </c>
+      <c r="G682">
+        <v>20251008</v>
+      </c>
+      <c r="H682" t="s">
+        <v>544</v>
+      </c>
+      <c r="J682">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="683" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A683">
+        <v>228</v>
+      </c>
+      <c r="B683" t="s">
+        <v>918</v>
+      </c>
+      <c r="C683" t="s">
+        <v>59</v>
+      </c>
+      <c r="D683">
+        <v>2319</v>
+      </c>
+      <c r="F683" t="s">
+        <v>67</v>
+      </c>
+      <c r="G683">
+        <v>20251008</v>
+      </c>
+      <c r="H683" t="s">
+        <v>544</v>
+      </c>
+      <c r="J683">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A684">
+        <v>229</v>
+      </c>
+      <c r="C684" t="s">
+        <v>61</v>
+      </c>
+      <c r="D684">
+        <v>2319</v>
+      </c>
+      <c r="F684" t="s">
+        <v>66</v>
+      </c>
+      <c r="G684">
+        <v>20251008</v>
+      </c>
+      <c r="H684" t="s">
+        <v>544</v>
+      </c>
+      <c r="J684">
+        <v>24</v>
+      </c>
+      <c r="L684" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="685" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A685">
+        <v>230</v>
+      </c>
+      <c r="B685" t="s">
+        <v>920</v>
+      </c>
+      <c r="C685" t="s">
+        <v>62</v>
+      </c>
+      <c r="D685">
+        <v>2319</v>
+      </c>
+      <c r="F685" t="s">
+        <v>66</v>
+      </c>
+      <c r="G685">
+        <v>20251008</v>
+      </c>
+      <c r="H685" t="s">
+        <v>544</v>
+      </c>
+      <c r="J685">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="686" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A686">
+        <v>231</v>
+      </c>
+      <c r="B686" t="s">
+        <v>921</v>
+      </c>
+      <c r="C686" t="s">
+        <v>63</v>
+      </c>
+      <c r="D686">
+        <v>2319</v>
+      </c>
+      <c r="F686" t="s">
+        <v>66</v>
+      </c>
+      <c r="G686">
+        <v>20251008</v>
+      </c>
+      <c r="H686" t="s">
+        <v>544</v>
+      </c>
+      <c r="J686">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A687">
+        <v>232</v>
+      </c>
+      <c r="B687" t="s">
+        <v>922</v>
+      </c>
+      <c r="C687" t="s">
+        <v>63</v>
+      </c>
+      <c r="D687">
+        <v>2319</v>
+      </c>
+      <c r="F687" t="s">
+        <v>66</v>
+      </c>
+      <c r="G687">
+        <v>20251008</v>
+      </c>
+      <c r="H687" t="s">
+        <v>544</v>
+      </c>
+      <c r="J687">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A688">
+        <v>233</v>
+      </c>
+      <c r="B688" t="s">
+        <v>923</v>
+      </c>
+      <c r="C688" t="s">
+        <v>61</v>
+      </c>
+      <c r="D688">
+        <v>2319</v>
+      </c>
+      <c r="F688" t="s">
+        <v>66</v>
+      </c>
+      <c r="G688">
+        <v>20251008</v>
+      </c>
+      <c r="H688" t="s">
+        <v>544</v>
+      </c>
+      <c r="J688">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A689">
+        <v>234</v>
+      </c>
+      <c r="B689" t="s">
+        <v>924</v>
+      </c>
+      <c r="C689" t="s">
+        <v>59</v>
+      </c>
+      <c r="D689">
+        <v>2319</v>
+      </c>
+      <c r="F689" t="s">
+        <v>66</v>
+      </c>
+      <c r="G689">
+        <v>20251008</v>
+      </c>
+      <c r="H689" t="s">
+        <v>544</v>
+      </c>
+      <c r="J689">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A690">
+        <v>235</v>
+      </c>
+      <c r="B690" t="s">
+        <v>925</v>
+      </c>
+      <c r="C690" t="s">
+        <v>63</v>
+      </c>
+      <c r="D690">
+        <v>2319</v>
+      </c>
+      <c r="F690" t="s">
+        <v>66</v>
+      </c>
+      <c r="G690">
+        <v>20251008</v>
+      </c>
+      <c r="H690" t="s">
+        <v>544</v>
+      </c>
+      <c r="J690">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A691">
+        <v>236</v>
+      </c>
+      <c r="B691" t="s">
+        <v>926</v>
+      </c>
+      <c r="C691" t="s">
+        <v>62</v>
+      </c>
+      <c r="D691">
+        <v>2319</v>
+      </c>
+      <c r="F691" t="s">
+        <v>67</v>
+      </c>
+      <c r="G691">
+        <v>20251008</v>
+      </c>
+      <c r="H691" t="s">
+        <v>544</v>
+      </c>
+      <c r="J691">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A692">
+        <v>237</v>
+      </c>
+      <c r="B692" t="s">
+        <v>927</v>
+      </c>
+      <c r="C692" t="s">
+        <v>65</v>
+      </c>
+      <c r="D692">
+        <v>2319</v>
+      </c>
+      <c r="F692" t="s">
+        <v>67</v>
+      </c>
+      <c r="G692">
+        <v>20251008</v>
+      </c>
+      <c r="H692" t="s">
+        <v>544</v>
+      </c>
+      <c r="J692">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A693">
+        <v>238</v>
+      </c>
+      <c r="B693" t="s">
+        <v>928</v>
+      </c>
+      <c r="C693" t="s">
+        <v>63</v>
+      </c>
+      <c r="D693">
+        <v>2319</v>
+      </c>
+      <c r="F693" t="s">
+        <v>66</v>
+      </c>
+      <c r="G693">
+        <v>20251008</v>
+      </c>
+      <c r="H693" t="s">
+        <v>544</v>
+      </c>
+      <c r="J693">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A694">
+        <v>240</v>
+      </c>
+      <c r="B694" t="s">
+        <v>929</v>
+      </c>
+      <c r="C694" t="s">
+        <v>63</v>
+      </c>
+      <c r="D694">
+        <v>2319</v>
+      </c>
+      <c r="F694" t="s">
+        <v>67</v>
+      </c>
+      <c r="G694">
+        <v>20251008</v>
+      </c>
+      <c r="H694" t="s">
+        <v>544</v>
+      </c>
+      <c r="J694">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="695" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A695">
+        <v>239</v>
+      </c>
+      <c r="B695" t="s">
+        <v>930</v>
+      </c>
+      <c r="C695" t="s">
+        <v>63</v>
+      </c>
+      <c r="D695">
+        <v>1311</v>
+      </c>
+      <c r="F695" t="s">
+        <v>66</v>
+      </c>
+      <c r="G695">
+        <v>20251008</v>
+      </c>
+      <c r="H695" t="s">
+        <v>544</v>
+      </c>
+      <c r="J695">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="696" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A696">
+        <v>241</v>
+      </c>
+      <c r="B696" t="s">
+        <v>931</v>
+      </c>
+      <c r="C696" t="s">
+        <v>63</v>
+      </c>
+      <c r="D696">
+        <v>1311</v>
+      </c>
+      <c r="F696" t="s">
+        <v>67</v>
+      </c>
+      <c r="G696">
+        <v>20251008</v>
+      </c>
+      <c r="H696" t="s">
+        <v>544</v>
+      </c>
+      <c r="J696">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="697" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A697">
+        <v>242</v>
+      </c>
+      <c r="B697" t="s">
+        <v>932</v>
+      </c>
+      <c r="C697" t="s">
+        <v>61</v>
+      </c>
+      <c r="D697">
+        <v>1311</v>
+      </c>
+      <c r="F697" t="s">
+        <v>66</v>
+      </c>
+      <c r="G697">
+        <v>20251008</v>
+      </c>
+      <c r="H697" t="s">
+        <v>544</v>
+      </c>
+      <c r="J697">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="698" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A698">
+        <v>243</v>
+      </c>
+      <c r="B698" t="s">
+        <v>933</v>
+      </c>
+      <c r="C698" t="s">
+        <v>62</v>
+      </c>
+      <c r="D698">
+        <v>1311</v>
+      </c>
+      <c r="F698" t="s">
+        <v>66</v>
+      </c>
+      <c r="G698">
+        <v>20251008</v>
+      </c>
+      <c r="H698" t="s">
+        <v>544</v>
+      </c>
+      <c r="J698">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="699" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A699">
+        <v>244</v>
+      </c>
+      <c r="B699" t="s">
+        <v>934</v>
+      </c>
+      <c r="C699" t="s">
+        <v>65</v>
+      </c>
+      <c r="D699">
+        <v>1311</v>
+      </c>
+      <c r="F699" t="s">
+        <v>67</v>
+      </c>
+      <c r="G699">
+        <v>20251008</v>
+      </c>
+      <c r="H699" t="s">
+        <v>544</v>
+      </c>
+      <c r="J699">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="700" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A700">
+        <v>245</v>
+      </c>
+      <c r="B700" t="s">
+        <v>935</v>
+      </c>
+      <c r="C700" t="s">
+        <v>61</v>
+      </c>
+      <c r="D700">
+        <v>1311</v>
+      </c>
+      <c r="F700" t="s">
+        <v>67</v>
+      </c>
+      <c r="G700">
+        <v>20251008</v>
+      </c>
+      <c r="H700" t="s">
+        <v>544</v>
+      </c>
+      <c r="J700">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="701" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A701">
+        <v>246</v>
+      </c>
+      <c r="B701" t="s">
+        <v>936</v>
+      </c>
+      <c r="C701" t="s">
+        <v>65</v>
+      </c>
+      <c r="D701">
+        <v>1311</v>
+      </c>
+      <c r="F701" t="s">
+        <v>66</v>
+      </c>
+      <c r="G701">
+        <v>20251008</v>
+      </c>
+      <c r="H701" t="s">
+        <v>544</v>
+      </c>
+      <c r="J701">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="702" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A702">
+        <v>247</v>
+      </c>
+      <c r="B702" t="s">
+        <v>937</v>
+      </c>
+      <c r="C702" t="s">
+        <v>63</v>
+      </c>
+      <c r="D702">
+        <v>1311</v>
+      </c>
+      <c r="F702" t="s">
+        <v>66</v>
+      </c>
+      <c r="G702">
+        <v>20251008</v>
+      </c>
+      <c r="H702" t="s">
+        <v>544</v>
+      </c>
+      <c r="J702">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="703" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A703">
+        <v>248</v>
+      </c>
+      <c r="B703" t="s">
+        <v>938</v>
+      </c>
+      <c r="C703" t="s">
+        <v>59</v>
+      </c>
+      <c r="D703">
+        <v>1311</v>
+      </c>
+      <c r="F703" t="s">
+        <v>66</v>
+      </c>
+      <c r="G703">
+        <v>20251008</v>
+      </c>
+      <c r="H703" t="s">
+        <v>544</v>
+      </c>
+      <c r="J703">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="704" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A704">
+        <v>249</v>
+      </c>
+      <c r="B704" t="s">
+        <v>939</v>
+      </c>
+      <c r="C704" t="s">
+        <v>59</v>
+      </c>
+      <c r="D704">
+        <v>1311</v>
+      </c>
+      <c r="F704" t="s">
+        <v>67</v>
+      </c>
+      <c r="G704">
+        <v>20251008</v>
+      </c>
+      <c r="H704" t="s">
+        <v>544</v>
+      </c>
+      <c r="J704">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="705" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A705">
+        <v>250</v>
+      </c>
+      <c r="B705" t="s">
+        <v>940</v>
+      </c>
+      <c r="C705" t="s">
+        <v>63</v>
+      </c>
+      <c r="D705">
+        <v>1311</v>
+      </c>
+      <c r="F705" t="s">
+        <v>66</v>
+      </c>
+      <c r="G705">
+        <v>20251008</v>
+      </c>
+      <c r="H705" t="s">
+        <v>544</v>
+      </c>
+      <c r="J705">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="706" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A706">
+        <v>800</v>
+      </c>
+      <c r="B706" t="s">
+        <v>941</v>
+      </c>
+      <c r="C706" t="s">
+        <v>62</v>
+      </c>
+      <c r="D706">
+        <v>1311</v>
+      </c>
+      <c r="F706" t="s">
+        <v>66</v>
+      </c>
+      <c r="G706">
+        <v>20251008</v>
+      </c>
+      <c r="H706" t="s">
+        <v>544</v>
+      </c>
+      <c r="J706">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="707" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A707">
+        <v>801</v>
+      </c>
+      <c r="B707" t="s">
+        <v>942</v>
+      </c>
+      <c r="C707" t="s">
+        <v>63</v>
+      </c>
+      <c r="D707">
+        <v>1311</v>
+      </c>
+      <c r="F707" t="s">
+        <v>66</v>
+      </c>
+      <c r="G707">
+        <v>20251008</v>
+      </c>
+      <c r="H707" t="s">
+        <v>544</v>
+      </c>
+      <c r="J707">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="708" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A708">
+        <v>802</v>
+      </c>
+      <c r="B708" t="s">
+        <v>943</v>
+      </c>
+      <c r="C708" t="s">
+        <v>59</v>
+      </c>
+      <c r="D708">
+        <v>1311</v>
+      </c>
+      <c r="F708" t="s">
+        <v>66</v>
+      </c>
+      <c r="G708">
+        <v>20251008</v>
+      </c>
+      <c r="H708" t="s">
+        <v>544</v>
+      </c>
+      <c r="J708">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="709" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A709">
+        <v>803</v>
+      </c>
+      <c r="B709" t="s">
+        <v>944</v>
+      </c>
+      <c r="C709" t="s">
+        <v>62</v>
+      </c>
+      <c r="D709">
+        <v>1311</v>
+      </c>
+      <c r="F709" t="s">
+        <v>66</v>
+      </c>
+      <c r="G709">
+        <v>20251008</v>
+      </c>
+      <c r="H709" t="s">
+        <v>544</v>
+      </c>
+      <c r="J709">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="710" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A710">
+        <v>804</v>
+      </c>
+      <c r="B710" t="s">
+        <v>945</v>
+      </c>
+      <c r="C710" t="s">
+        <v>60</v>
+      </c>
+      <c r="D710">
+        <v>1311</v>
+      </c>
+      <c r="F710" t="s">
+        <v>66</v>
+      </c>
+      <c r="G710">
+        <v>20251008</v>
+      </c>
+      <c r="H710" t="s">
+        <v>544</v>
+      </c>
+      <c r="J710">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="711" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A711">
+        <v>805</v>
+      </c>
+      <c r="B711" t="s">
+        <v>946</v>
+      </c>
+      <c r="C711" t="s">
+        <v>61</v>
+      </c>
+      <c r="D711">
+        <v>1306</v>
+      </c>
+      <c r="F711" t="s">
+        <v>66</v>
+      </c>
+      <c r="G711">
+        <v>20251008</v>
+      </c>
+      <c r="H711" t="s">
+        <v>544</v>
+      </c>
+      <c r="J711">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A712">
+        <v>806</v>
+      </c>
+      <c r="B712" t="s">
+        <v>947</v>
+      </c>
+      <c r="C712" t="s">
+        <v>61</v>
+      </c>
+      <c r="D712">
+        <v>1306</v>
+      </c>
+      <c r="F712" t="s">
+        <v>67</v>
+      </c>
+      <c r="G712">
+        <v>20251008</v>
+      </c>
+      <c r="H712" t="s">
+        <v>544</v>
+      </c>
+      <c r="J712">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="713" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A713">
+        <v>807</v>
+      </c>
+      <c r="B713" t="s">
+        <v>948</v>
+      </c>
+      <c r="C713" t="s">
+        <v>65</v>
+      </c>
+      <c r="D713">
+        <v>1306</v>
+      </c>
+      <c r="F713" t="s">
+        <v>67</v>
+      </c>
+      <c r="G713">
+        <v>20251008</v>
+      </c>
+      <c r="H713" t="s">
+        <v>544</v>
+      </c>
+      <c r="J713">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="714" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A714">
+        <v>808</v>
+      </c>
+      <c r="B714" t="s">
+        <v>949</v>
+      </c>
+      <c r="C714" t="s">
+        <v>65</v>
+      </c>
+      <c r="D714">
+        <v>1306</v>
+      </c>
+      <c r="F714" t="s">
+        <v>67</v>
+      </c>
+      <c r="G714">
+        <v>20251008</v>
+      </c>
+      <c r="H714" t="s">
+        <v>544</v>
+      </c>
+      <c r="J714">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="715" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A715">
+        <v>809</v>
+      </c>
+      <c r="B715" t="s">
+        <v>940</v>
+      </c>
+      <c r="C715" t="s">
+        <v>60</v>
+      </c>
+      <c r="D715">
+        <v>1306</v>
+      </c>
+      <c r="F715" t="s">
+        <v>66</v>
+      </c>
+      <c r="G715">
+        <v>20251008</v>
+      </c>
+      <c r="H715" t="s">
+        <v>544</v>
+      </c>
+      <c r="J715">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/F25_Sampling.xlsx
+++ b/F25_Sampling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trini/Documents/Shedd/biota_project_genomicshifts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6562E118-875D-6848-B82F-69F62C0640EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5588A64F-1A65-D142-A4E1-AF0E4AFA8133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="500" windowWidth="32900" windowHeight="17620" activeTab="1" xr2:uid="{07AAFEEF-A83C-484C-8992-E89847C75F27}"/>
+    <workbookView xWindow="1600" yWindow="500" windowWidth="24760" windowHeight="17620" activeTab="1" xr2:uid="{07AAFEEF-A83C-484C-8992-E89847C75F27}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="1017">
   <si>
     <t xml:space="preserve">Bag </t>
   </si>
@@ -2890,6 +2890,207 @@
   </si>
   <si>
     <t>F25_647</t>
+  </si>
+  <si>
+    <t>thrown out</t>
+  </si>
+  <si>
+    <t>WP319</t>
+  </si>
+  <si>
+    <t>F25_853</t>
+  </si>
+  <si>
+    <t>F25_866</t>
+  </si>
+  <si>
+    <t>also F25_865</t>
+  </si>
+  <si>
+    <t>F25_860</t>
+  </si>
+  <si>
+    <t>F25_856</t>
+  </si>
+  <si>
+    <t>F25_854</t>
+  </si>
+  <si>
+    <t>F25_845</t>
+  </si>
+  <si>
+    <t>F25_847</t>
+  </si>
+  <si>
+    <t>F25_849</t>
+  </si>
+  <si>
+    <t>F25_858</t>
+  </si>
+  <si>
+    <t>F25_859</t>
+  </si>
+  <si>
+    <t>F25_861</t>
+  </si>
+  <si>
+    <t>F25_863</t>
+  </si>
+  <si>
+    <t>F25_846</t>
+  </si>
+  <si>
+    <t>F25_800</t>
+  </si>
+  <si>
+    <t>F25_851</t>
+  </si>
+  <si>
+    <t>F25_852</t>
+  </si>
+  <si>
+    <t>F25_862</t>
+  </si>
+  <si>
+    <t>F25_872</t>
+  </si>
+  <si>
+    <t>F25_869</t>
+  </si>
+  <si>
+    <t>F25_873</t>
+  </si>
+  <si>
+    <t>F25_867</t>
+  </si>
+  <si>
+    <t>F25_868</t>
+  </si>
+  <si>
+    <t>F25_874</t>
+  </si>
+  <si>
+    <t>F25_875</t>
+  </si>
+  <si>
+    <t>F25_855</t>
+  </si>
+  <si>
+    <t>F25_857</t>
+  </si>
+  <si>
+    <t>F25_864</t>
+  </si>
+  <si>
+    <t>F25_871</t>
+  </si>
+  <si>
+    <t>F25_848</t>
+  </si>
+  <si>
+    <t>F25_870</t>
+  </si>
+  <si>
+    <t>F25_850</t>
+  </si>
+  <si>
+    <t>F25)876</t>
+  </si>
+  <si>
+    <t>F25_877</t>
+  </si>
+  <si>
+    <t>F25_824</t>
+  </si>
+  <si>
+    <t>F25_817</t>
+  </si>
+  <si>
+    <t>F25_822</t>
+  </si>
+  <si>
+    <t>F25_821</t>
+  </si>
+  <si>
+    <t>F25_828</t>
+  </si>
+  <si>
+    <t>F25_819</t>
+  </si>
+  <si>
+    <t>F25_818</t>
+  </si>
+  <si>
+    <t>F25_825</t>
+  </si>
+  <si>
+    <t>F25_826</t>
+  </si>
+  <si>
+    <t>F25_827</t>
+  </si>
+  <si>
+    <t>F25_816</t>
+  </si>
+  <si>
+    <t>F25_839</t>
+  </si>
+  <si>
+    <t>F25_832</t>
+  </si>
+  <si>
+    <t>F25_830</t>
+  </si>
+  <si>
+    <t>F25_823</t>
+  </si>
+  <si>
+    <t>F25_833</t>
+  </si>
+  <si>
+    <t>F25_881</t>
+  </si>
+  <si>
+    <t>F25_842</t>
+  </si>
+  <si>
+    <t>F25_843</t>
+  </si>
+  <si>
+    <t>F25_844</t>
+  </si>
+  <si>
+    <t>F25_841</t>
+  </si>
+  <si>
+    <t>F25_840</t>
+  </si>
+  <si>
+    <t>F25_834</t>
+  </si>
+  <si>
+    <t>F25_836</t>
+  </si>
+  <si>
+    <t>F25_838</t>
+  </si>
+  <si>
+    <t>F25_837</t>
+  </si>
+  <si>
+    <t>F25_835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency </t>
+  </si>
+  <si>
+    <t>#of DRMs</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Colonies </t>
   </si>
 </sst>
 </file>
@@ -2946,7 +3147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3083,64 +3284,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="double">
         <color indexed="64"/>
       </right>
@@ -3176,11 +3319,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3199,14 +3432,16 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4053,19 +4288,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859618DA-7D2E-F14A-9531-A0F7323C3157}">
-  <dimension ref="A1:P715"/>
+  <dimension ref="A1:U778"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
-      <selection activeCell="K711" sqref="K711"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J779" sqref="J779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="16.1640625" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4100,7 +4336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>14</v>
       </c>
@@ -4129,7 +4365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60</v>
       </c>
@@ -4167,11 +4403,23 @@
       <c r="O3" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="24" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>62</v>
       </c>
@@ -4205,23 +4453,36 @@
       <c r="K4" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="16">
         <f>COUNTIFS(C:C, "Cnat")</f>
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="O4" s="12">
         <f>COUNTIFS(C:C,"Cnat", F:F, "Y" )</f>
-        <v>23</v>
-      </c>
-      <c r="P4" s="17">
+        <v>27</v>
+      </c>
+      <c r="P4" s="8">
         <f>COUNTIFS(C:C,"Cnat", F:F, "N" )</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="20">
+        <f>(N4/U4)*100</f>
+        <v>80.833333333333329</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="2">
+        <v>141</v>
+      </c>
+      <c r="U4" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>66</v>
       </c>
@@ -4252,23 +4513,36 @@
       <c r="K5" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="17">
         <f>COUNTIFS(C:C, "Dlab")</f>
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O5" s="13">
         <f>COUNTIFS(C:C,"Dlab", F:F, "Y" )</f>
-        <v>31</v>
-      </c>
-      <c r="P5" s="18">
+        <v>35</v>
+      </c>
+      <c r="P5" s="21">
         <f>COUNTIFS(C:C,"Dlab", F:F, "N" )</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="22">
+        <f>(N5/U5)*100</f>
+        <v>195</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" s="2">
+        <v>141</v>
+      </c>
+      <c r="U5" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>105</v>
       </c>
@@ -4296,23 +4570,36 @@
       <c r="J6">
         <v>51</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="17">
         <f>COUNTIFS(C:C,"Mcav")</f>
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O6" s="13">
         <f>COUNTIFS(C:C,"Mcav", F:F, "Y" )</f>
-        <v>40</v>
-      </c>
-      <c r="P6" s="18">
+        <v>43</v>
+      </c>
+      <c r="P6" s="21">
         <f>COUNTIFS(C:C,"Mcav", F:F, "N" )</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="22">
+        <f>(N6/U6)*100</f>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="2">
+        <v>141</v>
+      </c>
+      <c r="U6" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>77</v>
       </c>
@@ -4340,23 +4627,36 @@
       <c r="J7">
         <v>56</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="17">
         <f>COUNTIFS(C:C, "Sint")</f>
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O7" s="14">
         <f>COUNTIFS(C:C,"Sint", F:F, "Y" )</f>
-        <v>40</v>
-      </c>
-      <c r="P7" s="18">
+        <v>44</v>
+      </c>
+      <c r="P7" s="21">
         <f>COUNTIFS(C:C,"Sint", F:F, "N" )</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="22">
+        <f>(N7/U7)*100</f>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="2">
+        <v>141</v>
+      </c>
+      <c r="U7" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>17</v>
       </c>
@@ -4387,23 +4687,36 @@
       <c r="K8" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="17">
         <f>COUNTIFS(C:C, "Past")</f>
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O8" s="13">
         <f>COUNTIFS(C:C,"Past", F:F, "Y" )</f>
-        <v>46</v>
-      </c>
-      <c r="P8" s="18">
+        <v>50</v>
+      </c>
+      <c r="P8" s="21">
         <f>COUNTIFS(C:C,"Past", F:F, "N" )</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="22">
+        <f>(N8/U8)*100</f>
+        <v>55.500000000000007</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T8" s="2">
+        <v>141</v>
+      </c>
+      <c r="U8" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>54</v>
       </c>
@@ -4434,23 +4747,36 @@
       <c r="J9">
         <v>51</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="17">
         <f>COUNTIFS(C:C, "Pstr")</f>
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O9" s="13">
         <f>COUNTIFS(C:C,"Pstr", F:F, "Y" )</f>
-        <v>26</v>
-      </c>
-      <c r="P9" s="18">
+        <v>28</v>
+      </c>
+      <c r="P9" s="21">
         <f>COUNTIFS(C:C,"Pstr", F:F, "N" )</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="22">
+        <f>(N9/U9)*100</f>
+        <v>85</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="2">
+        <v>141</v>
+      </c>
+      <c r="U9" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>115</v>
       </c>
@@ -4478,23 +4804,36 @@
       <c r="J10">
         <v>54</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="17">
         <f>COUNTIFS(C:C, "Ssid")</f>
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O10" s="13">
         <f>COUNTIFS(C:C,"Ssid", F:F, "Y" )</f>
-        <v>45</v>
-      </c>
-      <c r="P10" s="18">
+        <v>49</v>
+      </c>
+      <c r="P10" s="21">
         <f>COUNTIFS(C:C,"Ssid", F:F, "N" )</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="22">
+        <f>(N10/U10)*100</f>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="2">
+        <v>141</v>
+      </c>
+      <c r="U10" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>76</v>
       </c>
@@ -4525,12 +4864,13 @@
       <c r="M11" s="9"/>
       <c r="N11" s="6">
         <f>SUM(N4:N10)</f>
-        <v>705</v>
+        <v>767</v>
       </c>
       <c r="O11" s="15"/>
-      <c r="P11" s="19"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="23"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>78</v>
       </c>
@@ -4559,7 +4899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>79</v>
       </c>
@@ -4588,7 +4928,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>35</v>
       </c>
@@ -4614,7 +4954,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4643,7 +4983,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4671,7 +5011,7 @@
       <c r="J16">
         <v>53</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="19" t="s">
         <v>700</v>
       </c>
       <c r="N16">
@@ -4707,7 +5047,7 @@
       <c r="J17">
         <v>52</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="19" t="s">
         <v>701</v>
       </c>
       <c r="N17">
@@ -24126,7 +24466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>250</v>
       </c>
@@ -24152,7 +24492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>800</v>
       </c>
@@ -24178,7 +24518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>801</v>
       </c>
@@ -24204,7 +24544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>802</v>
       </c>
@@ -24230,7 +24570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>803</v>
       </c>
@@ -24256,7 +24596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>804</v>
       </c>
@@ -24282,7 +24622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>805</v>
       </c>
@@ -24308,7 +24648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>806</v>
       </c>
@@ -24334,7 +24674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>807</v>
       </c>
@@ -24360,7 +24700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>808</v>
       </c>
@@ -24386,7 +24726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>809</v>
       </c>
@@ -24410,6 +24750,1644 @@
       </c>
       <c r="J715">
         <v>11</v>
+      </c>
+    </row>
+    <row r="716" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A716">
+        <v>810</v>
+      </c>
+      <c r="B716" t="s">
+        <v>952</v>
+      </c>
+      <c r="C716" t="s">
+        <v>59</v>
+      </c>
+      <c r="D716" t="s">
+        <v>951</v>
+      </c>
+      <c r="F716" t="s">
+        <v>66</v>
+      </c>
+      <c r="G716">
+        <v>20251009</v>
+      </c>
+      <c r="H716" t="s">
+        <v>544</v>
+      </c>
+      <c r="J716">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="717" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A717">
+        <v>811</v>
+      </c>
+      <c r="B717" t="s">
+        <v>953</v>
+      </c>
+      <c r="C717" t="s">
+        <v>60</v>
+      </c>
+      <c r="D717" t="s">
+        <v>951</v>
+      </c>
+      <c r="F717" t="s">
+        <v>66</v>
+      </c>
+      <c r="G717">
+        <v>20251009</v>
+      </c>
+      <c r="H717" t="s">
+        <v>544</v>
+      </c>
+      <c r="J717">
+        <v>35</v>
+      </c>
+      <c r="K717" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A718">
+        <v>812</v>
+      </c>
+      <c r="B718" t="s">
+        <v>955</v>
+      </c>
+      <c r="C718" t="s">
+        <v>65</v>
+      </c>
+      <c r="D718" t="s">
+        <v>951</v>
+      </c>
+      <c r="F718" t="s">
+        <v>66</v>
+      </c>
+      <c r="G718">
+        <v>20251009</v>
+      </c>
+      <c r="H718" t="s">
+        <v>544</v>
+      </c>
+      <c r="J718">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A719">
+        <v>813</v>
+      </c>
+      <c r="B719" t="s">
+        <v>956</v>
+      </c>
+      <c r="C719" t="s">
+        <v>61</v>
+      </c>
+      <c r="D719" t="s">
+        <v>951</v>
+      </c>
+      <c r="F719" t="s">
+        <v>66</v>
+      </c>
+      <c r="G719">
+        <v>20251009</v>
+      </c>
+      <c r="H719" t="s">
+        <v>544</v>
+      </c>
+      <c r="J719">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="720" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A720">
+        <v>814</v>
+      </c>
+      <c r="B720" t="s">
+        <v>957</v>
+      </c>
+      <c r="C720" t="s">
+        <v>59</v>
+      </c>
+      <c r="D720" t="s">
+        <v>951</v>
+      </c>
+      <c r="F720" t="s">
+        <v>67</v>
+      </c>
+      <c r="G720">
+        <v>20251009</v>
+      </c>
+      <c r="H720" t="s">
+        <v>544</v>
+      </c>
+      <c r="J720">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="721" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A721">
+        <v>815</v>
+      </c>
+      <c r="B721" t="s">
+        <v>958</v>
+      </c>
+      <c r="C721" t="s">
+        <v>62</v>
+      </c>
+      <c r="D721" t="s">
+        <v>951</v>
+      </c>
+      <c r="F721" t="s">
+        <v>66</v>
+      </c>
+      <c r="G721">
+        <v>20251009</v>
+      </c>
+      <c r="H721" t="s">
+        <v>544</v>
+      </c>
+      <c r="J721">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="722" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A722">
+        <v>816</v>
+      </c>
+      <c r="B722" t="s">
+        <v>959</v>
+      </c>
+      <c r="C722" t="s">
+        <v>61</v>
+      </c>
+      <c r="D722" t="s">
+        <v>951</v>
+      </c>
+      <c r="F722" t="s">
+        <v>67</v>
+      </c>
+      <c r="G722">
+        <v>20251009</v>
+      </c>
+      <c r="H722" t="s">
+        <v>544</v>
+      </c>
+      <c r="J722">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="723" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A723">
+        <v>817</v>
+      </c>
+      <c r="B723" t="s">
+        <v>960</v>
+      </c>
+      <c r="C723" t="s">
+        <v>60</v>
+      </c>
+      <c r="D723" t="s">
+        <v>951</v>
+      </c>
+      <c r="F723" t="s">
+        <v>67</v>
+      </c>
+      <c r="G723">
+        <v>20251009</v>
+      </c>
+      <c r="H723" t="s">
+        <v>544</v>
+      </c>
+      <c r="J723">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="724" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A724">
+        <v>818</v>
+      </c>
+      <c r="C724" t="s">
+        <v>950</v>
+      </c>
+      <c r="D724" t="s">
+        <v>951</v>
+      </c>
+      <c r="F724" t="s">
+        <v>66</v>
+      </c>
+      <c r="G724">
+        <v>20251009</v>
+      </c>
+      <c r="H724" t="s">
+        <v>544</v>
+      </c>
+      <c r="J724">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="725" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A725">
+        <v>819</v>
+      </c>
+      <c r="B725" t="s">
+        <v>961</v>
+      </c>
+      <c r="C725" t="s">
+        <v>64</v>
+      </c>
+      <c r="D725" t="s">
+        <v>951</v>
+      </c>
+      <c r="F725" t="s">
+        <v>67</v>
+      </c>
+      <c r="G725">
+        <v>20251009</v>
+      </c>
+      <c r="H725" t="s">
+        <v>544</v>
+      </c>
+      <c r="J725">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="726" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A726">
+        <v>820</v>
+      </c>
+      <c r="B726" t="s">
+        <v>962</v>
+      </c>
+      <c r="C726" t="s">
+        <v>62</v>
+      </c>
+      <c r="D726" t="s">
+        <v>951</v>
+      </c>
+      <c r="F726" t="s">
+        <v>67</v>
+      </c>
+      <c r="G726">
+        <v>20251009</v>
+      </c>
+      <c r="H726" t="s">
+        <v>544</v>
+      </c>
+      <c r="J726">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="727" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A727">
+        <v>821</v>
+      </c>
+      <c r="B727" t="s">
+        <v>963</v>
+      </c>
+      <c r="C727" t="s">
+        <v>63</v>
+      </c>
+      <c r="D727" t="s">
+        <v>951</v>
+      </c>
+      <c r="F727" t="s">
+        <v>67</v>
+      </c>
+      <c r="G727">
+        <v>20251009</v>
+      </c>
+      <c r="H727" t="s">
+        <v>544</v>
+      </c>
+      <c r="J727">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="728" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A728">
+        <v>822</v>
+      </c>
+      <c r="B728" t="s">
+        <v>964</v>
+      </c>
+      <c r="C728" t="s">
+        <v>65</v>
+      </c>
+      <c r="D728" t="s">
+        <v>951</v>
+      </c>
+      <c r="F728" t="s">
+        <v>67</v>
+      </c>
+      <c r="G728">
+        <v>20251009</v>
+      </c>
+      <c r="H728" t="s">
+        <v>544</v>
+      </c>
+      <c r="J728">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="729" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>823</v>
+      </c>
+      <c r="B729" t="s">
+        <v>965</v>
+      </c>
+      <c r="C729" t="s">
+        <v>59</v>
+      </c>
+      <c r="D729">
+        <v>1293</v>
+      </c>
+      <c r="F729" t="s">
+        <v>67</v>
+      </c>
+      <c r="G729">
+        <v>20251009</v>
+      </c>
+      <c r="H729" t="s">
+        <v>544</v>
+      </c>
+      <c r="J729">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="730" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A730">
+        <v>824</v>
+      </c>
+      <c r="B730" t="s">
+        <v>966</v>
+      </c>
+      <c r="C730" t="s">
+        <v>62</v>
+      </c>
+      <c r="D730">
+        <v>1293</v>
+      </c>
+      <c r="F730" t="s">
+        <v>67</v>
+      </c>
+      <c r="G730">
+        <v>20251009</v>
+      </c>
+      <c r="H730" t="s">
+        <v>544</v>
+      </c>
+      <c r="J730">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="731" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A731">
+        <v>920</v>
+      </c>
+      <c r="B731" t="s">
+        <v>967</v>
+      </c>
+      <c r="C731" t="s">
+        <v>65</v>
+      </c>
+      <c r="D731">
+        <v>1293</v>
+      </c>
+      <c r="F731" t="s">
+        <v>66</v>
+      </c>
+      <c r="G731">
+        <v>20251009</v>
+      </c>
+      <c r="H731" t="s">
+        <v>544</v>
+      </c>
+      <c r="J731">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="732" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A732">
+        <v>921</v>
+      </c>
+      <c r="B732" t="s">
+        <v>968</v>
+      </c>
+      <c r="C732" t="s">
+        <v>63</v>
+      </c>
+      <c r="D732">
+        <v>1293</v>
+      </c>
+      <c r="F732" t="s">
+        <v>66</v>
+      </c>
+      <c r="G732">
+        <v>20251009</v>
+      </c>
+      <c r="H732" t="s">
+        <v>544</v>
+      </c>
+      <c r="J732">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="733" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A733">
+        <v>900</v>
+      </c>
+      <c r="B733" t="s">
+        <v>969</v>
+      </c>
+      <c r="C733" t="s">
+        <v>60</v>
+      </c>
+      <c r="D733">
+        <v>1293</v>
+      </c>
+      <c r="F733" t="s">
+        <v>67</v>
+      </c>
+      <c r="G733">
+        <v>20251009</v>
+      </c>
+      <c r="H733" t="s">
+        <v>544</v>
+      </c>
+      <c r="J733">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="734" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A734">
+        <v>901</v>
+      </c>
+      <c r="B734" t="s">
+        <v>970</v>
+      </c>
+      <c r="C734" t="s">
+        <v>62</v>
+      </c>
+      <c r="D734">
+        <v>1293</v>
+      </c>
+      <c r="F734" t="s">
+        <v>66</v>
+      </c>
+      <c r="G734">
+        <v>20251009</v>
+      </c>
+      <c r="H734" t="s">
+        <v>544</v>
+      </c>
+      <c r="J734">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="735" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A735">
+        <v>902</v>
+      </c>
+      <c r="B735" t="s">
+        <v>971</v>
+      </c>
+      <c r="C735" t="s">
+        <v>64</v>
+      </c>
+      <c r="D735">
+        <v>1293</v>
+      </c>
+      <c r="F735" t="s">
+        <v>66</v>
+      </c>
+      <c r="G735">
+        <v>20251009</v>
+      </c>
+      <c r="H735" t="s">
+        <v>544</v>
+      </c>
+      <c r="J735">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="736" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A736">
+        <v>903</v>
+      </c>
+      <c r="B736" t="s">
+        <v>972</v>
+      </c>
+      <c r="C736" t="s">
+        <v>65</v>
+      </c>
+      <c r="D736">
+        <v>1293</v>
+      </c>
+      <c r="F736" t="s">
+        <v>67</v>
+      </c>
+      <c r="G736">
+        <v>20251009</v>
+      </c>
+      <c r="H736" t="s">
+        <v>544</v>
+      </c>
+      <c r="J736">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="737" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A737">
+        <v>904</v>
+      </c>
+      <c r="B737" t="s">
+        <v>973</v>
+      </c>
+      <c r="C737" t="s">
+        <v>64</v>
+      </c>
+      <c r="D737">
+        <v>1293</v>
+      </c>
+      <c r="F737" t="s">
+        <v>66</v>
+      </c>
+      <c r="G737">
+        <v>20251009</v>
+      </c>
+      <c r="H737" t="s">
+        <v>544</v>
+      </c>
+      <c r="J737">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="738" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A738">
+        <v>905</v>
+      </c>
+      <c r="B738" t="s">
+        <v>974</v>
+      </c>
+      <c r="C738" t="s">
+        <v>61</v>
+      </c>
+      <c r="D738">
+        <v>1293</v>
+      </c>
+      <c r="F738" t="s">
+        <v>66</v>
+      </c>
+      <c r="G738">
+        <v>20251009</v>
+      </c>
+      <c r="H738" t="s">
+        <v>544</v>
+      </c>
+      <c r="J738">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="739" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A739">
+        <v>906</v>
+      </c>
+      <c r="B739" t="s">
+        <v>975</v>
+      </c>
+      <c r="C739" t="s">
+        <v>61</v>
+      </c>
+      <c r="D739">
+        <v>1293</v>
+      </c>
+      <c r="F739" t="s">
+        <v>67</v>
+      </c>
+      <c r="G739">
+        <v>20251009</v>
+      </c>
+      <c r="H739" t="s">
+        <v>544</v>
+      </c>
+      <c r="J739">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="740" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A740">
+        <v>907</v>
+      </c>
+      <c r="B740" t="s">
+        <v>976</v>
+      </c>
+      <c r="C740" t="s">
+        <v>60</v>
+      </c>
+      <c r="D740">
+        <v>1293</v>
+      </c>
+      <c r="F740" t="s">
+        <v>66</v>
+      </c>
+      <c r="G740">
+        <v>20251009</v>
+      </c>
+      <c r="H740" t="s">
+        <v>544</v>
+      </c>
+      <c r="J740">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="741" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A741">
+        <v>908</v>
+      </c>
+      <c r="B741" t="s">
+        <v>977</v>
+      </c>
+      <c r="C741" t="s">
+        <v>59</v>
+      </c>
+      <c r="D741">
+        <v>1293</v>
+      </c>
+      <c r="F741" t="s">
+        <v>66</v>
+      </c>
+      <c r="G741">
+        <v>20251009</v>
+      </c>
+      <c r="H741" t="s">
+        <v>544</v>
+      </c>
+      <c r="J741">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="742" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A742">
+        <v>909</v>
+      </c>
+      <c r="B742" t="s">
+        <v>978</v>
+      </c>
+      <c r="C742" t="s">
+        <v>64</v>
+      </c>
+      <c r="D742">
+        <v>1293</v>
+      </c>
+      <c r="F742" t="s">
+        <v>66</v>
+      </c>
+      <c r="G742">
+        <v>20251009</v>
+      </c>
+      <c r="H742" t="s">
+        <v>544</v>
+      </c>
+      <c r="J742">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="743" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A743">
+        <v>910</v>
+      </c>
+      <c r="B743" t="s">
+        <v>979</v>
+      </c>
+      <c r="C743" t="s">
+        <v>64</v>
+      </c>
+      <c r="D743">
+        <v>1293</v>
+      </c>
+      <c r="F743" t="s">
+        <v>66</v>
+      </c>
+      <c r="G743">
+        <v>20251009</v>
+      </c>
+      <c r="H743" t="s">
+        <v>544</v>
+      </c>
+      <c r="J743">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="744" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A744">
+        <v>911</v>
+      </c>
+      <c r="B744" t="s">
+        <v>980</v>
+      </c>
+      <c r="C744" t="s">
+        <v>64</v>
+      </c>
+      <c r="D744">
+        <v>1293</v>
+      </c>
+      <c r="F744" t="s">
+        <v>66</v>
+      </c>
+      <c r="G744">
+        <v>20251009</v>
+      </c>
+      <c r="H744" t="s">
+        <v>544</v>
+      </c>
+      <c r="J744">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="745" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A745">
+        <v>912</v>
+      </c>
+      <c r="B745" t="s">
+        <v>981</v>
+      </c>
+      <c r="C745" t="s">
+        <v>64</v>
+      </c>
+      <c r="D745">
+        <v>1293</v>
+      </c>
+      <c r="F745" t="s">
+        <v>66</v>
+      </c>
+      <c r="G745">
+        <v>20251009</v>
+      </c>
+      <c r="H745" t="s">
+        <v>544</v>
+      </c>
+      <c r="J745">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="746" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A746">
+        <v>913</v>
+      </c>
+      <c r="B746" t="s">
+        <v>982</v>
+      </c>
+      <c r="C746" t="s">
+        <v>64</v>
+      </c>
+      <c r="D746">
+        <v>1293</v>
+      </c>
+      <c r="F746" t="s">
+        <v>67</v>
+      </c>
+      <c r="G746">
+        <v>20251009</v>
+      </c>
+      <c r="H746" t="s">
+        <v>544</v>
+      </c>
+      <c r="J746">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="747" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A747">
+        <v>914</v>
+      </c>
+      <c r="B747" t="s">
+        <v>983</v>
+      </c>
+      <c r="C747" t="s">
+        <v>64</v>
+      </c>
+      <c r="D747">
+        <v>1293</v>
+      </c>
+      <c r="F747" t="s">
+        <v>66</v>
+      </c>
+      <c r="G747">
+        <v>20251009</v>
+      </c>
+      <c r="H747" t="s">
+        <v>544</v>
+      </c>
+      <c r="J747">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="748" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A748">
+        <v>915</v>
+      </c>
+      <c r="B748" t="s">
+        <v>984</v>
+      </c>
+      <c r="C748" t="s">
+        <v>63</v>
+      </c>
+      <c r="D748">
+        <v>1293</v>
+      </c>
+      <c r="F748" t="s">
+        <v>67</v>
+      </c>
+      <c r="G748">
+        <v>20251009</v>
+      </c>
+      <c r="H748" t="s">
+        <v>544</v>
+      </c>
+      <c r="J748">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="749" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A749">
+        <v>916</v>
+      </c>
+      <c r="B749" t="s">
+        <v>985</v>
+      </c>
+      <c r="C749" t="s">
+        <v>64</v>
+      </c>
+      <c r="D749">
+        <v>1293</v>
+      </c>
+      <c r="F749" t="s">
+        <v>66</v>
+      </c>
+      <c r="G749">
+        <v>20251009</v>
+      </c>
+      <c r="H749" t="s">
+        <v>544</v>
+      </c>
+      <c r="J749">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="750" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A750">
+        <v>847</v>
+      </c>
+      <c r="B750" t="s">
+        <v>986</v>
+      </c>
+      <c r="C750" t="s">
+        <v>64</v>
+      </c>
+      <c r="D750">
+        <v>1294</v>
+      </c>
+      <c r="F750" t="s">
+        <v>66</v>
+      </c>
+      <c r="G750">
+        <v>20251009</v>
+      </c>
+      <c r="H750" t="s">
+        <v>19</v>
+      </c>
+      <c r="J750">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="751" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A751">
+        <v>848</v>
+      </c>
+      <c r="B751" t="s">
+        <v>987</v>
+      </c>
+      <c r="C751" t="s">
+        <v>61</v>
+      </c>
+      <c r="D751">
+        <v>1294</v>
+      </c>
+      <c r="F751" t="s">
+        <v>67</v>
+      </c>
+      <c r="G751">
+        <v>20251009</v>
+      </c>
+      <c r="H751" t="s">
+        <v>19</v>
+      </c>
+      <c r="J751">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="752" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A752">
+        <v>845</v>
+      </c>
+      <c r="B752" t="s">
+        <v>988</v>
+      </c>
+      <c r="C752" t="s">
+        <v>59</v>
+      </c>
+      <c r="D752">
+        <v>1294</v>
+      </c>
+      <c r="F752" t="s">
+        <v>67</v>
+      </c>
+      <c r="G752">
+        <v>20251009</v>
+      </c>
+      <c r="H752" t="s">
+        <v>19</v>
+      </c>
+      <c r="J752">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="753" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A753">
+        <v>846</v>
+      </c>
+      <c r="B753" t="s">
+        <v>989</v>
+      </c>
+      <c r="C753" t="s">
+        <v>62</v>
+      </c>
+      <c r="D753">
+        <v>1294</v>
+      </c>
+      <c r="F753" t="s">
+        <v>66</v>
+      </c>
+      <c r="G753">
+        <v>20251009</v>
+      </c>
+      <c r="H753" t="s">
+        <v>19</v>
+      </c>
+      <c r="J753">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="754" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A754">
+        <v>849</v>
+      </c>
+      <c r="B754" t="s">
+        <v>990</v>
+      </c>
+      <c r="C754" t="s">
+        <v>64</v>
+      </c>
+      <c r="D754">
+        <v>1294</v>
+      </c>
+      <c r="F754" t="s">
+        <v>66</v>
+      </c>
+      <c r="G754">
+        <v>20251009</v>
+      </c>
+      <c r="H754" t="s">
+        <v>19</v>
+      </c>
+      <c r="J754">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="755" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A755">
+        <v>925</v>
+      </c>
+      <c r="B755" t="s">
+        <v>991</v>
+      </c>
+      <c r="C755" t="s">
+        <v>64</v>
+      </c>
+      <c r="D755">
+        <v>1294</v>
+      </c>
+      <c r="F755" t="s">
+        <v>66</v>
+      </c>
+      <c r="G755">
+        <v>20251009</v>
+      </c>
+      <c r="H755" t="s">
+        <v>19</v>
+      </c>
+      <c r="J755">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="756" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A756">
+        <v>926</v>
+      </c>
+      <c r="B756" t="s">
+        <v>992</v>
+      </c>
+      <c r="C756" t="s">
+        <v>61</v>
+      </c>
+      <c r="D756">
+        <v>1294</v>
+      </c>
+      <c r="F756" t="s">
+        <v>66</v>
+      </c>
+      <c r="G756">
+        <v>20251009</v>
+      </c>
+      <c r="H756" t="s">
+        <v>19</v>
+      </c>
+      <c r="J756">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="757" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A757">
+        <v>927</v>
+      </c>
+      <c r="B757" t="s">
+        <v>993</v>
+      </c>
+      <c r="C757" t="s">
+        <v>65</v>
+      </c>
+      <c r="D757">
+        <v>1294</v>
+      </c>
+      <c r="F757" t="s">
+        <v>67</v>
+      </c>
+      <c r="G757">
+        <v>20251009</v>
+      </c>
+      <c r="H757" t="s">
+        <v>19</v>
+      </c>
+      <c r="J757">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="758" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A758">
+        <v>928</v>
+      </c>
+      <c r="B758" t="s">
+        <v>994</v>
+      </c>
+      <c r="C758" t="s">
+        <v>60</v>
+      </c>
+      <c r="D758">
+        <v>1294</v>
+      </c>
+      <c r="F758" t="s">
+        <v>67</v>
+      </c>
+      <c r="G758">
+        <v>20251009</v>
+      </c>
+      <c r="H758" t="s">
+        <v>19</v>
+      </c>
+      <c r="J758">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="759" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A759">
+        <v>929</v>
+      </c>
+      <c r="B759" t="s">
+        <v>995</v>
+      </c>
+      <c r="C759" t="s">
+        <v>64</v>
+      </c>
+      <c r="D759">
+        <v>1294</v>
+      </c>
+      <c r="F759" t="s">
+        <v>67</v>
+      </c>
+      <c r="G759">
+        <v>20251009</v>
+      </c>
+      <c r="H759" t="s">
+        <v>19</v>
+      </c>
+      <c r="J759">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="760" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>930</v>
+      </c>
+      <c r="B760" t="s">
+        <v>990</v>
+      </c>
+      <c r="C760" t="s">
+        <v>62</v>
+      </c>
+      <c r="D760">
+        <v>1294</v>
+      </c>
+      <c r="F760" t="s">
+        <v>67</v>
+      </c>
+      <c r="G760">
+        <v>20251009</v>
+      </c>
+      <c r="H760" t="s">
+        <v>19</v>
+      </c>
+      <c r="J760">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="761" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>931</v>
+      </c>
+      <c r="B761" t="s">
+        <v>996</v>
+      </c>
+      <c r="C761" t="s">
+        <v>65</v>
+      </c>
+      <c r="D761">
+        <v>1294</v>
+      </c>
+      <c r="F761" t="s">
+        <v>66</v>
+      </c>
+      <c r="G761">
+        <v>20251009</v>
+      </c>
+      <c r="H761" t="s">
+        <v>19</v>
+      </c>
+      <c r="J761">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="762" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>932</v>
+      </c>
+      <c r="B762" t="s">
+        <v>997</v>
+      </c>
+      <c r="C762" t="s">
+        <v>59</v>
+      </c>
+      <c r="D762">
+        <v>1292</v>
+      </c>
+      <c r="F762" t="s">
+        <v>66</v>
+      </c>
+      <c r="G762">
+        <v>20251009</v>
+      </c>
+      <c r="H762" t="s">
+        <v>19</v>
+      </c>
+      <c r="J762">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="763" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>949</v>
+      </c>
+      <c r="B763" t="s">
+        <v>998</v>
+      </c>
+      <c r="C763" t="s">
+        <v>64</v>
+      </c>
+      <c r="D763">
+        <v>1292</v>
+      </c>
+      <c r="F763" t="s">
+        <v>67</v>
+      </c>
+      <c r="G763">
+        <v>20251009</v>
+      </c>
+      <c r="H763" t="s">
+        <v>19</v>
+      </c>
+      <c r="J763">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="764" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A764">
+        <v>933</v>
+      </c>
+      <c r="B764" t="s">
+        <v>999</v>
+      </c>
+      <c r="C764" t="s">
+        <v>60</v>
+      </c>
+      <c r="D764">
+        <v>1292</v>
+      </c>
+      <c r="F764" t="s">
+        <v>66</v>
+      </c>
+      <c r="G764">
+        <v>20251009</v>
+      </c>
+      <c r="H764" t="s">
+        <v>19</v>
+      </c>
+      <c r="J764">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="765" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A765">
+        <v>934</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C765" t="s">
+        <v>64</v>
+      </c>
+      <c r="D765">
+        <v>1292</v>
+      </c>
+      <c r="F765" t="s">
+        <v>66</v>
+      </c>
+      <c r="G765">
+        <v>20251009</v>
+      </c>
+      <c r="H765" t="s">
+        <v>19</v>
+      </c>
+      <c r="J765">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="766" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A766">
+        <v>935</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C766" t="s">
+        <v>63</v>
+      </c>
+      <c r="D766">
+        <v>1292</v>
+      </c>
+      <c r="F766" t="s">
+        <v>66</v>
+      </c>
+      <c r="G766">
+        <v>20251009</v>
+      </c>
+      <c r="H766" t="s">
+        <v>19</v>
+      </c>
+      <c r="J766">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="767" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A767">
+        <v>936</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C767" t="s">
+        <v>59</v>
+      </c>
+      <c r="D767">
+        <v>1292</v>
+      </c>
+      <c r="F767" t="s">
+        <v>66</v>
+      </c>
+      <c r="G767">
+        <v>20251009</v>
+      </c>
+      <c r="H767" t="s">
+        <v>19</v>
+      </c>
+      <c r="J767">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="768" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A768">
+        <v>937</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C768" t="s">
+        <v>62</v>
+      </c>
+      <c r="D768">
+        <v>1292</v>
+      </c>
+      <c r="F768" t="s">
+        <v>66</v>
+      </c>
+      <c r="G768">
+        <v>20251009</v>
+      </c>
+      <c r="H768" t="s">
+        <v>19</v>
+      </c>
+      <c r="J768">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="769" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A769">
+        <v>938</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C769" t="s">
+        <v>63</v>
+      </c>
+      <c r="D769">
+        <v>1292</v>
+      </c>
+      <c r="F769" t="s">
+        <v>66</v>
+      </c>
+      <c r="G769">
+        <v>20251009</v>
+      </c>
+      <c r="H769" t="s">
+        <v>19</v>
+      </c>
+      <c r="J769">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="770" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A770">
+        <v>939</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C770" t="s">
+        <v>59</v>
+      </c>
+      <c r="D770">
+        <v>1292</v>
+      </c>
+      <c r="F770" t="s">
+        <v>66</v>
+      </c>
+      <c r="G770">
+        <v>20251009</v>
+      </c>
+      <c r="H770" t="s">
+        <v>19</v>
+      </c>
+      <c r="J770">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="771" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A771">
+        <v>940</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C771" t="s">
+        <v>61</v>
+      </c>
+      <c r="D771">
+        <v>1292</v>
+      </c>
+      <c r="F771" t="s">
+        <v>66</v>
+      </c>
+      <c r="G771">
+        <v>20251009</v>
+      </c>
+      <c r="H771" t="s">
+        <v>19</v>
+      </c>
+      <c r="J771">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="772" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A772">
+        <v>941</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C772" t="s">
+        <v>65</v>
+      </c>
+      <c r="D772">
+        <v>1292</v>
+      </c>
+      <c r="F772" t="s">
+        <v>66</v>
+      </c>
+      <c r="G772">
+        <v>20251009</v>
+      </c>
+      <c r="H772" t="s">
+        <v>19</v>
+      </c>
+      <c r="J772">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="773" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A773">
+        <v>942</v>
+      </c>
+      <c r="B773" t="s">
+        <v>997</v>
+      </c>
+      <c r="C773" t="s">
+        <v>61</v>
+      </c>
+      <c r="D773">
+        <v>1292</v>
+      </c>
+      <c r="F773" t="s">
+        <v>67</v>
+      </c>
+      <c r="G773">
+        <v>20251009</v>
+      </c>
+      <c r="H773" t="s">
+        <v>19</v>
+      </c>
+      <c r="J773">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="774" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A774">
+        <v>943</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C774" t="s">
+        <v>60</v>
+      </c>
+      <c r="D774">
+        <v>1292</v>
+      </c>
+      <c r="F774" t="s">
+        <v>66</v>
+      </c>
+      <c r="G774">
+        <v>20251009</v>
+      </c>
+      <c r="H774" t="s">
+        <v>19</v>
+      </c>
+      <c r="J774">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="775" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A775">
+        <v>944</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C775" t="s">
+        <v>59</v>
+      </c>
+      <c r="D775">
+        <v>1292</v>
+      </c>
+      <c r="F775" t="s">
+        <v>67</v>
+      </c>
+      <c r="G775">
+        <v>20251009</v>
+      </c>
+      <c r="H775" t="s">
+        <v>19</v>
+      </c>
+      <c r="J775">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="776" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A776">
+        <v>945</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C776" t="s">
+        <v>60</v>
+      </c>
+      <c r="D776">
+        <v>1292</v>
+      </c>
+      <c r="F776" t="s">
+        <v>66</v>
+      </c>
+      <c r="G776">
+        <v>20251009</v>
+      </c>
+      <c r="H776" t="s">
+        <v>19</v>
+      </c>
+      <c r="J776">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="777" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A777">
+        <v>946</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C777" t="s">
+        <v>65</v>
+      </c>
+      <c r="D777">
+        <v>1292</v>
+      </c>
+      <c r="F777" t="s">
+        <v>67</v>
+      </c>
+      <c r="G777">
+        <v>20251009</v>
+      </c>
+      <c r="H777" t="s">
+        <v>19</v>
+      </c>
+      <c r="J777">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="778" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A778">
+        <v>947</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C778" t="s">
+        <v>62</v>
+      </c>
+      <c r="D778">
+        <v>1292</v>
+      </c>
+      <c r="F778" t="s">
+        <v>67</v>
+      </c>
+      <c r="G778">
+        <v>20251009</v>
+      </c>
+      <c r="H778" t="s">
+        <v>19</v>
+      </c>
+      <c r="J778">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
